--- a/PS5.xlsx
+++ b/PS5.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="605" documentId="11_4A969315AC5398870E37063AF3FBF645E12CF044" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5EC090CE-2D2D-4C38-8945-982E09E810A4}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agchi\Documents\GitHub\P1-Ciencia-dos-Dados\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E804A8D0-8967-4D09-9798-1A81ACE136FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,7 @@
     <definedName name="_xlchart.v1.3" hidden="1">Teste!$A$2:$A$201</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Teste!$B$2:$B$201</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="505">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1839,7 +1843,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1850,13 +1854,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1906,7 +1903,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1922,1383 +1919,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{B37D5E62-F10C-4D1A-9031-579C96F417C2}" formatIdx="0">
-          <cx:dataLabels pos="inEnd">
-            <cx:visibility seriesName="0" categoryName="0" value="1"/>
-          </cx:dataLabels>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:binning intervalClosed="r"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{CEB2D9DD-CD09-443E-A0B9-D5F377B44354}" formatIdx="1">
-          <cx:dataLabels pos="inEnd">
-            <cx:visibility seriesName="0" categoryName="0" value="1"/>
-          </cx:dataLabels>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:binning intervalClosed="r"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="0"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.3</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{44B87CF3-1994-4AD1-B66A-9357D4E038B1}">
-          <cx:dataLabels pos="inEnd">
-            <cx:visibility seriesName="0" categoryName="0" value="1"/>
-          </cx:dataLabels>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:binning intervalClosed="r"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="0"/>
-        <cx:tickLabels/>
-        <cx:numFmt formatCode="General" sourceLinked="0"/>
-        <cx:txPr>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="900" b="0" i="0">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr sz="900"/>
-          </a:p>
-        </cx:txPr>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling max="110" min="0"/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>7143750</xdr:colOff>
-      <xdr:row>296</xdr:row>
-      <xdr:rowOff>866775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>11715750</xdr:colOff>
-      <xdr:row>306</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Gráfico 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED2EAAC5-9E9D-4DFB-99F8-20EEAE6D4C6C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr sz="1100"/>
-                <a:t>Este gráfico não está disponível na sua versão do Excel.
-Editar esta forma ou salvar esta pasta de trabalho em um formato de arquivo diferente dividirá o gráfico permanentemente.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>13611225</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="6" name="Gráfico 5">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9A093AF-1DF8-4583-9880-0F084F6FDBDC}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr sz="1100"/>
-                <a:t>Este gráfico não está disponível na sua versão do Excel.
-Editar esta forma ou salvar esta pasta de trabalho em um formato de arquivo diferente dividirá o gráfico permanentemente.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3624,44 +2244,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="255.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1">
-        <v>1</v>
+      <c r="D1" t="s">
+        <v>305</v>
       </c>
       <c r="E1">
         <f>152/300</f>
         <v>0.50666666666666671</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>303</v>
       </c>
       <c r="E2">
         <f>148/300</f>
         <v>0.49333333333333335</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="75">
+    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -3669,7 +2292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -3677,7 +2300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -3685,7 +2308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -3693,7 +2316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -3701,7 +2324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -3709,7 +2332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -3717,7 +2340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="45">
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -3725,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -3733,7 +2356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="45">
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -3741,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -3749,7 +2372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -3757,7 +2380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -3765,7 +2388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -3773,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -3781,7 +2404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -3789,7 +2412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -3797,7 +2420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -3805,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="45">
+    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -3813,7 +2436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -3821,7 +2444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -3829,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -3837,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="120">
+    <row r="25" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -3845,7 +2468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30">
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -3853,7 +2476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -3861,7 +2484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -3869,7 +2492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -3877,7 +2500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -3885,7 +2508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
@@ -3893,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -3901,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
@@ -3909,7 +2532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
@@ -3917,7 +2540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="75">
+    <row r="35" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -3925,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="105">
+    <row r="36" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -3933,7 +2556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
@@ -3941,7 +2564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
@@ -3949,7 +2572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
@@ -3957,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
@@ -3965,7 +2588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="90">
+    <row r="41" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
@@ -3973,7 +2596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
@@ -3981,7 +2604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
@@ -3989,7 +2612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
@@ -3997,7 +2620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
@@ -4005,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
@@ -4013,7 +2636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
@@ -4021,7 +2644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
@@ -4029,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="75">
+    <row r="49" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>49</v>
       </c>
@@ -4037,7 +2660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>50</v>
       </c>
@@ -4045,7 +2668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>51</v>
       </c>
@@ -4053,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="30">
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>52</v>
       </c>
@@ -4061,7 +2684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>53</v>
       </c>
@@ -4069,7 +2692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>54</v>
       </c>
@@ -4077,7 +2700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>55</v>
       </c>
@@ -4085,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>56</v>
       </c>
@@ -4093,7 +2716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>57</v>
       </c>
@@ -4101,7 +2724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>58</v>
       </c>
@@ -4109,7 +2732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>59</v>
       </c>
@@ -4117,7 +2740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>60</v>
       </c>
@@ -4125,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="45">
+    <row r="61" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>61</v>
       </c>
@@ -4133,7 +2756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>62</v>
       </c>
@@ -4141,7 +2764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="30">
+    <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>63</v>
       </c>
@@ -4149,7 +2772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>64</v>
       </c>
@@ -4157,7 +2780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>65</v>
       </c>
@@ -4165,7 +2788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>66</v>
       </c>
@@ -4173,7 +2796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="30">
+    <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>67</v>
       </c>
@@ -4181,7 +2804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="45">
+    <row r="68" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>68</v>
       </c>
@@ -4189,7 +2812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>69</v>
       </c>
@@ -4197,7 +2820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>70</v>
       </c>
@@ -4205,7 +2828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>71</v>
       </c>
@@ -4213,7 +2836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="135">
+    <row r="72" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>72</v>
       </c>
@@ -4221,7 +2844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>73</v>
       </c>
@@ -4229,7 +2852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="30">
+    <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>74</v>
       </c>
@@ -4237,7 +2860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="45">
+    <row r="75" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>75</v>
       </c>
@@ -4245,7 +2868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>76</v>
       </c>
@@ -4253,7 +2876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="165">
+    <row r="77" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>77</v>
       </c>
@@ -4261,7 +2884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>78</v>
       </c>
@@ -4269,7 +2892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>79</v>
       </c>
@@ -4277,7 +2900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>80</v>
       </c>
@@ -4285,7 +2908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="45">
+    <row r="81" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>81</v>
       </c>
@@ -4293,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="30">
+    <row r="82" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>82</v>
       </c>
@@ -4301,7 +2924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>83</v>
       </c>
@@ -4309,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="105">
+    <row r="84" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>84</v>
       </c>
@@ -4317,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="30">
+    <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>85</v>
       </c>
@@ -4325,7 +2948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="75">
+    <row r="86" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>86</v>
       </c>
@@ -4333,7 +2956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>87</v>
       </c>
@@ -4341,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="105">
+    <row r="88" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>88</v>
       </c>
@@ -4349,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>89</v>
       </c>
@@ -4357,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="30">
+    <row r="90" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>90</v>
       </c>
@@ -4365,7 +2988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="75">
+    <row r="91" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>91</v>
       </c>
@@ -4373,7 +2996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>92</v>
       </c>
@@ -4381,7 +3004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>93</v>
       </c>
@@ -4389,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="45">
+    <row r="94" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>94</v>
       </c>
@@ -4397,7 +3020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>95</v>
       </c>
@@ -4405,7 +3028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>96</v>
       </c>
@@ -4413,7 +3036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>97</v>
       </c>
@@ -4421,7 +3044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="30">
+    <row r="98" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>98</v>
       </c>
@@ -4429,7 +3052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>99</v>
       </c>
@@ -4437,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>100</v>
       </c>
@@ -4445,7 +3068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="60">
+    <row r="101" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>101</v>
       </c>
@@ -4453,7 +3076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="30">
+    <row r="102" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>102</v>
       </c>
@@ -4461,7 +3084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="60">
+    <row r="103" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>103</v>
       </c>
@@ -4469,7 +3092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>104</v>
       </c>
@@ -4477,7 +3100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="30">
+    <row r="105" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>105</v>
       </c>
@@ -4485,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>106</v>
       </c>
@@ -4493,7 +3116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>107</v>
       </c>
@@ -4501,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>108</v>
       </c>
@@ -4509,7 +3132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>109</v>
       </c>
@@ -4517,7 +3140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>110</v>
       </c>
@@ -4525,7 +3148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>111</v>
       </c>
@@ -4533,7 +3156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="90">
+    <row r="112" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>112</v>
       </c>
@@ -4541,7 +3164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="150">
+    <row r="113" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>113</v>
       </c>
@@ -4549,7 +3172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>114</v>
       </c>
@@ -4557,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="90">
+    <row r="115" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>115</v>
       </c>
@@ -4565,7 +3188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>116</v>
       </c>
@@ -4573,7 +3196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>117</v>
       </c>
@@ -4581,7 +3204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>118</v>
       </c>
@@ -4589,7 +3212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="30">
+    <row r="119" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>119</v>
       </c>
@@ -4597,7 +3220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="30">
+    <row r="120" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>120</v>
       </c>
@@ -4605,7 +3228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="75">
+    <row r="121" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>121</v>
       </c>
@@ -4613,7 +3236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="105">
+    <row r="122" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>122</v>
       </c>
@@ -4621,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>123</v>
       </c>
@@ -4629,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>124</v>
       </c>
@@ -4637,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>125</v>
       </c>
@@ -4645,7 +3268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="75">
+    <row r="126" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>126</v>
       </c>
@@ -4653,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>127</v>
       </c>
@@ -4661,7 +3284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="30">
+    <row r="128" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>128</v>
       </c>
@@ -4669,7 +3292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>129</v>
       </c>
@@ -4677,7 +3300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>130</v>
       </c>
@@ -4685,7 +3308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>131</v>
       </c>
@@ -4693,7 +3316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>132</v>
       </c>
@@ -4701,7 +3324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>133</v>
       </c>
@@ -4709,7 +3332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>134</v>
       </c>
@@ -4717,7 +3340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="60">
+    <row r="135" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>135</v>
       </c>
@@ -4725,7 +3348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>136</v>
       </c>
@@ -4733,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>137</v>
       </c>
@@ -4741,7 +3364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>138</v>
       </c>
@@ -4749,7 +3372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>139</v>
       </c>
@@ -4757,7 +3380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>140</v>
       </c>
@@ -4765,7 +3388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="30">
+    <row r="141" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>141</v>
       </c>
@@ -4773,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>142</v>
       </c>
@@ -4781,7 +3404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>143</v>
       </c>
@@ -4789,7 +3412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="30">
+    <row r="144" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>144</v>
       </c>
@@ -4797,7 +3420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>145</v>
       </c>
@@ -4805,7 +3428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>146</v>
       </c>
@@ -4813,7 +3436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>147</v>
       </c>
@@ -4821,7 +3444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="45">
+    <row r="148" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>148</v>
       </c>
@@ -4829,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>149</v>
       </c>
@@ -4837,7 +3460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>150</v>
       </c>
@@ -4845,7 +3468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>151</v>
       </c>
@@ -4853,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>152</v>
       </c>
@@ -4861,7 +3484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="75">
+    <row r="153" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>153</v>
       </c>
@@ -4869,7 +3492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>154</v>
       </c>
@@ -4877,7 +3500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="45">
+    <row r="155" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>155</v>
       </c>
@@ -4885,7 +3508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="45">
+    <row r="156" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>156</v>
       </c>
@@ -4893,7 +3516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>157</v>
       </c>
@@ -4901,7 +3524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>158</v>
       </c>
@@ -4909,7 +3532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="75">
+    <row r="159" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>159</v>
       </c>
@@ -4917,7 +3540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="45">
+    <row r="160" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>160</v>
       </c>
@@ -4925,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>161</v>
       </c>
@@ -4933,7 +3556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>162</v>
       </c>
@@ -4941,7 +3564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>163</v>
       </c>
@@ -4949,7 +3572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>164</v>
       </c>
@@ -4957,7 +3580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>165</v>
       </c>
@@ -4965,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>166</v>
       </c>
@@ -4973,7 +3596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="45">
+    <row r="167" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>167</v>
       </c>
@@ -4981,7 +3604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="30">
+    <row r="168" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>168</v>
       </c>
@@ -4989,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="45">
+    <row r="169" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>169</v>
       </c>
@@ -4997,7 +3620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>170</v>
       </c>
@@ -5005,7 +3628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>171</v>
       </c>
@@ -5013,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>172</v>
       </c>
@@ -5021,7 +3644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>173</v>
       </c>
@@ -5029,7 +3652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>174</v>
       </c>
@@ -5037,7 +3660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="30">
+    <row r="175" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>175</v>
       </c>
@@ -5045,7 +3668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>176</v>
       </c>
@@ -5053,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>177</v>
       </c>
@@ -5061,7 +3684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="75">
+    <row r="178" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>178</v>
       </c>
@@ -5069,7 +3692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="30">
+    <row r="179" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>179</v>
       </c>
@@ -5077,7 +3700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>180</v>
       </c>
@@ -5085,7 +3708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>181</v>
       </c>
@@ -5093,7 +3716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>182</v>
       </c>
@@ -5101,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>183</v>
       </c>
@@ -5109,7 +3732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>184</v>
       </c>
@@ -5117,7 +3740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="30">
+    <row r="185" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>185</v>
       </c>
@@ -5125,7 +3748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>186</v>
       </c>
@@ -5133,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>187</v>
       </c>
@@ -5141,7 +3764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>188</v>
       </c>
@@ -5149,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>189</v>
       </c>
@@ -5157,7 +3780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>190</v>
       </c>
@@ -5165,7 +3788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="30">
+    <row r="191" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>191</v>
       </c>
@@ -5173,7 +3796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>192</v>
       </c>
@@ -5181,7 +3804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>193</v>
       </c>
@@ -5189,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="30">
+    <row r="194" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>194</v>
       </c>
@@ -5197,7 +3820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>195</v>
       </c>
@@ -5205,7 +3828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>196</v>
       </c>
@@ -5213,7 +3836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="30">
+    <row r="197" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>197</v>
       </c>
@@ -5221,7 +3844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="45">
+    <row r="198" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>198</v>
       </c>
@@ -5229,7 +3852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>199</v>
       </c>
@@ -5237,7 +3860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>200</v>
       </c>
@@ -5245,7 +3868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="45">
+    <row r="201" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>201</v>
       </c>
@@ -5253,7 +3876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="60">
+    <row r="202" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>202</v>
       </c>
@@ -5261,7 +3884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>203</v>
       </c>
@@ -5269,7 +3892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>204</v>
       </c>
@@ -5277,7 +3900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>205</v>
       </c>
@@ -5285,7 +3908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="45">
+    <row r="206" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>206</v>
       </c>
@@ -5293,7 +3916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>207</v>
       </c>
@@ -5301,7 +3924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>208</v>
       </c>
@@ -5309,7 +3932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>209</v>
       </c>
@@ -5317,7 +3940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>210</v>
       </c>
@@ -5325,7 +3948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="30">
+    <row r="211" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>211</v>
       </c>
@@ -5333,7 +3956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>212</v>
       </c>
@@ -5341,7 +3964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>213</v>
       </c>
@@ -5349,7 +3972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>214</v>
       </c>
@@ -5357,7 +3980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>215</v>
       </c>
@@ -5365,7 +3988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>216</v>
       </c>
@@ -5373,7 +3996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>217</v>
       </c>
@@ -5381,7 +4004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>218</v>
       </c>
@@ -5389,7 +4012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>219</v>
       </c>
@@ -5397,7 +4020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>220</v>
       </c>
@@ -5405,7 +4028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>221</v>
       </c>
@@ -5413,7 +4036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="60">
+    <row r="222" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>222</v>
       </c>
@@ -5421,7 +4044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>223</v>
       </c>
@@ -5429,7 +4052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>224</v>
       </c>
@@ -5437,7 +4060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>225</v>
       </c>
@@ -5445,7 +4068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>226</v>
       </c>
@@ -5453,7 +4076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>227</v>
       </c>
@@ -5461,7 +4084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>228</v>
       </c>
@@ -5469,7 +4092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>229</v>
       </c>
@@ -5477,7 +4100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="90">
+    <row r="230" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>230</v>
       </c>
@@ -5485,7 +4108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="210">
+    <row r="231" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>231</v>
       </c>
@@ -5493,7 +4116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>232</v>
       </c>
@@ -5501,7 +4124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="30">
+    <row r="233" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>233</v>
       </c>
@@ -5509,7 +4132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="30">
+    <row r="234" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>234</v>
       </c>
@@ -5517,7 +4140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>235</v>
       </c>
@@ -5525,7 +4148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="75">
+    <row r="236" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>236</v>
       </c>
@@ -5533,7 +4156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>237</v>
       </c>
@@ -5541,7 +4164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>238</v>
       </c>
@@ -5549,7 +4172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="105">
+    <row r="239" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>239</v>
       </c>
@@ -5557,7 +4180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="45">
+    <row r="240" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>240</v>
       </c>
@@ -5565,7 +4188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>241</v>
       </c>
@@ -5573,7 +4196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>242</v>
       </c>
@@ -5581,7 +4204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="30">
+    <row r="243" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>243</v>
       </c>
@@ -5589,7 +4212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>244</v>
       </c>
@@ -5597,7 +4220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>245</v>
       </c>
@@ -5605,7 +4228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="45">
+    <row r="246" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>246</v>
       </c>
@@ -5613,7 +4236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>247</v>
       </c>
@@ -5621,7 +4244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>248</v>
       </c>
@@ -5629,7 +4252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>249</v>
       </c>
@@ -5637,7 +4260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>250</v>
       </c>
@@ -5645,7 +4268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>251</v>
       </c>
@@ -5653,7 +4276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="45">
+    <row r="252" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>252</v>
       </c>
@@ -5661,7 +4284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>253</v>
       </c>
@@ -5669,7 +4292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>254</v>
       </c>
@@ -5677,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="75">
+    <row r="255" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>255</v>
       </c>
@@ -5685,7 +4308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>256</v>
       </c>
@@ -5693,7 +4316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>257</v>
       </c>
@@ -5701,7 +4324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>258</v>
       </c>
@@ -5709,7 +4332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>259</v>
       </c>
@@ -5717,7 +4340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="30">
+    <row r="260" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>260</v>
       </c>
@@ -5725,7 +4348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>261</v>
       </c>
@@ -5733,7 +4356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>262</v>
       </c>
@@ -5741,7 +4364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>263</v>
       </c>
@@ -5749,7 +4372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>264</v>
       </c>
@@ -5757,7 +4380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>265</v>
       </c>
@@ -5765,7 +4388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>266</v>
       </c>
@@ -5773,7 +4396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="30">
+    <row r="267" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>267</v>
       </c>
@@ -5781,7 +4404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="45">
+    <row r="268" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>268</v>
       </c>
@@ -5789,7 +4412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>269</v>
       </c>
@@ -5797,7 +4420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>270</v>
       </c>
@@ -5805,7 +4428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>271</v>
       </c>
@@ -5813,7 +4436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>272</v>
       </c>
@@ -5821,7 +4444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>273</v>
       </c>
@@ -5829,7 +4452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>274</v>
       </c>
@@ -5837,7 +4460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>275</v>
       </c>
@@ -5845,7 +4468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="30">
+    <row r="276" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>276</v>
       </c>
@@ -5853,7 +4476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>277</v>
       </c>
@@ -5861,7 +4484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="45">
+    <row r="278" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>278</v>
       </c>
@@ -5869,7 +4492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>279</v>
       </c>
@@ -5877,7 +4500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>280</v>
       </c>
@@ -5885,7 +4508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>281</v>
       </c>
@@ -5893,7 +4516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>282</v>
       </c>
@@ -5901,7 +4524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="75">
+    <row r="283" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>283</v>
       </c>
@@ -5909,7 +4532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>284</v>
       </c>
@@ -5917,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>285</v>
       </c>
@@ -5925,7 +4548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>286</v>
       </c>
@@ -5933,7 +4556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>287</v>
       </c>
@@ -5941,7 +4564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>288</v>
       </c>
@@ -5949,7 +4572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>289</v>
       </c>
@@ -5957,7 +4580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>290</v>
       </c>
@@ -5965,7 +4588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="30">
+    <row r="291" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>291</v>
       </c>
@@ -5973,7 +4596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>292</v>
       </c>
@@ -5981,7 +4604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>293</v>
       </c>
@@ -5989,7 +4612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>294</v>
       </c>
@@ -5997,7 +4620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>295</v>
       </c>
@@ -6005,7 +4628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>296</v>
       </c>
@@ -6013,7 +4636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="75">
+    <row r="297" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>297</v>
       </c>
@@ -6021,7 +4644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>298</v>
       </c>
@@ -6029,7 +4652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>299</v>
       </c>
@@ -6037,7 +4660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="45">
+    <row r="300" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>300</v>
       </c>
@@ -6045,7 +4668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="45">
+    <row r="301" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>301</v>
       </c>
@@ -6055,7 +4678,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6063,18 +4685,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="255.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>302</v>
       </c>
@@ -6089,7 +4711,7 @@
         <v>0.46733668341708545</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>304</v>
       </c>
@@ -6104,7 +4726,7 @@
         <v>0.53266331658291455</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45">
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>306</v>
       </c>
@@ -6112,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="21">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>307</v>
       </c>
@@ -6120,7 +4742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>308</v>
       </c>
@@ -6128,7 +4750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>309</v>
       </c>
@@ -6136,7 +4758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="21">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>310</v>
       </c>
@@ -6144,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="45">
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>311</v>
       </c>
@@ -6152,7 +4774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="21">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>312</v>
       </c>
@@ -6160,7 +4782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="21">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>313</v>
       </c>
@@ -6168,7 +4790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="21">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>314</v>
       </c>
@@ -6176,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="21">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>315</v>
       </c>
@@ -6184,7 +4806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>316</v>
       </c>
@@ -6192,7 +4814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30">
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>317</v>
       </c>
@@ -6200,7 +4822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>318</v>
       </c>
@@ -6208,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="21">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>319</v>
       </c>
@@ -6216,7 +4838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="21">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>320</v>
       </c>
@@ -6224,7 +4846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="21">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>321</v>
       </c>
@@ -6232,7 +4854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30">
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>322</v>
       </c>
@@ -6240,7 +4862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30">
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>323</v>
       </c>
@@ -6248,7 +4870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="75">
+    <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>324</v>
       </c>
@@ -6256,7 +4878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="21">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>325</v>
       </c>
@@ -6264,7 +4886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30">
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>326</v>
       </c>
@@ -6272,7 +4894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30">
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>327</v>
       </c>
@@ -6280,7 +4902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="21">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>328</v>
       </c>
@@ -6288,7 +4910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="105">
+    <row r="26" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>329</v>
       </c>
@@ -6296,7 +4918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="60">
+    <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>330</v>
       </c>
@@ -6304,7 +4926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="21">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>331</v>
       </c>
@@ -6312,7 +4934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="21">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>332</v>
       </c>
@@ -6320,7 +4942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="21">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>333</v>
       </c>
@@ -6328,7 +4950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="21">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>334</v>
       </c>
@@ -6336,7 +4958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="21">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>335</v>
       </c>
@@ -6344,7 +4966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="21">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>336</v>
       </c>
@@ -6352,7 +4974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30">
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>337</v>
       </c>
@@ -6360,7 +4982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="21">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>338</v>
       </c>
@@ -6368,7 +4990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="21">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>339</v>
       </c>
@@ -6376,7 +4998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="21">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>340</v>
       </c>
@@ -6384,7 +5006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="21">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>341</v>
       </c>
@@ -6392,7 +5014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="21">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>342</v>
       </c>
@@ -6400,7 +5022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="21">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>343</v>
       </c>
@@ -6408,7 +5030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="30">
+    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>344</v>
       </c>
@@ -6416,7 +5038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="21">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>345</v>
       </c>
@@ -6424,7 +5046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="21">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>346</v>
       </c>
@@ -6432,7 +5054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="21">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>347</v>
       </c>
@@ -6440,7 +5062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="21">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>348</v>
       </c>
@@ -6448,7 +5070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="21">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>349</v>
       </c>
@@ -6456,7 +5078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="21">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>350</v>
       </c>
@@ -6464,7 +5086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="21">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>351</v>
       </c>
@@ -6472,7 +5094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="60">
+    <row r="49" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>352</v>
       </c>
@@ -6480,7 +5102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="21">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>353</v>
       </c>
@@ -6488,7 +5110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="45">
+    <row r="51" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>354</v>
       </c>
@@ -6496,7 +5118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="21">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>355</v>
       </c>
@@ -6504,7 +5126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="21">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>356</v>
       </c>
@@ -6512,7 +5134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="21">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>357</v>
       </c>
@@ -6520,7 +5142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="21">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>358</v>
       </c>
@@ -6528,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="21">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>359</v>
       </c>
@@ -6536,7 +5158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="45">
+    <row r="57" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>360</v>
       </c>
@@ -6544,7 +5166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="30">
+    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>361</v>
       </c>
@@ -6552,7 +5174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="21">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>362</v>
       </c>
@@ -6560,7 +5182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="21">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>363</v>
       </c>
@@ -6568,7 +5190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="30">
+    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>364</v>
       </c>
@@ -6576,7 +5198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="105">
+    <row r="62" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>365</v>
       </c>
@@ -6584,7 +5206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="21">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>366</v>
       </c>
@@ -6592,7 +5214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="75">
+    <row r="64" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>367</v>
       </c>
@@ -6600,7 +5222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="21">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>368</v>
       </c>
@@ -6608,7 +5230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="30">
+    <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>369</v>
       </c>
@@ -6616,7 +5238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="21">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>370</v>
       </c>
@@ -6624,7 +5246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="30">
+    <row r="68" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>371</v>
       </c>
@@ -6632,7 +5254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="21">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>372</v>
       </c>
@@ -6640,7 +5262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="105">
+    <row r="70" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>373</v>
       </c>
@@ -6648,7 +5270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="21">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>374</v>
       </c>
@@ -6656,7 +5278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="21">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>375</v>
       </c>
@@ -6664,7 +5286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="21">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>376</v>
       </c>
@@ -6672,7 +5294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="75">
+    <row r="74" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>377</v>
       </c>
@@ -6680,7 +5302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="21">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>378</v>
       </c>
@@ -6688,7 +5310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="21">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>379</v>
       </c>
@@ -6696,7 +5318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="21">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>380</v>
       </c>
@@ -6704,7 +5326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="21">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>381</v>
       </c>
@@ -6712,7 +5334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="21">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>382</v>
       </c>
@@ -6720,7 +5342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="21">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>383</v>
       </c>
@@ -6728,7 +5350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="21">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>384</v>
       </c>
@@ -6736,7 +5358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="21">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>385</v>
       </c>
@@ -6744,7 +5366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="21">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>386</v>
       </c>
@@ -6752,7 +5374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="21">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>387</v>
       </c>
@@ -6760,7 +5382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="21">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>388</v>
       </c>
@@ -6768,7 +5390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="21">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>389</v>
       </c>
@@ -6776,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="21">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>390</v>
       </c>
@@ -6784,7 +5406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="21">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>391</v>
       </c>
@@ -6792,7 +5414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="21">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>392</v>
       </c>
@@ -6800,7 +5422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="180">
+    <row r="90" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>393</v>
       </c>
@@ -6808,7 +5430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="21">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>394</v>
       </c>
@@ -6816,7 +5438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="45">
+    <row r="92" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>395</v>
       </c>
@@ -6824,7 +5446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="21">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>396</v>
       </c>
@@ -6832,7 +5454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="21">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>397</v>
       </c>
@@ -6840,7 +5462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="21">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>398</v>
       </c>
@@ -6848,7 +5470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="21">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>399</v>
       </c>
@@ -6856,7 +5478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="75">
+    <row r="97" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>400</v>
       </c>
@@ -6864,7 +5486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="21">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>401</v>
       </c>
@@ -6872,7 +5494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="30">
+    <row r="99" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>402</v>
       </c>
@@ -6880,7 +5502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="75">
+    <row r="100" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>403</v>
       </c>
@@ -6888,7 +5510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="21">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>404</v>
       </c>
@@ -6896,7 +5518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="21">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>405</v>
       </c>
@@ -6904,7 +5526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="21">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>406</v>
       </c>
@@ -6912,7 +5534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="30">
+    <row r="104" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>407</v>
       </c>
@@ -6920,7 +5542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="21">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>408</v>
       </c>
@@ -6928,7 +5550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="21">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>409</v>
       </c>
@@ -6936,7 +5558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="21">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>410</v>
       </c>
@@ -6944,7 +5566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="30">
+    <row r="108" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>411</v>
       </c>
@@ -6952,7 +5574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="21">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>412</v>
       </c>
@@ -6960,7 +5582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="21">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>413</v>
       </c>
@@ -6968,7 +5590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="21">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>414</v>
       </c>
@@ -6976,7 +5598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="21">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>415</v>
       </c>
@@ -6984,7 +5606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="21">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>416</v>
       </c>
@@ -6992,7 +5614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="90">
+    <row r="114" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>417</v>
       </c>
@@ -7000,7 +5622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="60">
+    <row r="115" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>418</v>
       </c>
@@ -7008,7 +5630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="30">
+    <row r="116" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>419</v>
       </c>
@@ -7016,7 +5638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="21">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>420</v>
       </c>
@@ -7024,7 +5646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="21">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>421</v>
       </c>
@@ -7032,7 +5654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="30">
+    <row r="119" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>422</v>
       </c>
@@ -7040,7 +5662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="21">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>423</v>
       </c>
@@ -7048,7 +5670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="21">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>424</v>
       </c>
@@ -7056,7 +5678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="75">
+    <row r="122" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>425</v>
       </c>
@@ -7064,7 +5686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="21">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>426</v>
       </c>
@@ -7072,7 +5694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="30">
+    <row r="124" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>427</v>
       </c>
@@ -7080,7 +5702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="45">
+    <row r="125" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>428</v>
       </c>
@@ -7088,7 +5710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="21">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>429</v>
       </c>
@@ -7096,7 +5718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="45">
+    <row r="127" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>430</v>
       </c>
@@ -7104,7 +5726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="165">
+    <row r="128" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>431</v>
       </c>
@@ -7112,7 +5734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="21">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>432</v>
       </c>
@@ -7120,7 +5742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="45">
+    <row r="130" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>433</v>
       </c>
@@ -7128,7 +5750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="21">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>434</v>
       </c>
@@ -7136,7 +5758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="21">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>435</v>
       </c>
@@ -7144,7 +5766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="21">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>436</v>
       </c>
@@ -7152,7 +5774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="21">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>437</v>
       </c>
@@ -7160,7 +5782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="21">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>438</v>
       </c>
@@ -7168,7 +5790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="21">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>439</v>
       </c>
@@ -7176,7 +5798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="21">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>440</v>
       </c>
@@ -7184,7 +5806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="90">
+    <row r="138" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>441</v>
       </c>
@@ -7192,7 +5814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="21">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>442</v>
       </c>
@@ -7200,7 +5822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="45">
+    <row r="140" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>443</v>
       </c>
@@ -7208,7 +5830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="21">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>444</v>
       </c>
@@ -7216,7 +5838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="21">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>445</v>
       </c>
@@ -7224,7 +5846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="21">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>446</v>
       </c>
@@ -7232,7 +5854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="21">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>447</v>
       </c>
@@ -7240,7 +5862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="21">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>448</v>
       </c>
@@ -7248,7 +5870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="45">
+    <row r="146" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>449</v>
       </c>
@@ -7256,7 +5878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="135">
+    <row r="147" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>450</v>
       </c>
@@ -7264,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="105">
+    <row r="148" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>451</v>
       </c>
@@ -7272,7 +5894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="21">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>452</v>
       </c>
@@ -7280,7 +5902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="21">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>453</v>
       </c>
@@ -7288,7 +5910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="21">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>454</v>
       </c>
@@ -7296,7 +5918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="21">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>455</v>
       </c>
@@ -7304,7 +5926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="21">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>456</v>
       </c>
@@ -7312,7 +5934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="21">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>457</v>
       </c>
@@ -7320,7 +5942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="21">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>458</v>
       </c>
@@ -7328,7 +5950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="21">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>459</v>
       </c>
@@ -7336,7 +5958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="21">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>460</v>
       </c>
@@ -7344,7 +5966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="45">
+    <row r="158" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>461</v>
       </c>
@@ -7352,7 +5974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="21">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>462</v>
       </c>
@@ -7360,7 +5982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="45">
+    <row r="160" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>463</v>
       </c>
@@ -7368,7 +5990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="21">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>464</v>
       </c>
@@ -7376,7 +5998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="30">
+    <row r="162" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>465</v>
       </c>
@@ -7384,7 +6006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="21">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>466</v>
       </c>
@@ -7392,7 +6014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="21">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>467</v>
       </c>
@@ -7400,7 +6022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="45">
+    <row r="165" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>468</v>
       </c>
@@ -7408,7 +6030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="21">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>469</v>
       </c>
@@ -7416,7 +6038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="60">
+    <row r="167" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>470</v>
       </c>
@@ -7424,7 +6046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="21">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>471</v>
       </c>
@@ -7432,7 +6054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="21">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>472</v>
       </c>
@@ -7440,7 +6062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="45">
+    <row r="170" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>473</v>
       </c>
@@ -7448,7 +6070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="21">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>474</v>
       </c>
@@ -7456,7 +6078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="21">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>475</v>
       </c>
@@ -7464,7 +6086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="21">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>476</v>
       </c>
@@ -7472,7 +6094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="75">
+    <row r="174" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>477</v>
       </c>
@@ -7480,7 +6102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="21">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>478</v>
       </c>
@@ -7488,7 +6110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="165">
+    <row r="176" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>479</v>
       </c>
@@ -7496,7 +6118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="21">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>480</v>
       </c>
@@ -7504,7 +6126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="21">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>481</v>
       </c>
@@ -7512,7 +6134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="21">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>482</v>
       </c>
@@ -7520,7 +6142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="21">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>483</v>
       </c>
@@ -7528,7 +6150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="21">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>484</v>
       </c>
@@ -7536,7 +6158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="105">
+    <row r="182" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>485</v>
       </c>
@@ -7544,7 +6166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="21">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>486</v>
       </c>
@@ -7552,7 +6174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="21">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>487</v>
       </c>
@@ -7560,7 +6182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="45">
+    <row r="185" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>488</v>
       </c>
@@ -7568,7 +6190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="21">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>489</v>
       </c>
@@ -7576,7 +6198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="21">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>490</v>
       </c>
@@ -7584,7 +6206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="21">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>491</v>
       </c>
@@ -7592,7 +6214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="75">
+    <row r="189" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>492</v>
       </c>
@@ -7600,7 +6222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="21">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>493</v>
       </c>
@@ -7608,7 +6230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="21">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>494</v>
       </c>
@@ -7616,7 +6238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="21">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>495</v>
       </c>
@@ -7624,7 +6246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="75">
+    <row r="193" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>496</v>
       </c>
@@ -7632,7 +6254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="45">
+    <row r="194" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>497</v>
       </c>
@@ -7640,7 +6262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="21">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>498</v>
       </c>
@@ -7648,7 +6270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="21">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>499</v>
       </c>
@@ -7656,7 +6278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="45">
+    <row r="197" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>500</v>
       </c>
@@ -7664,7 +6286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="21">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>501</v>
       </c>
@@ -7672,12 +6294,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="21">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="30">
+    <row r="200" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>503</v>
       </c>
@@ -7685,7 +6307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="21">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>504</v>
       </c>
@@ -7695,6 +6317,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/PS5.xlsx
+++ b/PS5.xlsx
@@ -8,21 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agchi\Documents\GitHub\P1-Ciencia-dos-Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E804A8D0-8967-4D09-9798-1A81ACE136FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8DABA3-2701-414D-96B9-48F348614883}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="4635" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Treinamento!$A$2:$A$301</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Treinamento!$B$2:$B$301</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Treinamento!$C$2:$C$301</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Teste!$A$2:$A$201</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Teste!$B$2:$B$201</definedName>
-  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="503">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1116,14 +1109,8 @@
     <t>Teste</t>
   </si>
   <si>
-    <t>% de 0</t>
-  </si>
-  <si>
     <t>sony nega, mas ações continuam em queda após rumores de problemas no processador do ps5
 https://t.co/apptfpebcl https://t.co/jupc7tmco8</t>
-  </si>
-  <si>
-    <t>% de 1</t>
   </si>
   <si>
     <t>hoje tem 
@@ -1895,7 +1882,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1904,6 +1891,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2242,10 +2232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E301"/>
+  <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2254,37 +2244,23 @@
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E1">
-        <f>152/300</f>
-        <v>0.50666666666666671</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E2">
-        <f>148/300</f>
-        <v>0.49333333333333335</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2292,7 +2268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2300,7 +2276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2308,7 +2284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2316,7 +2292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2324,7 +2300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2332,7 +2308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -2340,7 +2316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -2348,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -2356,7 +2332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -2364,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -2372,7 +2348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -2380,7 +2356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -2388,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -4683,10 +4659,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4696,143 +4672,129 @@
     <col min="7" max="7" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>302</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="H1">
-        <f>93/(93+106)</f>
-        <v>0.46733668341708545</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="H2">
-        <f>106/(93+106)</f>
-        <v>0.53266331658291455</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>319</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -4840,7 +4802,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
@@ -4848,7 +4810,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
@@ -4856,7 +4818,7 @@
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
@@ -4864,7 +4826,7 @@
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -4872,7 +4834,7 @@
     </row>
     <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -4880,7 +4842,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
@@ -4888,7 +4850,7 @@
     </row>
     <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B23" s="3">
         <v>0</v>
@@ -4896,7 +4858,7 @@
     </row>
     <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -4904,7 +4866,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B25" s="3">
         <v>1</v>
@@ -4912,7 +4874,7 @@
     </row>
     <row r="26" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B26" s="3">
         <v>0</v>
@@ -4920,7 +4882,7 @@
     </row>
     <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B27" s="3">
         <v>0</v>
@@ -4928,7 +4890,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -4936,7 +4898,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B29" s="3">
         <v>1</v>
@@ -4944,7 +4906,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B30" s="3">
         <v>1</v>
@@ -4952,7 +4914,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B31" s="3">
         <v>1</v>
@@ -4960,7 +4922,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B32" s="3">
         <v>1</v>
@@ -4968,7 +4930,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
@@ -4976,7 +4938,7 @@
     </row>
     <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B34" s="3">
         <v>0</v>
@@ -4984,7 +4946,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B35" s="3">
         <v>0</v>
@@ -4992,7 +4954,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B36" s="3">
         <v>1</v>
@@ -5000,7 +4962,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B37" s="3">
         <v>0</v>
@@ -5008,7 +4970,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B38" s="3">
         <v>0</v>
@@ -5016,7 +4978,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B39" s="3">
         <v>1</v>
@@ -5024,7 +4986,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B40" s="3">
         <v>0</v>
@@ -5032,7 +4994,7 @@
     </row>
     <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B41" s="3">
         <v>1</v>
@@ -5040,7 +5002,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B42" s="3">
         <v>1</v>
@@ -5048,7 +5010,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B43" s="3">
         <v>1</v>
@@ -5056,7 +5018,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B44" s="3">
         <v>1</v>
@@ -5064,7 +5026,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B45" s="3">
         <v>0</v>
@@ -5072,7 +5034,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B46" s="3">
         <v>0</v>
@@ -5080,7 +5042,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B47" s="3">
         <v>1</v>
@@ -5088,7 +5050,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B48" s="3">
         <v>0</v>
@@ -5096,7 +5058,7 @@
     </row>
     <row r="49" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B49" s="3">
         <v>0</v>
@@ -5104,7 +5066,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B50" s="3">
         <v>0</v>
@@ -5112,7 +5074,7 @@
     </row>
     <row r="51" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B51" s="3">
         <v>1</v>
@@ -5120,7 +5082,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B52" s="3">
         <v>1</v>
@@ -5128,7 +5090,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
@@ -5136,7 +5098,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B54" s="3">
         <v>0</v>
@@ -5144,7 +5106,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B55" s="3">
         <v>0</v>
@@ -5152,7 +5114,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B56" s="3">
         <v>1</v>
@@ -5160,7 +5122,7 @@
     </row>
     <row r="57" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B57" s="3">
         <v>1</v>
@@ -5168,7 +5130,7 @@
     </row>
     <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B58" s="3">
         <v>1</v>
@@ -5176,7 +5138,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B59" s="3">
         <v>1</v>
@@ -5184,7 +5146,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B60" s="3">
         <v>1</v>
@@ -5192,7 +5154,7 @@
     </row>
     <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B61" s="3">
         <v>1</v>
@@ -5200,7 +5162,7 @@
     </row>
     <row r="62" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B62" s="3">
         <v>0</v>
@@ -5208,7 +5170,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B63" s="3">
         <v>1</v>
@@ -5216,7 +5178,7 @@
     </row>
     <row r="64" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B64" s="3">
         <v>0</v>
@@ -5224,7 +5186,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B65" s="3">
         <v>1</v>
@@ -5232,7 +5194,7 @@
     </row>
     <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B66" s="3">
         <v>0</v>
@@ -5240,7 +5202,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B67" s="3">
         <v>0</v>
@@ -5248,7 +5210,7 @@
     </row>
     <row r="68" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B68" s="3">
         <v>0</v>
@@ -5256,7 +5218,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B69" s="3">
         <v>0</v>
@@ -5264,7 +5226,7 @@
     </row>
     <row r="70" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B70" s="3">
         <v>0</v>
@@ -5272,7 +5234,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B71" s="3">
         <v>0</v>
@@ -5280,7 +5242,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B72" s="3">
         <v>1</v>
@@ -5288,7 +5250,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B73" s="3">
         <v>1</v>
@@ -5296,7 +5258,7 @@
     </row>
     <row r="74" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B74" s="3">
         <v>0</v>
@@ -5304,7 +5266,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B75" s="3">
         <v>0</v>
@@ -5312,7 +5274,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B76" s="3">
         <v>0</v>
@@ -5320,7 +5282,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B77" s="3">
         <v>1</v>
@@ -5328,7 +5290,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B78" s="3">
         <v>1</v>
@@ -5336,7 +5298,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B79" s="3">
         <v>1</v>
@@ -5344,7 +5306,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B80" s="3">
         <v>0</v>
@@ -5352,7 +5314,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B81" s="3">
         <v>0</v>
@@ -5360,7 +5322,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B82" s="3">
         <v>1</v>
@@ -5368,7 +5330,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B83" s="3">
         <v>1</v>
@@ -5376,7 +5338,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B84" s="3">
         <v>1</v>
@@ -5384,7 +5346,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B85" s="3">
         <v>1</v>
@@ -5392,7 +5354,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B86" s="3">
         <v>0</v>
@@ -5400,7 +5362,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B87" s="3">
         <v>0</v>
@@ -5408,7 +5370,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B88" s="3">
         <v>0</v>
@@ -5416,7 +5378,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B89" s="3">
         <v>1</v>
@@ -5424,7 +5386,7 @@
     </row>
     <row r="90" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B90" s="3">
         <v>1</v>
@@ -5432,7 +5394,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B91" s="3">
         <v>1</v>
@@ -5440,7 +5402,7 @@
     </row>
     <row r="92" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B92" s="3">
         <v>1</v>
@@ -5448,7 +5410,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B93" s="3">
         <v>0</v>
@@ -5456,7 +5418,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B94" s="3">
         <v>1</v>
@@ -5464,7 +5426,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B95" s="3">
         <v>0</v>
@@ -5472,7 +5434,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B96" s="3">
         <v>0</v>
@@ -5480,7 +5442,7 @@
     </row>
     <row r="97" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B97" s="3">
         <v>1</v>
@@ -5488,7 +5450,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B98" s="3">
         <v>0</v>
@@ -5496,7 +5458,7 @@
     </row>
     <row r="99" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B99" s="3">
         <v>0</v>
@@ -5504,7 +5466,7 @@
     </row>
     <row r="100" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B100" s="3">
         <v>0</v>
@@ -5512,7 +5474,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B101" s="3">
         <v>1</v>
@@ -5520,7 +5482,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B102" s="3">
         <v>1</v>
@@ -5528,7 +5490,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B103" s="3">
         <v>1</v>
@@ -5536,7 +5498,7 @@
     </row>
     <row r="104" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B104" s="3">
         <v>1</v>
@@ -5544,7 +5506,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B105" s="3">
         <v>1</v>
@@ -5552,7 +5514,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B106" s="3">
         <v>0</v>
@@ -5560,7 +5522,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B107" s="3">
         <v>1</v>
@@ -5568,7 +5530,7 @@
     </row>
     <row r="108" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B108" s="3">
         <v>0</v>
@@ -5576,7 +5538,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B109" s="3">
         <v>1</v>
@@ -5584,7 +5546,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B110" s="3">
         <v>1</v>
@@ -5592,7 +5554,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B111" s="3">
         <v>1</v>
@@ -5600,7 +5562,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B112" s="3">
         <v>0</v>
@@ -5608,7 +5570,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B113" s="3">
         <v>1</v>
@@ -5616,7 +5578,7 @@
     </row>
     <row r="114" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B114" s="3">
         <v>1</v>
@@ -5624,7 +5586,7 @@
     </row>
     <row r="115" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B115" s="3">
         <v>0</v>
@@ -5632,7 +5594,7 @@
     </row>
     <row r="116" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B116" s="3">
         <v>0</v>
@@ -5640,7 +5602,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B117" s="3">
         <v>1</v>
@@ -5648,7 +5610,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B118" s="3">
         <v>1</v>
@@ -5656,7 +5618,7 @@
     </row>
     <row r="119" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B119" s="3">
         <v>0</v>
@@ -5664,7 +5626,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B120" s="3">
         <v>1</v>
@@ -5672,7 +5634,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B121" s="3">
         <v>0</v>
@@ -5680,7 +5642,7 @@
     </row>
     <row r="122" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B122" s="3">
         <v>0</v>
@@ -5688,7 +5650,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B123" s="3">
         <v>0</v>
@@ -5696,7 +5658,7 @@
     </row>
     <row r="124" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B124" s="3">
         <v>1</v>
@@ -5704,7 +5666,7 @@
     </row>
     <row r="125" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B125" s="3">
         <v>1</v>
@@ -5712,7 +5674,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B126" s="3">
         <v>0</v>
@@ -5720,7 +5682,7 @@
     </row>
     <row r="127" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B127" s="3">
         <v>1</v>
@@ -5728,7 +5690,7 @@
     </row>
     <row r="128" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B128" s="3">
         <v>1</v>
@@ -5736,7 +5698,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B129" s="3">
         <v>0</v>
@@ -5744,7 +5706,7 @@
     </row>
     <row r="130" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B130" s="3">
         <v>0</v>
@@ -5752,7 +5714,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B131" s="3">
         <v>0</v>
@@ -5760,7 +5722,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B132" s="3">
         <v>0</v>
@@ -5768,7 +5730,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B133" s="3">
         <v>0</v>
@@ -5776,7 +5738,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B134" s="3">
         <v>1</v>
@@ -5784,7 +5746,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B135" s="3">
         <v>1</v>
@@ -5792,7 +5754,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B136" s="3">
         <v>1</v>
@@ -5800,7 +5762,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B137" s="3">
         <v>1</v>
@@ -5808,7 +5770,7 @@
     </row>
     <row r="138" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B138" s="3">
         <v>0</v>
@@ -5816,7 +5778,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B139" s="3">
         <v>1</v>
@@ -5824,7 +5786,7 @@
     </row>
     <row r="140" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B140" s="3">
         <v>1</v>
@@ -5832,7 +5794,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B141" s="3">
         <v>1</v>
@@ -5840,7 +5802,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B142" s="3">
         <v>1</v>
@@ -5848,7 +5810,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B143" s="3">
         <v>0</v>
@@ -5856,7 +5818,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B144" s="3">
         <v>1</v>
@@ -5864,7 +5826,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B145" s="3">
         <v>0</v>
@@ -5872,7 +5834,7 @@
     </row>
     <row r="146" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B146" s="3">
         <v>0</v>
@@ -5880,7 +5842,7 @@
     </row>
     <row r="147" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B147" s="3">
         <v>0</v>
@@ -5888,7 +5850,7 @@
     </row>
     <row r="148" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B148" s="3">
         <v>0</v>
@@ -5896,7 +5858,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B149" s="3">
         <v>1</v>
@@ -5904,7 +5866,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B150" s="3">
         <v>0</v>
@@ -5912,7 +5874,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B151" s="3">
         <v>1</v>
@@ -5920,7 +5882,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B152" s="3">
         <v>1</v>
@@ -5928,7 +5890,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B153" s="3">
         <v>0</v>
@@ -5936,7 +5898,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B154" s="3">
         <v>1</v>
@@ -5944,7 +5906,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B155" s="3">
         <v>1</v>
@@ -5952,7 +5914,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B156" s="3">
         <v>1</v>
@@ -5960,7 +5922,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B157" s="3">
         <v>1</v>
@@ -5968,7 +5930,7 @@
     </row>
     <row r="158" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B158" s="3">
         <v>1</v>
@@ -5976,7 +5938,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B159" s="3">
         <v>0</v>
@@ -5984,7 +5946,7 @@
     </row>
     <row r="160" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B160" s="3">
         <v>1</v>
@@ -5992,7 +5954,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B161" s="3">
         <v>0</v>
@@ -6000,7 +5962,7 @@
     </row>
     <row r="162" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B162" s="3">
         <v>0</v>
@@ -6008,7 +5970,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B163" s="3">
         <v>0</v>
@@ -6016,7 +5978,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B164" s="3">
         <v>1</v>
@@ -6024,7 +5986,7 @@
     </row>
     <row r="165" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B165" s="3">
         <v>1</v>
@@ -6032,7 +5994,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B166" s="3">
         <v>1</v>
@@ -6040,7 +6002,7 @@
     </row>
     <row r="167" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B167" s="3">
         <v>1</v>
@@ -6048,7 +6010,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B168" s="3">
         <v>0</v>
@@ -6056,7 +6018,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B169" s="3">
         <v>1</v>
@@ -6064,7 +6026,7 @@
     </row>
     <row r="170" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B170" s="3">
         <v>1</v>
@@ -6072,7 +6034,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B171" s="3">
         <v>1</v>
@@ -6080,7 +6042,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B172" s="3">
         <v>0</v>
@@ -6088,7 +6050,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B173" s="3">
         <v>0</v>
@@ -6096,7 +6058,7 @@
     </row>
     <row r="174" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B174" s="3">
         <v>0</v>
@@ -6104,7 +6066,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B175" s="3">
         <v>0</v>
@@ -6112,7 +6074,7 @@
     </row>
     <row r="176" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B176" s="3">
         <v>0</v>
@@ -6120,7 +6082,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B177" s="3">
         <v>0</v>
@@ -6128,7 +6090,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B178" s="3">
         <v>0</v>
@@ -6136,7 +6098,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B179" s="3">
         <v>1</v>
@@ -6144,7 +6106,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B180" s="3">
         <v>0</v>
@@ -6152,7 +6114,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B181" s="3">
         <v>1</v>
@@ -6160,7 +6122,7 @@
     </row>
     <row r="182" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B182" s="3">
         <v>1</v>
@@ -6168,7 +6130,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B183" s="3">
         <v>1</v>
@@ -6176,7 +6138,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B184" s="3">
         <v>1</v>
@@ -6184,7 +6146,7 @@
     </row>
     <row r="185" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B185" s="3">
         <v>1</v>
@@ -6192,7 +6154,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B186" s="3">
         <v>1</v>
@@ -6200,7 +6162,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B187" s="3">
         <v>1</v>
@@ -6208,7 +6170,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B188" s="3">
         <v>1</v>
@@ -6216,7 +6178,7 @@
     </row>
     <row r="189" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B189" s="3">
         <v>0</v>
@@ -6224,7 +6186,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B190" s="3">
         <v>1</v>
@@ -6232,7 +6194,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B191" s="3">
         <v>0</v>
@@ -6240,7 +6202,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B192" s="3">
         <v>0</v>
@@ -6248,7 +6210,7 @@
     </row>
     <row r="193" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B193" s="3">
         <v>1</v>
@@ -6256,7 +6218,7 @@
     </row>
     <row r="194" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B194" s="3">
         <v>0</v>
@@ -6264,7 +6226,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B195" s="3">
         <v>1</v>
@@ -6272,7 +6234,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B196" s="3">
         <v>1</v>
@@ -6280,7 +6242,7 @@
     </row>
     <row r="197" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B197" s="3">
         <v>0</v>
@@ -6288,7 +6250,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B198" s="3">
         <v>1</v>
@@ -6296,12 +6258,12 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B200" s="3">
         <v>1</v>
@@ -6309,7 +6271,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B201" s="3">
         <v>0</v>

--- a/PS5.xlsx
+++ b/PS5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agchi\Documents\GitHub\P1-Ciencia-dos-Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8DABA3-2701-414D-96B9-48F348614883}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C207507-3A5A-47BC-934D-11439487DB17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="4635" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="720">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1824,6 +1824,657 @@
   </si>
   <si>
     <t>man,to seriamente pensando em pegar o ps5,se alguem quiser me vender um c40 ae to aceitando</t>
+  </si>
+  <si>
+    <t>Treinamento Limpo</t>
+  </si>
+  <si>
+    <t>o vídeo que eu fiz pro evento tá no youtube tbm#ps5 #ps5showcase #playfivebrasil https//t.co/wcyyfxzrke</t>
+  </si>
+  <si>
+    <t>@chief117_com_br @vingadorbrambz enquanto o datacenter da ms tá funcionando que é uma beleza no fundo do oceano a sony tendo problema na fabricação do ps5 não vai ter sopro que faça ela navegar nesse mar.</t>
+  </si>
+  <si>
+    <t>possivelmente hoje sai o valor e a data de lançamento do ps5. vamos ver qual vai ser a estratégia da sony depois da bomba que a microsoft jogou no mercado. https//t.co/kgeddwo0f6</t>
+  </si>
+  <si>
+    <t>@lealemy_ sim mas os produtos da sony vão parar de ser vendidos no brasil. no caso do ps5 ele vai ser por distribuidores parceiros o que significa que o produto vai custar mais caro do que se esperava.</t>
+  </si>
+  <si>
+    <t>não oficial este modelo preto para o #ps5 seria uma boa pedida. melhor do que o original? https//t.co/9jq5jhypy6</t>
+  </si>
+  <si>
+    <t>hoje as 1700 finalmente saberemos a data e preço do ps5 ou não afinal a sony já fez uma apresetanção mostrando apenas um logo - https//t.co/9xs7ngvx0f - ainda chuto u$500 na versão com disco e u$400 na digital. sem esperança de um lançamento no brasil esse ano ainda.</t>
+  </si>
+  <si>
+    <t>falta pouco hein hj às 17h promete #playstation5 #ps5#ps5showcase https//t.co/gjayiyvmoc</t>
+  </si>
+  <si>
+    <t>só falta o ps5 agr 😭 https//t.co/bwgw1hee77</t>
+  </si>
+  <si>
+    <t>bom dia é o caralhoacordei aí fui na cozinha tomar uma café e meu sobrinho veio correndo me abraçar pra me dar bom dia dei logo um chutão joguei na porta bom dia o caralho hoje é dia de guerra porra é dia de ps5 mané bom dia pilhado e a criança vem me da bom dia</t>
+  </si>
+  <si>
+    <t>hoje temos o evento do ps5 será que vai vir com o preço também?</t>
+  </si>
+  <si>
+    <t>mesmo não sendo fã do gênero souls fico na torcida do demon souls no lançamento do ps5</t>
+  </si>
+  <si>
+    <t>ps5 digital a $399quem confia dá dois pulinho</t>
+  </si>
+  <si>
+    <t>bom dia nação twitteira falta pouco agora. toma uma água deixa tudo pronto hoje é dia hoje é lama é festa na favela é tudo #ps5 #believethehype https//t.co/4grjmustu5</t>
+  </si>
+  <si>
+    <t>@ycaroq amgs tenho revelar uma coisa eu sou gay e hjeu dei mt para um senhor de idade rico e agr eu to com um iphone 15 pro max e foi mt bom o leite dele no meu .. nossa tava perfeito agr eu vou ver ele amanhã para ganhar um ps5 e um xbox do novo lá kkkk</t>
+  </si>
+  <si>
+    <t>@meuplaystation flw galeraaaaa vou lá no estados unidos compro 4 ps5 7 pc gamer 2 xbox quando voltar eu vou vender por 30000</t>
+  </si>
+  <si>
+    <t>evento da sony amanhã vai ter- god of war ragnarok- bloodborne 2- elden ring- silent hills - preços do ps5fontes quentes confirmaram 🙌🏼</t>
+  </si>
+  <si>
+    <t>acordei né de boa fui na cozinha tomar um café e minha sobrinha veio me dar bom dia dei logo um chutão joguei ela na porta bom dia é o caralho hoje é dia ps5 silent hill finalmente preço e data dessa porra gameplays jogos fodas. que mané bom dia. #ps5showcase #ps5</t>
+  </si>
+  <si>
+    <t>imagina pra consumir ps5 ano que vem  mais jogos e produtos eletronicos   com nossa moeda desvalorizada  pessima noticia  https//t.co/9qpmmhp5qo</t>
+  </si>
+  <si>
+    <t>primeiro a nintendo fecha as portas no brasil agora a sony. preparem-se para os preços nada convidativos dos modelos do ps5</t>
+  </si>
+  <si>
+    <t>9 dias pro meu aniversário e ninguém me ofereceu um ps5. #chateado</t>
+  </si>
+  <si>
+    <t>@stu_felipe @folha @folha_mercado o ps5 lança em novembro até janeiro estará tudo normalizado e posto aqui a foto com arminha pra vc ver não bloqueia não pra vc ver a foto ok</t>
+  </si>
+  <si>
+    <t>@_thurt_ @willsprnce ata é isso deixa de ser besta mlk trouxa vc só vai ter ps5 daqui a uns 6 anos</t>
+  </si>
+  <si>
+    <t>discord https//t.co/q6oxummoxfsiga nossas midias sociais e acompanhe memes noticias vídeos e lives @aldoriagamesseja apoiador e participe de sorteios#memes #humor #meme #nostalgia #ps5 #ps4 #xbox https//t.co/1xors1usty</t>
+  </si>
+  <si>
+    <t>é hoje 😱⌛️😱⌛️gostou do vídeo? compartilhenos siga em todas as redes sociais só pesquisar por #playfivebrasil no instagram e facebook#ps5 #ps5showcase #playstation #game #sony @sony @sonybrasil @playstation @playstation_br https//t.co/d1fzxdlwn5</t>
+  </si>
+  <si>
+    <t>as maiores e persistentes dúvidas sobre a ps5 a que a sony precisa dar resposta no showcase de mais logo. https//t.co/gvu0ajt5lg</t>
+  </si>
+  <si>
+    <t>hoje é o dia que a sony anuncia o preço do ps5 e eu nem to criando expectativa mesmo que a versão com mídia digital saia por 299 dólares como o queridinho xbox series s ainda vai ser um celtinha 2001 sem ar aqui no brasil</t>
+  </si>
+  <si>
+    <t>se a sony botar o lançamento do ps5 em novembro também vocês já sabem o que me dar de aniversário né??</t>
+  </si>
+  <si>
+    <t>está chegando a hora 17h tem o grande evento do ano até o momento. meu palpite para o ps5 é de €49990 com leitor.€39990 sem leitor.  https//t.co/yjmbnerwjv</t>
+  </si>
+  <si>
+    <t>@breninhoo19 @mikkaizinho @mitodante_ eu não botei defeito nenhum eu acho playstation sensacional eu não tenho guerra de console mas o ps5 é inferior que o xbox series x</t>
+  </si>
+  <si>
+    <t>e meu priminho que sabia que eu ia ficar nervosa com a cirurgia do stark e me mandou o ps5 dele pra eu relaxa 💜</t>
+  </si>
+  <si>
+    <t>@capitaocritica mano pra que fica de boa jogando o seu ps5 que eu fico deboa no xbox 🙂👍</t>
+  </si>
+  <si>
+    <t>bom dia hoje tem precinho do ps5 será?</t>
+  </si>
+  <si>
+    <t>amanhã tem evento da sony sobre o ps5. a capcom já confirmou que as tão esperadas novidades de #revillage chegam no fim de setembromas será que amanhã a gente pode ter algo novo? nem que seja uma nova imagem? 👀#rebhfun https//t.co/fto9ghdlai</t>
+  </si>
+  <si>
+    <t>é hoje 🤍🖤💙 #ps5showcase #ps5 https//t.co/ejjqhjnfgg</t>
+  </si>
+  <si>
+    <t>@cariocachinese @gmunhoz__ negócio é esperar lançar ps5 pra comprar o 4 e assim vai indo os com o xbox também pq da muito stönks 🤏😎👍</t>
+  </si>
+  <si>
+    <t>sinceramente meu hype pro evento do ps5 é preço e data de lançamento só isso não espero nada demais além disso no máximo um trailer novo ou gameplay de jogos já apresentados.</t>
+  </si>
+  <si>
+    <t>@_evertroll isso é verdade agora de tarde tavam hypando o ps5 por ter wi-fi 6 e usb tipo-c enquanto o séries x era wi-fi 5 e aquelas entradas mais antigas olha as coisas que eles se apegam</t>
+  </si>
+  <si>
+    <t>caiu o 💰 do willian na conta dele misteriosamente champz vai compra um ps5 https//t.co/qjuwxvbdo6</t>
+  </si>
+  <si>
+    <t>@sapo então é uma ps5 para aqui se faz favor ;</t>
+  </si>
+  <si>
+    <t>@lucca_jonatas opa eae jônata bom dia cara eu vou com o chute de 399/499 pro ps5 e vai sair dia 13 de novembro chute final kkkeu tenho o costume de falar q vai ser um grande dia qnd tem evento huahua</t>
+  </si>
+  <si>
+    <t>@paulo_ufs @sblargh @folha @folha_mercado sei não a fábrica em manaus permitia a sony fugir de alguns impostos/custos de produtos importados e isso era revertido no preço dos aparelhos. vi uma nota na net dizendo que o ps5 vai ser importado comercializado no brasil através de um distribuidor acho q rola um reajuste</t>
+  </si>
+  <si>
+    <t>amanhã 1700 será que saberemos quantos 6k vai custar um ps5?</t>
+  </si>
+  <si>
+    <t>só fico observando uns caras aí desmerecendo o ps5 mas na primeira oportunidade q tivesse com certeza adquiria o console. aiaiai</t>
+  </si>
+  <si>
+    <t>o fechamento da fábrica da sony no brasil pode afetar o ps5? entenda a situaçãoo mercado de tecnologia brasileiro foi pego de surpresa com o anúncio do fechamento da fábrica https//t.co/lw97w0e0bg</t>
+  </si>
+  <si>
+    <t>já que amanhã as 17h tem evento do #ps5 queria deixar esse vídeo aqui pra todos verem a minha reação junto com o @mathzilla616 @tf_spade e @rick5621 ao trailer de anúncio do marvels spider-man miles morales. to sentindo gameplay amanhã.se divirtam kkkkkkk#milesmoralesps5 https//t.co/fudwklzthd</t>
+  </si>
+  <si>
+    <t>@alexandre_nsa só restou essa narrativa pra eles pode ficar tranquilos que ainda vai sair muitas pérolas como essa até o lançamento.. primeiro que já é piada pronta pois olha o tamanho do trambolho chamado ps5.</t>
+  </si>
+  <si>
+    <t>jogos que mais espero no evento de amanhã- elden ring + data de lançamento- nova ip da santa monica- dlc da campanha de sekiro- remake de the last of us part ii com história reescrita - sackboy no smash expectativas altíssimas vai sony 🙏 #ps5</t>
+  </si>
+  <si>
+    <t>@matheusvictorch @diegogigaton pode ser algum teaser da dlc de final do ano eu não esperaria nada relacionado ao ps5 agr</t>
+  </si>
+  <si>
+    <t>@jairbolsonaro boa noite presidente. você poderia nos ajudar sim nós gamers. que queremos que o preço do ps5 não seja um absurdo no brasil.faz a boa presida 👍</t>
+  </si>
+  <si>
+    <t>pessoal tá com uma expectativa alta pro ps5 e de fato é interessante.mas o xbox series x + o game pass ultimate no longo prazo é muito mais negócio. https//t.co/bl4ktoer3g</t>
+  </si>
+  <si>
+    <t>@kamatsukyoto a dos xbox tão bonitas pômas essa do ps5parece de cafeteira</t>
+  </si>
+  <si>
+    <t>#tlou2 😱já garantiu o seu #thelastofus2⁉veja este e outros grandes sucessos aqui na #bigboygames 😍aproveite pois são pouca unidades🏃🏃‍♀️https//t.co/jkwzknhfujcompramos seu jogo usado📱16 99763-7729#lojabigboygames #bigboy #ps4 #playstation4 #ps5 #seminovos https//t.co/tv8bfcgjgq</t>
+  </si>
+  <si>
+    <t>@rjrmarafon @m4ximizando caraca véi independente de qualquer coisa o ps5 é enorme mesmo.</t>
+  </si>
+  <si>
+    <t>hoje também é dia de saber mais do #playstation5   o evento playstation 5 showcase acontece hoje às 17h do horário de brasília. quem aí tá animado pra saber mais do #ps5? https//t.co/zythhmpp5v</t>
+  </si>
+  <si>
+    <t>@dougmad4k des d quando o fechamento da fabrica devido a impostos alta do dolar etc tem com a venda elevada no preço do ps5 aki ja q a sony nao fabricava video game no território nacional .sera q alguem leu a materia sem falar q varias pessoas vao ficar sem emprego  mas bora comemorar</t>
+  </si>
+  <si>
+    <t>acordei né de boa fui na cozinha tomar café e minha irmã veio me dar bom dia dei logo um chutão na costela joguei ela na porta e gritei bom dia é o caralho hoje tem evento do #ps5 que mané bom dia acordei pilhadão  nessa porra e a ela vem com bom dia toma no cu https//t.co/tniofq4gtl</t>
+  </si>
+  <si>
+    <t>@arielsis kabum vai sortear um ps5 no provável day one acho que isso já era indícios que seria lançado aqui day one</t>
+  </si>
+  <si>
+    <t>e finalmente a sony mostra o baralho para o launch da nova geração que expectativas têm? algo que estejam à espera? façam as vossas apostas que eu e o coach vamos dissecá-las no próximo episódio-roberto#portugal #sony #videojogos #playstation #ps5showcase #ps5 https//t.co/yuaaiszbwr</t>
+  </si>
+  <si>
+    <t>@rodrigo__nem @radio98oficial @kerberdiego e quem disse que eu preciso e um pc nível ps5 hoje? daqui alguns meses lança a 3060 mais forte que os novos consoles e mais barata eu coloco ela no meu pc e pronto já tenho um pc com mais desempenho que a próxima geração e mais barato</t>
+  </si>
+  <si>
+    <t>playstation 5 ps5 como assistir ao evento que pode revelar preço - techtudohttps//t.co/kay5bh3hya i https//t.co/eycyqllpft#playstation #playstationbrasil #playstation4 #ps4 #ps4brasil #notíciasplaystation https//t.co/i4ms2oyi9p</t>
+  </si>
+  <si>
+    <t>final fantasy 7 remake part 2 é confirmado com um pequeno teaser pra 2022.project athia é revelado como sendo final fantasy 16 com exclusividade temporária pro ps5.housemarque revela mais um trailer de returnal chegando para o ps5 no primeiro semestre de 2021.++</t>
+  </si>
+  <si>
+    <t>o que pegar no inicio dessa geração?xbox series x é um pouco mais poderoso do que o ps5 pode indicar um lugar minimamente melhor pra rodar os third party mas não acho que seja uma diferença significativa de fato. +</t>
+  </si>
+  <si>
+    <t>hoje é o dia tô esperando viu @playstation_br ?quero o preço do #ps5 na minha mesa até às 17h30 por gentileza.</t>
+  </si>
+  <si>
+    <t>@psciarotta minhas apostas não na ordem preço 45900 e 34900 e data demon souls anuncio do silent hill ps now mostra do so do ps5 e finalizar com anuncio do gow2 hehehehe</t>
+  </si>
+  <si>
+    <t>@onlytuiko @windowsclubbr provavelmente da forma que você escreveacredito eu que não vai comprar o ps5 no lançamento então para de falar de um produto que não vai ter que é meio feiomas também tem a possibilidade de ganhar dos papais e ganhar um jogo por ano.</t>
+  </si>
+  <si>
+    <t>u$399 = r$5300e vcs achando que o ps5 vem por menos de 5k hm kk https//t.co/etc601hq2e</t>
+  </si>
+  <si>
+    <t>@alanzoka fé no pai que o preço do ps5 sai</t>
+  </si>
+  <si>
+    <t>a sony não mente para o consumidor vcs só inventam as coisas é por isso que a sony faz o que quer com os sonystas eles acreditam em tudo o que ela fala kkkkkkkkk agora ela está mentindo sobre várias coisas do ps5 pra manter a tradição https//t.co/ns0qa2matb</t>
+  </si>
+  <si>
+    <t>@davipbe_ o evento da sony do ps5 foi o melhor do ano de longe.</t>
+  </si>
+  <si>
+    <t>com o absurdo do preço que o ps5 vai sair aqui no brasil ai que eu nao vou precisar mesmo vender meu ps4 pro não vai fazer nem sentido vender essa porra vender por seila 1900 2000 conto pra ajudar na compra de um video game que vai ser 8milsendo bonzinho vale nem a pena.</t>
+  </si>
+  <si>
+    <t>@amyjr007 acho que vem ai o monster hunter exclusivo do swtich. se a nintendo mostra isso o fim de ano do swtich vai ser avassalador. nao vai ter ps5 ou xbox ss xy zw que aguentekkkkkkkkkkkkk.</t>
+  </si>
+  <si>
+    <t>ps5 vai chegar 5k eu tô é rindo que vai ter otario comprando</t>
+  </si>
+  <si>
+    <t>jogar the last of us part ii no ps5 ou talvez um red dead redemption 2 já me dá um negócio. the witcher 3 então.vamo q hoje não é um dia qualquer#ps5#ps5showcase</t>
+  </si>
+  <si>
+    <t>palpites de hoje us 449 / 499   br 5999 / 6499#ps5</t>
+  </si>
+  <si>
+    <t>personagem memorável e incrível do mundo os gamesobs espero que o evento do ps5 hoje ao menos tenhamos mais informações sobre datas dos jogos e claro a data e preço do ps5bom dia a todos os sonysta/a todos que amam vídeo game. https//t.co/ooflly63nj</t>
+  </si>
+  <si>
+    <t>@porraissaa so uma tunada naquele pc um ps5 do lado com um monitor 4k puts ai eu quero</t>
+  </si>
+  <si>
+    <t>o evento do ps5 vai começar quando eu tiver largando  se aparecer algo de algum final fantasy metam minha @ no post por favor</t>
+  </si>
+  <si>
+    <t>fiquem em casa a economia vemos depois.depoister que vender a casa para comprar o ps5 https//t.co/khjmw47bxs</t>
+  </si>
+  <si>
+    <t>chegou o grande dia vamos aos palpites- ps5 standart = $499- ps5 digital = $399- gameplay spiderman miles morales- teaser ff xvi- gameplay call of duty cold war- gameplay silent hill- anúncio sobre a psnow- nenhuma menção a retro dashboard e features</t>
+  </si>
+  <si>
+    <t>toda nova geração de consoles exige um ritual para lembrar humanidade o que é um videogame.hoje mais uma vez essa responsabilidade será nossa.#ps5#ps5showcase</t>
+  </si>
+  <si>
+    <t>nn sei pq mas hj sonhei q a sony anunciou o ps5 preto huahuahua</t>
+  </si>
+  <si>
+    <t>@silvahros @fazendachernoby no canal coisa de nerd eles fazem uma comparação do xbox séries e do ps5 o playstation tomou um cascudo violento em quase tudo.</t>
+  </si>
+  <si>
+    <t>acordei agr n consigo mais dormir n to hypadona pro evento do ps5 meo deos https//t.co/svdf9s6oa5</t>
+  </si>
+  <si>
+    <t>vamos lá.. hoje é  o dia dos anúncios do ps5 qual você acha que será o preço?eu acredito em 599 com disco e 499 para a versão sem disco.</t>
+  </si>
+  <si>
+    <t>@cooperfsss demons souls no dia do lançamento??? será? esse é o que eu acho mais dificil das coisas que tenho visto. acredito mais no ffxvi como exclusivo de ps5</t>
+  </si>
+  <si>
+    <t>teremos xbox series x e series s no brasil no day one. o país cresceu ainda mais na indústria nos últimos anos e foi notado pelas duas grandes empresas.créditos mais uma vez ao @silva_ruancarlo que já havia informado sobre o #ps5 https//t.co/jaeqn65mfv</t>
+  </si>
+  <si>
+    <t>liberal/anarco de facebook ain sou contra o protecionismo à indústriasony vou sairl/a  a culpa é sua seus comunistaaaaasl/a  e meu ps5? paieeee</t>
+  </si>
+  <si>
+    <t>@ikarojyo_ na verdade isso não afeta o ps5a sony já não produz console aqui desde 2017. mas é um péssimo sinal para a economia do brasil</t>
+  </si>
+  <si>
+    <t>bom dia meus gameplay de spider man miles morales e preço do ps5 anunciado hoje tem espero que tenha na verdade</t>
+  </si>
+  <si>
+    <t>xa é tt ps5 showcase e o directo é as 20.30hlogo aínda hai que discutir ou facer pallas mentais para ver que sony segue dominando sen a necesidade dun prezo a expectación da nova xeración.o 95 % da xente que ten unha ps4 vai mercar unha ps5. o modelo dependerá do peto.</t>
+  </si>
+  <si>
+    <t>@obitouc84502465 @there4lon3 @shazamcaraiu @artlocked @isadorabasile pera tu ta falando pra ele comprar um ps5 mas dps fala q a comunidade de ps é suja n to entendendo porra nenhuma</t>
+  </si>
+  <si>
+    <t>vazou as primeiras imagens de the last of us part 3 no ps5 que a sony vai mostrar no evento de hoje. 🗣️🚨🚨🚨🚨🚨🚨🚨🚨 https//t.co/adpp6gn7yi</t>
+  </si>
+  <si>
+    <t>que o preço do ps5 saia amanhã amém</t>
+  </si>
+  <si>
+    <t>amigos só pra relembrar quarta-feira dia 16/09 vamos fazer live mais cedo pelo evento da sony sobre o ps5. vamos começar as 1630.</t>
+  </si>
+  <si>
+    <t>semana agitada com conferência do ps5 hoje e possível preço se não mostrar hoje será “preço inbox” amanhã tem direct mini da nintendo com possível monster hunter e sexta nova apresentação de novidades do cyberpunk 2077.</t>
+  </si>
+  <si>
+    <t>nesse evento do ps5 amanhã a santa monica poderia anunciar algum teaser sobre uma continuação do god of war hein🤔</t>
+  </si>
+  <si>
+    <t>@afrobaiano haha claro bem as pessoas são livres para sentir o que quiser ação / consequência némas eu não vejo desmérito na fala tanto que a palavra liquidação quem disse foi você nétodo mundo quer um ps5 nem por isso tá na liquidação</t>
+  </si>
+  <si>
+    <t>@lfernando912 a sony teve que descartar 4 milhões de processadores de ps5 essa semana será que derreteram quando o ps5 bateu os 10 teraflops com o overclock durante o teste de qualidade?</t>
+  </si>
+  <si>
+    <t>acordei né de boa fui na cozinha tomar café e minha irmã veio me dar bom dia dei logo um chutão na costela joguei ela na porta e gritei bom dia é o caralho hoje tem evento do #ps5 que mané bom dia acordei pilhadão  nessa porra e a ela vem com bom dia toma no cu https//t.co/e04w0wqxyc</t>
+  </si>
+  <si>
+    <t>é hoje o velório e sepultamento do xbox. finalmente acaba a espera pela revelação oficial do preço do ps5. se o dólar maldito colaborar eu compro a versão sem leitor de mídia física ainda em 2020 via mercado cinza. https//t.co/lw5gfkkrsr</t>
+  </si>
+  <si>
+    <t>sony empresa reduzirá a produção do novo ps5 em 4 mi de unidades para um total de 11 mi até março devido a problemas com componentes. o preço e data de lançamento do produto deverão ser anunciados amanhã.</t>
+  </si>
+  <si>
+    <t>@luizbarret @joomezzomo @xboxbr não consegue competir com uma empresa que só faz jogo terceira pessoa genérico? tó de boa com gears taticscrossfirexthe medium e hellblade 2 no lançamento do consolese comprar o ps5 no lançamento espero que se divirta com a dlc do homem aranha mexicano</t>
+  </si>
+  <si>
+    <t>@ancapball_br não vai impactar nos preços do ps5 mas de qualquer jeito o xbox é melhor mesmo</t>
+  </si>
+  <si>
+    <t>se o xbox começar a vender mais que o ps5 na próxima geração se preparem os jornalistas isentos vão entrar em estado de guerra tentando denegrir a marca de qualquer jeito</t>
+  </si>
+  <si>
+    <t>timeline hojevem ni mim #ps5 https//t.co/cde1na405h</t>
+  </si>
+  <si>
+    <t>conhecendo o mercenarismo da sony não duvido nada que esse ps5 digital edition seja anunciado mais tarde por uns 500 dols espero quebrar a cara 🙏🏼</t>
+  </si>
+  <si>
+    <t>lembrando que hoje é o dia do ps5. vamos ver</t>
+  </si>
+  <si>
+    <t>vamo de xbox ou ps5 nessa gen hein eita duvida</t>
+  </si>
+  <si>
+    <t>que hoje é dia de #ps5showcase o mundo todo sabe e está de olho 👀uma das apostas para o evento de hoje é que o @playstation @playstation_br mostre sua nova interface em funcionamentoa tela de boot a gente já conhece será que veremos tudo hoje? façam suas apostas #ps5 https//t.co/zmrprtjv1t</t>
+  </si>
+  <si>
+    <t>@xzticks @maisxbox pior do piorpra cada coisa que ela falar que o ps5 tem e o xss não tem eu falo 3 coisas que o xss tem e o ps5 não tem.</t>
+  </si>
+  <si>
+    <t>pqp tl muito ansioso para o novo evento do ps5 krl#ps5showcase #ps5</t>
+  </si>
+  <si>
+    <t>será que hoje teremos novidades? 🥰🥰🥰 #ps5 #ps5showcase https//t.co/3lgnv7jofi</t>
+  </si>
+  <si>
+    <t>→ sony realiza evento do playstation 5 nesta quarta 👉🏻 #tech #games #ps5 #playstation5 #sony #jornaldoscanyons #jdc🔗 confira no jornal dos canyons https//t.co/c5ioiz4jhb</t>
+  </si>
+  <si>
+    <t>eu não podia deixar de soltar isso um vídeo pra vcs da nossa reação ao trailer de anúncio do spider-man miles morales no evento de revelação do #ps5quem puder curtir compartilhar e se inscrever no canal vai ajudar demaishttps//t.co/4wgd3czrur https//t.co/1pai5sqjks</t>
+  </si>
+  <si>
+    <t>ps5 ou arroz os dois a 80 km/h https//t.co/tb4nzlapvj</t>
+  </si>
+  <si>
+    <t>e hoje meus amigos e hoje 💙 #ps5 https//t.co/rs6u89uroj</t>
+  </si>
+  <si>
+    <t>pqp hj tem apresentação do ps5 e só estou pensando em vc remake do demons souls ou bluudboorne 2 ou silent hill#ps5showcase #playstation5</t>
+  </si>
+  <si>
+    <t>acordei né e tals aí fui na cozinha tomar um café e minha sobrinha veio correndo me abraçar pra me dar bom dia dei logo um chutão joguei na porta bom dia o caralho hoje é dia de guerra porradia de apresentar o #ps5 mané bom dia pilhadão e a criança vem me da bom dia? kkk</t>
+  </si>
+  <si>
+    <t>agenda ai pra acompanhar comigo https//t.co/zwkgfqbczjaposto   ps5 com leitor  44900 $  sem leitor  34900 $#playstation5 #playstation5preço #ps5reveal #ps5showcase #playstation5showcase #ps5preço #playstation5preço</t>
+  </si>
+  <si>
+    <t>será que teremos novidades? #ps5 #ps5showcase https//t.co/opy5camouh</t>
+  </si>
+  <si>
+    <t>hoje é dia de ps5 caraíiiiiiiii hype</t>
+  </si>
+  <si>
+    <t>@jojo_c4t não obrigado prefiro meu ps5 mesmo.</t>
+  </si>
+  <si>
+    <t>@matheus_luzzz então é sobre isso mesmo.. faz a regra de três em cima desse valor da 3080. vamos supor que o ps5 seja 70% dessa placa. ficaria perto dos 4k. será ??</t>
+  </si>
+  <si>
+    <t>- imran khan puta merda o series x tem 98 libras 4.5kg é mais pesado que um bebê recém-nascido- kez meu irmão tinha 14 libras 6.3kg 😬 quando nasceusó falando - timdog  isso é o quanto pesa o ps5pessoal veio reclamar do peso do series x 🤣🤣🤣 6kg e 300g 🤣🤣 https//t.co/o3qo85ugok</t>
+  </si>
+  <si>
+    <t>a sony saindo do país o dólar altomeu ps5 cada vez mais longe</t>
+  </si>
+  <si>
+    <t>a fabrica da sony fecha as portas no brasil vcs vao comprar ps5/ps6 e afins a preço de carro</t>
+  </si>
+  <si>
+    <t>deus que me perdoe mas se o ps5 chegar abaixo de 5k vou compra-lo no lançamento</t>
+  </si>
+  <si>
+    <t>ps5  custando o cheque do queiroz pra michelle. https//t.co/lopot8tsep</t>
+  </si>
+  <si>
+    <t>venha a nós a ps5 🤩 https//t.co/aszd9crxuq</t>
+  </si>
+  <si>
+    <t>gostei do novo ipad airate ver o preco nao tem como ele competir com a minha vontade de ter um ps5 rs https//t.co/nana540sga</t>
+  </si>
+  <si>
+    <t>@_cadusantos @thiagofst01 @mandogko @ocervejeiro_ kkkkkkk todos os jogos lançados até agora ou vão tar na retro do ps5 ou vão ganhar port pro ps5. já os jogos que vão lançar agora vão ganhar port pro ps5 whatch dogs legion por exemplo vai lançar primeiro pro ps4 e xbox one e depois vai ganhar port pro ps5 e xbox séries x</t>
+  </si>
+  <si>
+    <t>@drakesincero1 @sonystasensato talvez um novo god of war já pensou o ps5 digital edition ser $299</t>
+  </si>
+  <si>
+    <t>@brayan20081448 @of_zenon @fazeclan @fakie @fazeblaze @fazesway cz c tá passando vergonha kkkkkk ele fez pq ele qr ter um futuro e vc tá zoando isso agr tu mal sabe que pra aumentar o fps teriam que criar um novo console que no caso e o ps5 https//t.co/4qwogsddgs</t>
+  </si>
+  <si>
+    <t>boooom diaaaaa a programação de hoje na nossa land será a seguinte às 14h30 vamos abrir nossa live normalmente para jogar um crash maroto. às 16h30 mais ou menos vamos invadir o canal do nosso parceiro @leongameplay01 para acompanharmos juntos o evento do ps5. conto com vcs🤓 https//t.co/lhfdv87jgb</t>
+  </si>
+  <si>
+    <t>@guilherme_jarb ps5 dá chulé</t>
+  </si>
+  <si>
+    <t>tenis chegou vai todo mundo tomarno cu bom dia primeiramente eu quero que caixista chore bem muito hoje pra eu beber as lágrimas ps5 vai botar pra mamar</t>
+  </si>
+  <si>
+    <t>hoje tem evento do ps5😎✌✌👍👍👍👍👍👍 https//t.co/jafc2avlrp</t>
+  </si>
+  <si>
+    <t>👍 on @youtube sony vai fechar fábrica no brasil | seg. a bloomberg sony esta com problemas no processador do ps5 https//t.co/tof8qbstzm</t>
+  </si>
+  <si>
+    <t>é hoje 🎮sai o preço do ps5 pra baixar o preço do ps4 ps3 ficar em conta o ps2 a preço de banana pra eu poder pegar um ps1 usado. #ps5showcase</t>
+  </si>
+  <si>
+    <t>ps5 sony nega mudanças na linha de produção após rumores de problemas com chipshttps//t.co/lisnce0e2w #tech #sony</t>
+  </si>
+  <si>
+    <t>empunha o espadim de um lendário assassino vindo das terras mais longínquas - a poderosa arma estará disponível com a reserva de #godfall disponível para a #ps5 no final do ano https//t.co/0iswihnwdp</t>
+  </si>
+  <si>
+    <t>vô fazer live assistindo o evento do ps5 amanhã às 1630 belê</t>
+  </si>
+  <si>
+    <t>a playstation anunciou o seu showcase ps5 para hoje dia 16 de setembro às 21h hora de portugal continental.assiste em direto à transmissão aqui https//t.co/xhgxfgmwa5 https//t.co/diajszlfgq</t>
+  </si>
+  <si>
+    <t>depois de uma terça repleta de novidades agora chegamos na quarta-feira com o ps5 showcase em poucas horas</t>
+  </si>
+  <si>
+    <t>que o ps5 seja barato</t>
+  </si>
+  <si>
+    <t>@diegogogogle @fuck_off_matt ps5 - 400 dólaresps5 digital edition - 350 dólaresmeu palpite</t>
+  </si>
+  <si>
+    <t>@gabrielwars vídeo topqueria sugerir um vídeo comparativo sobre sx vs ps5 vs ss.apos a conferência da sony hojecaso ela dê novas informações sobre o ps5.</t>
+  </si>
+  <si>
+    <t>krl só falra para de fazer ps4/ps5 vlw @jairbolsonaro por essa bosta https//t.co/557shpt4nu</t>
+  </si>
+  <si>
+    <t>não vou descartar a idéia mas acredito que não irá conter anúncios de games novos só do funcionamento do ps5 tipo preço e etc.#playstation5</t>
+  </si>
+  <si>
+    <t>@kamatsukyoto as do xbox ficaram ótimas quem sabe esse ano a sony ainda mostre a do ps5</t>
+  </si>
+  <si>
+    <t>se o xbox one s que é tido como o console mais fraco dessa geração consegue fazer isso aqui em tempo real imagina o ps5 e xbox series x 👁️ https//t.co/gwljpuerlm</t>
+  </si>
+  <si>
+    <t>reino dos magos #5 ps5 sorteioloja  https//t.co/psooztpdjt</t>
+  </si>
+  <si>
+    <t>é hoje que vamos ver se eu compro o ps5 ano que vem ou só em 2022 😂😂</t>
+  </si>
+  <si>
+    <t>@silva_ruancarlo @tokyo_90l eles tem alguma noção de unidades que vão ser distribuidas para esses consoles xbox e ps5 ?</t>
+  </si>
+  <si>
+    <t>capaz de ps5 ter alguma versão q faça competição com o series s no preço lá fora mas qnd chegar aqui seja bem mais caro eh triste</t>
+  </si>
+  <si>
+    <t>@asdantz chegou a barbie fascita bruxa do ps5 https//t.co/efrg5vqcps</t>
+  </si>
+  <si>
+    <t>terão que reduzir o preço do console na força do ódio para ter concorrência com o xbox. o consumidor agradece. rss #hojetem #ps5 https//t.co/ksvf7fydmx</t>
+  </si>
+  <si>
+    <t>vai quenão custa sonhar né? 😆😆#ps5 #ps5showcase #playstation #playfivebrasil https//t.co/p7pjuultcq</t>
+  </si>
+  <si>
+    <t>@locobaltar amanhã o dia é da mídia sonysta o poderoso ps5 vai mostrar o que é nova geração de verdade e se rolar o god of war novo podem enterrar a caixa preta da microsoft.</t>
+  </si>
+  <si>
+    <t>mal começou o dia do ps5 e já tem xbox infartando. https//t.co/4suqgpudf8</t>
+  </si>
+  <si>
+    <t>@blackgokudoido o foda é q na época q eu comprei meu ps4 eu não pensava assim. e eu tava pensando sobre isso na próxima geração se o ps5/xsx vierem mais de 5k acho que vale mais a pena comprar um pc por que no mínimo os jogos nos consoles vão ser 279 reais</t>
+  </si>
+  <si>
+    <t>@mayaayahost tudo pra ter dinheiro pra dar up no pc economiza no ps5 e da all in no pc garota você é uma pensadora</t>
+  </si>
+  <si>
+    <t>uma rápida e última pincelada no assunto preço antes do evento de amanhã/hoje assiste lá vou dormir e amanhã/hoje é playstation nesse caralho. #ps5https//t.co/iy97sudas7</t>
+  </si>
+  <si>
+    <t>bom dia. hoje no evento da sonya eu esperorevelação gow2.bloodborne 2/kart.sillent hill.the last of us 3.horizon zero dawn 2 gameplay.data do ratched.gameplay demon souls.psnow no brasil.data e preço do ps5.se não aparecer isso o evento foi uma merda. https//t.co/vxhn7zvsqr</t>
+  </si>
+  <si>
+    <t>@fazendachernoby ansioso demais pra ver as primeiras comparações gráficas entre series s e ps5. sim eu falei series s pra mim tá com cara que esse console base da ms vai dar pau no ps5. esperemos.</t>
+  </si>
+  <si>
+    <t>@gramiliki_ @nintendoamerica @rockstargames podia soltar aqele trailer de boyoneta 3 um zelda botw 2 e gta5   nao ligo para gta5 mas muito gente quer ele. pronto a nitnendo todo mundokkk. e no final mostra o suposto swtich prokkkkkkkkkk. pronto a nintendo ganhou o ano contra o ps5 e xbx ss x y z..kkkk</t>
+  </si>
+  <si>
+    <t>isso aqui dá um comentário político daqueles você começaria com o engajamento alienado e reprodução de discursos na internet do consumidor imbecilizado nas novas mídias e chegaria na política econômica desastrosa do governo atual.https//t.co/mtndmtra12</t>
+  </si>
+  <si>
+    <t>amanhã tem apresentação da sony do ps5 ás 1700 5 da tarde. a steel wool colocou o link da apresentação no twitter deles será que vem trailer do fnaf 9? será que agora vai?vejo vocês amanhã.https//t.co/ojmmcwyr3g</t>
+  </si>
+  <si>
+    <t>ps5 mais caro que um apartamento https//t.co/nl9mommvbc</t>
+  </si>
+  <si>
+    <t>@davidpdcoelho @xzticks @maisxbox só faltou ela falar não comprem o xss ps5 digital é melhor escolha. 😂😂😂</t>
+  </si>
+  <si>
+    <t>parabéns aos gamers apoiadores do bozo.sony brasil fechou sua fábrica em manaus o que obviamente impossibilitará fabricação nacional do ps5.tratem de pagar o meu agora.🖕🖕🖕🖕🖕🖕🖕🖕</t>
+  </si>
+  <si>
+    <t>qualquer valor abaixo de 450/500 dolares hoje do ps5 é lucro. se for acima os caras vão ter q garantir nos jogos.#playstation5</t>
+  </si>
+  <si>
+    <t>quase a sair a ps5 e eu faço anos amanhã já sabem amigos</t>
+  </si>
+  <si>
+    <t>fico ansiosa pro evento da sony sendo que não vou ter um ps5 tão cedo é foda</t>
+  </si>
+  <si>
+    <t>já penso q loco se amanha anunciam um novo god of war.foda-se q vai custar 10k o ps5 vou precisar desse troço</t>
+  </si>
+  <si>
+    <t>borderlands 3 confirmado pro ps5 rodando a 4k/60fps https//t.co/nnxyl1gwxd</t>
+  </si>
+  <si>
+    <t>gente falando em cinco anos de vida útil pro ps5 e pro xsx por exemplo o que traria uma nova gen em 2025 ao invés de 2027.como os serviços incluindo streaming a internet o hardware a tecnologia e a vida das pessoas e formas de consumo estão evoluindo muito rápido</t>
+  </si>
+  <si>
+    <t>é hj o ps5 ?</t>
+  </si>
+  <si>
+    <t>acordei né de boa fui na cozinha tomar café e minha irmã veio me dar bom dia dei logo um chutão na costela joguei ela na porta e gritei bom dia é o caralho hoje tem evento do #ps5 que mané bom dia acordei pilhadão  nessa porra e a ela vem com bom dia toma no cu</t>
+  </si>
+  <si>
+    <t>@rafapaulocr tomara q n seja só um anúncio dizendo que help wanted vai sair pra ps5 também se isso acontecer eu saio da live e vochora</t>
+  </si>
+  <si>
+    <t>quando abro matéria sobre jogo interessante mas descubro que é exclusivo do #ps5 https//t.co/8hvl0egtwj</t>
+  </si>
+  <si>
+    <t>@snyxss bom dia é o caralhoacordei aí fui na cozinha tomar uma café e meu sobrinho veio correndo me abraçar pra me dar bom dia dei logo um chutão joguei na porta bom dia o caralho hoje é dia de guerra porra é dia de ps5 mané bom dia pilhado e a criança vem me da bom dia</t>
+  </si>
+  <si>
+    <t>@nerdisse_ @pcfrangames @adrenaline vá se lá perceber se fosse parar para produzir a ps5</t>
+  </si>
+  <si>
+    <t>discord https//t.co/q6oxummoxfsiga nossas midias sociais e acompanhe memes noticias vídeos e lives @aldoriagamesseja apoiador e participe de sorteios#memes #humor #meme #nostalgia #ps5 #ps4 #xbox https//t.co/tmr42ovbs2</t>
+  </si>
+  <si>
+    <t>@andreiaxj @ryanjun05908576 @jhonaimore @meuplaystation eu não entendo nada disso mas se o ps5 foi mais barato em algum lugar vou lá buscar sksksksk</t>
+  </si>
+  <si>
+    <t>@mahriojr bom dia sr mahrio poderia me informar a hora do evento do ps5?</t>
+  </si>
+  <si>
+    <t>ohhh sony faz o favor de anunciar logo o preço do ps5 não aguento mais o povo falando desse assunto em todo canto kkkkkkkkk https//t.co/lvinzeixt3</t>
+  </si>
+  <si>
+    <t>como vou estar vendo a live da @sony sobre as novidades do ps5 @playstation_br #playstation5 #playstation5showcase #videogames https//t.co/3rj5sktho3</t>
+  </si>
+  <si>
+    <t>@silva_ruancarlo bom dia. apesar de estar curioso pelo preço em dólar estou ansioso pra saber em reais espero que anunciem logo. #ps5</t>
+  </si>
+  <si>
+    <t>a esse ponto eu to mais interessado em saber se a sony vai vender o ps5 no brasil durante o lançamento do que saber sobre novos jogos mas provavelmente nem vão anunciar isso hoje</t>
+  </si>
+  <si>
+    <t>hoje tem conferência da sony pra falarem do ps5 será que vai ser mais viável comprar uma casa ou um ps5 esse ano?</t>
+  </si>
+  <si>
+    <t>bom diaaa e q dia hein galera? hoje promete ser um dos mais legais do ano pra mim a partir das 14h estarei participando ao vivo lá no canal da @vresportsbrasil pra acompanhar o evento do #facebookconnect e a apresentação oficial do oculus quest 2 e às 17h tem evento do #ps5</t>
+  </si>
+  <si>
+    <t>e por terem uma larga adoção significando uma ampla base de mercado jogos acabam sendo desenvolvidos pensando neles. atualmente exclusivo de pc acontece menos e menos e geralmente em gêneros onde são necessários mouse/teclado e bastante teclas.pra vcs terem ideia o ps5 e</t>
+  </si>
+  <si>
+    <t>bora que hoje é o evento do #ps5 na porra hype a mil vamo que vamo https//t.co/pisywvtl1l</t>
+  </si>
+  <si>
+    <t>tá aí pq o ps5 tá 10pau https//t.co/3sky9t2s6i</t>
+  </si>
+  <si>
+    <t>👍 on @youtube quarta tem evento do ps5 ed boom comenta sobre series s - notícias do dia [ao vivo] https//t.co/ytbns4inrt</t>
+  </si>
+  <si>
+    <t>é hoje a transmissão ao vivo para falar sobre o futuro do console ps5. a live contará com jogos explicações e possivelmente a tão aguardada revelação de preço e data de lançamento.ansiosos ?? #playstation5 #playstationshowcase https//t.co/sfr55vpnur</t>
+  </si>
+  <si>
+    <t>ps5 vai chegar no brasil por uns 10 mil conto https//t.co/e4g4pikxra</t>
+  </si>
+  <si>
+    <t>ps5 vai custar 10ke a camera a7r iv vai passar pra 30kvlw brasil https//t.co/q0yzwpeplf</t>
+  </si>
+  <si>
+    <t>@there4lon3 @shazamcaraiu @artlocked @isadorabasile isso cara vai de ps5 mesmo pq a comunidade de xbox não fica ameçando os outros de morte e hacka páginas pra fazer apologia a nazismo me orgulho da comunidade pq ela não é suja que nem a do playstation</t>
+  </si>
+  <si>
+    <t>👍 on @youtube problematizando games #35 ps5 com defeito? 1440p maior que 4k? nvidia = skynet https//t.co/jndxfeudo7</t>
+  </si>
+  <si>
+    <t>@carlinhostroll no laçamento do ps4.. comprei de você  que ajudou vários gamers brasileiros  você podia vender novamente o xbox e ps5  em 🥺</t>
+  </si>
+  <si>
+    <t>já trouxe o terno da lavanderia. pro martini mexido e não batido tem tudo.mandei os cachorros pra casa da vó e as crianças pra pet 🤔🤔🤔.pedi divórcio entre 16h45 até 18h45. desfiz todas as amizades.hoje é dia de #ps5showcase #ps5</t>
+  </si>
+  <si>
+    <t>preparados para vê o melhor exclusivo do ps5 no evento de amanhã #ps5 https//t.co/0x8lbmgwid</t>
+  </si>
+  <si>
+    <t>tomara que a rapaziada do xbox n venha pro ps5  tem uns q são chatão pqp</t>
+  </si>
+  <si>
+    <t>jogos que adoraria ver aparecendo amanhã na conferência do ps5 mas que obviamente vão permanecer só nos corações mesmo 😭👌 https//t.co/5qadryqu7v</t>
+  </si>
+  <si>
+    <t>@lord_psmg lord acha possível aparecer god of war sillent hill ps now na américa latina e preço do ps5 mais barato?</t>
+  </si>
+  <si>
+    <t>@meuplaystation ps5 all digital $399 se a sony sangrar $$$ps5 padrão $499</t>
+  </si>
+  <si>
+    <t>boa noite pra quem? não eu não consigo dormir. como descobriu? #ps5</t>
+  </si>
+  <si>
+    <t>@shihotogai pcr eu faria com uma veia pelo ps5 e tu acha q n faria com isso?</t>
+  </si>
+  <si>
+    <t>sonhar é de graça modelo mais simples do #ps5 deve custar menos de us$ 400 https//t.co/juwos5jwyc</t>
+  </si>
+  <si>
+    <t>discord https//t.co/q6oxummoxfsiga nossas midias sociais e acompanhe memes noticias vídeos e lives @aldoriagamesseja apoiador e participe de sorteios#memes #humor #meme #nostalgia #ps5 #ps4 #xbox https//t.co/nuwc9ji3w2</t>
+  </si>
+  <si>
+    <t>se tivesse a ps5 despedia me da marta e dos meus amigos não saía mais de casa</t>
+  </si>
+  <si>
+    <t>desculpa pai mas ps5 vai ter que vir no final do ano</t>
+  </si>
+  <si>
+    <t>eu nem tô assim quem tá são vocês#ps5showcase #ps5 #thehypeisreal https//t.co/58oqjcd0a9</t>
+  </si>
+  <si>
+    <t>as vezes dá medo de pensar que o #ps5 chegue no brasil a menos de 5k.. eu cometeria uma loucura? talvez.</t>
   </si>
 </sst>
 </file>
@@ -1882,7 +2533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1891,9 +2542,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2232,2424 +2880,3328 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B295" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="255.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="122" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C143" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C146" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="C147" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C148" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C149" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C150" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C151" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="C152" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="C154" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="C155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C156" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="C158" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="C159" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C160" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C161" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C162" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>163</v>
       </c>
       <c r="B163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C163" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>164</v>
       </c>
       <c r="B164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C164" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C165" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="C166" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>167</v>
       </c>
       <c r="B167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C167" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="C168" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>169</v>
       </c>
       <c r="B169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C169" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C170" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C171" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C172" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C173" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>174</v>
       </c>
       <c r="B174">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C174" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C175" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C176" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>177</v>
       </c>
       <c r="B177">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="C177" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C178" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>179</v>
       </c>
       <c r="B179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C179" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C180" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B181">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C181" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>182</v>
       </c>
       <c r="B182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C182" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C183" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C184" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>185</v>
       </c>
       <c r="B185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C185" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>186</v>
       </c>
       <c r="B186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C186" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C187" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>188</v>
       </c>
       <c r="B188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C188" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B189">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C189" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C190" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>191</v>
       </c>
       <c r="B191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C191" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C192" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C193" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>194</v>
       </c>
       <c r="B194">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C194" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>195</v>
       </c>
       <c r="B195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C195" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>196</v>
       </c>
       <c r="B196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C196" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="C197" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>198</v>
       </c>
       <c r="B198">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C198" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>199</v>
       </c>
       <c r="B199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C199" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>200</v>
       </c>
       <c r="B200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="C200" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>201</v>
       </c>
       <c r="B201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="C201" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>202</v>
       </c>
       <c r="B202">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C202" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C203" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>204</v>
       </c>
       <c r="B204">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C204" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>205</v>
       </c>
       <c r="B205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="C205" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>206</v>
       </c>
       <c r="B206">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C206" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>207</v>
       </c>
       <c r="B207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C207" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>208</v>
       </c>
       <c r="B208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C208" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>209</v>
       </c>
       <c r="B209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C209" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>210</v>
       </c>
       <c r="B210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C210" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>211</v>
       </c>
       <c r="B211">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C211" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>212</v>
       </c>
       <c r="B212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C212" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>213</v>
       </c>
       <c r="B213">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C213" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>214</v>
       </c>
       <c r="B214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C214" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>215</v>
       </c>
       <c r="B215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C215" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>216</v>
       </c>
       <c r="B216">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C216" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>217</v>
       </c>
       <c r="B217">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C217" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C218" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>219</v>
       </c>
       <c r="B219">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C219" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>220</v>
       </c>
       <c r="B220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C220" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>221</v>
       </c>
       <c r="B221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="C221" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C222" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>223</v>
       </c>
       <c r="B223">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C223" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>224</v>
       </c>
       <c r="B224">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C224" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>225</v>
       </c>
       <c r="B225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C225" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>226</v>
       </c>
       <c r="B226">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C226" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B227">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C227" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>228</v>
       </c>
       <c r="B228">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C228" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>229</v>
       </c>
       <c r="B229">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="C229" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>230</v>
       </c>
       <c r="B230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="C230" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="210" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>231</v>
       </c>
       <c r="B231">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C231" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>232</v>
       </c>
       <c r="B232">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C232" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>233</v>
       </c>
       <c r="B233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C233" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>234</v>
       </c>
       <c r="B234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C234" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>235</v>
       </c>
       <c r="B235">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="C235" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>236</v>
       </c>
       <c r="B236">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C236" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>237</v>
       </c>
       <c r="B237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C237" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>238</v>
       </c>
       <c r="B238">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="C238" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>239</v>
       </c>
       <c r="B239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="C239" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>240</v>
       </c>
       <c r="B240">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C240" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>241</v>
       </c>
       <c r="B241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C241" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>242</v>
       </c>
       <c r="B242">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C242" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>243</v>
       </c>
       <c r="B243">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C243" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>244</v>
       </c>
       <c r="B244">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C244" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B245">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="C245" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>246</v>
       </c>
       <c r="B246">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C246" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>247</v>
       </c>
       <c r="B247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C247" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>248</v>
       </c>
       <c r="B248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C248" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B249">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C249" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>250</v>
       </c>
       <c r="B250">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C250" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>251</v>
       </c>
       <c r="B251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="C251" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>252</v>
       </c>
       <c r="B252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C252" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>253</v>
       </c>
       <c r="B253">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C253" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>254</v>
       </c>
       <c r="B254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="C254" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C255" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>256</v>
       </c>
       <c r="B256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C256" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>257</v>
       </c>
       <c r="B257">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C257" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>258</v>
       </c>
       <c r="B258">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C258" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>259</v>
       </c>
       <c r="B259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C259" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>260</v>
       </c>
       <c r="B260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C260" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>261</v>
       </c>
       <c r="B261">
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C261" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>262</v>
       </c>
       <c r="B262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C262" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>263</v>
       </c>
       <c r="B263">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C263" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>264</v>
       </c>
       <c r="B264">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C264" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>265</v>
       </c>
       <c r="B265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C265" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>266</v>
       </c>
       <c r="B266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C266" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>267</v>
       </c>
       <c r="B267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="C267" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>268</v>
       </c>
       <c r="B268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C268" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>269</v>
       </c>
       <c r="B269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C269" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>270</v>
       </c>
       <c r="B270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C270" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>271</v>
       </c>
       <c r="B271">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C271" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>272</v>
       </c>
       <c r="B272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C272" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>273</v>
       </c>
       <c r="B273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C273" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>274</v>
       </c>
       <c r="B274">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C274" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B275">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C275" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>276</v>
       </c>
       <c r="B276">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C276" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>277</v>
       </c>
       <c r="B277">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="C277" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>278</v>
       </c>
       <c r="B278">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C278" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C279" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>280</v>
       </c>
       <c r="B280">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C280" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>281</v>
       </c>
       <c r="B281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C281" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="C282" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>283</v>
       </c>
       <c r="B283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C283" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>284</v>
       </c>
       <c r="B284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C284" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>285</v>
       </c>
       <c r="B285">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C285" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>286</v>
       </c>
       <c r="B286">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C286" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>287</v>
       </c>
       <c r="B287">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C287" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>288</v>
       </c>
       <c r="B288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C288" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>289</v>
       </c>
       <c r="B289">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C289" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>290</v>
       </c>
       <c r="B290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C290" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>291</v>
       </c>
       <c r="B291">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C291" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>292</v>
       </c>
       <c r="B292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C292" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>293</v>
       </c>
       <c r="B293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C293" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>294</v>
       </c>
       <c r="B294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C294" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>295</v>
       </c>
       <c r="B295">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C295" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>296</v>
       </c>
       <c r="B296">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="C296" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>297</v>
       </c>
       <c r="B297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C297" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>298</v>
       </c>
       <c r="B298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C298" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>299</v>
       </c>
       <c r="B299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="C299" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>300</v>
       </c>
       <c r="B300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="C300" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>301</v>
       </c>
       <c r="B301">
         <v>1</v>
+      </c>
+      <c r="C301" t="s">
+        <v>719</v>
       </c>
     </row>
   </sheetData>
@@ -4661,8 +6213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView topLeftCell="A70" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="H2" sqref="G1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PS5.xlsx
+++ b/PS5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agchi\Documents\GitHub\P1-Ciencia-dos-Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C207507-3A5A-47BC-934D-11439487DB17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661C4900-AF16-4E37-A0DD-3B7E9664FDE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="4635" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2882,7 +2882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B295" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2890,7 +2890,7 @@
   <cols>
     <col min="1" max="1" width="255.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="122" customWidth="1"/>
+    <col min="3" max="3" width="77.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/PS5.xlsx
+++ b/PS5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agchi\Documents\GitHub\P1-Ciencia-dos-Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661C4900-AF16-4E37-A0DD-3B7E9664FDE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE99AB76-F88C-4CA7-AD99-54FBC1F20616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="4635" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="729">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1874,15 +1874,9 @@
     <t>@meuplaystation flw galeraaaaa vou lá no estados unidos compro 4 ps5 7 pc gamer 2 xbox quando voltar eu vou vender por 30000</t>
   </si>
   <si>
-    <t>evento da sony amanhã vai ter- god of war ragnarok- bloodborne 2- elden ring- silent hills - preços do ps5fontes quentes confirmaram 🙌🏼</t>
-  </si>
-  <si>
     <t>acordei né de boa fui na cozinha tomar um café e minha sobrinha veio me dar bom dia dei logo um chutão joguei ela na porta bom dia é o caralho hoje é dia ps5 silent hill finalmente preço e data dessa porra gameplays jogos fodas. que mané bom dia. #ps5showcase #ps5</t>
   </si>
   <si>
-    <t>imagina pra consumir ps5 ano que vem  mais jogos e produtos eletronicos   com nossa moeda desvalorizada  pessima noticia  https//t.co/9qpmmhp5qo</t>
-  </si>
-  <si>
     <t>primeiro a nintendo fecha as portas no brasil agora a sony. preparem-se para os preços nada convidativos dos modelos do ps5</t>
   </si>
   <si>
@@ -1898,9 +1892,6 @@
     <t>discord https//t.co/q6oxummoxfsiga nossas midias sociais e acompanhe memes noticias vídeos e lives @aldoriagamesseja apoiador e participe de sorteios#memes #humor #meme #nostalgia #ps5 #ps4 #xbox https//t.co/1xors1usty</t>
   </si>
   <si>
-    <t>é hoje 😱⌛️😱⌛️gostou do vídeo? compartilhenos siga em todas as redes sociais só pesquisar por #playfivebrasil no instagram e facebook#ps5 #ps5showcase #playstation #game #sony @sony @sonybrasil @playstation @playstation_br https//t.co/d1fzxdlwn5</t>
-  </si>
-  <si>
     <t>as maiores e persistentes dúvidas sobre a ps5 a que a sony precisa dar resposta no showcase de mais logo. https//t.co/gvu0ajt5lg</t>
   </si>
   <si>
@@ -1910,30 +1901,15 @@
     <t>se a sony botar o lançamento do ps5 em novembro também vocês já sabem o que me dar de aniversário né??</t>
   </si>
   <si>
-    <t>está chegando a hora 17h tem o grande evento do ano até o momento. meu palpite para o ps5 é de €49990 com leitor.€39990 sem leitor.  https//t.co/yjmbnerwjv</t>
-  </si>
-  <si>
     <t>@breninhoo19 @mikkaizinho @mitodante_ eu não botei defeito nenhum eu acho playstation sensacional eu não tenho guerra de console mas o ps5 é inferior que o xbox series x</t>
   </si>
   <si>
     <t>e meu priminho que sabia que eu ia ficar nervosa com a cirurgia do stark e me mandou o ps5 dele pra eu relaxa 💜</t>
   </si>
   <si>
-    <t>@capitaocritica mano pra que fica de boa jogando o seu ps5 que eu fico deboa no xbox 🙂👍</t>
-  </si>
-  <si>
     <t>bom dia hoje tem precinho do ps5 será?</t>
   </si>
   <si>
-    <t>amanhã tem evento da sony sobre o ps5. a capcom já confirmou que as tão esperadas novidades de #revillage chegam no fim de setembromas será que amanhã a gente pode ter algo novo? nem que seja uma nova imagem? 👀#rebhfun https//t.co/fto9ghdlai</t>
-  </si>
-  <si>
-    <t>é hoje 🤍🖤💙 #ps5showcase #ps5 https//t.co/ejjqhjnfgg</t>
-  </si>
-  <si>
-    <t>@cariocachinese @gmunhoz__ negócio é esperar lançar ps5 pra comprar o 4 e assim vai indo os com o xbox também pq da muito stönks 🤏😎👍</t>
-  </si>
-  <si>
     <t>sinceramente meu hype pro evento do ps5 é preço e data de lançamento só isso não espero nada demais além disso no máximo um trailer novo ou gameplay de jogos já apresentados.</t>
   </si>
   <si>
@@ -1982,21 +1958,9 @@
     <t>@kamatsukyoto a dos xbox tão bonitas pômas essa do ps5parece de cafeteira</t>
   </si>
   <si>
-    <t>#tlou2 😱já garantiu o seu #thelastofus2⁉veja este e outros grandes sucessos aqui na #bigboygames 😍aproveite pois são pouca unidades🏃🏃‍♀️https//t.co/jkwzknhfujcompramos seu jogo usado📱16 99763-7729#lojabigboygames #bigboy #ps4 #playstation4 #ps5 #seminovos https//t.co/tv8bfcgjgq</t>
-  </si>
-  <si>
     <t>@rjrmarafon @m4ximizando caraca véi independente de qualquer coisa o ps5 é enorme mesmo.</t>
   </si>
   <si>
-    <t>hoje também é dia de saber mais do #playstation5   o evento playstation 5 showcase acontece hoje às 17h do horário de brasília. quem aí tá animado pra saber mais do #ps5? https//t.co/zythhmpp5v</t>
-  </si>
-  <si>
-    <t>@dougmad4k des d quando o fechamento da fabrica devido a impostos alta do dolar etc tem com a venda elevada no preço do ps5 aki ja q a sony nao fabricava video game no território nacional .sera q alguem leu a materia sem falar q varias pessoas vao ficar sem emprego  mas bora comemorar</t>
-  </si>
-  <si>
-    <t>acordei né de boa fui na cozinha tomar café e minha irmã veio me dar bom dia dei logo um chutão na costela joguei ela na porta e gritei bom dia é o caralho hoje tem evento do #ps5 que mané bom dia acordei pilhadão  nessa porra e a ela vem com bom dia toma no cu https//t.co/tniofq4gtl</t>
-  </si>
-  <si>
     <t>@arielsis kabum vai sortear um ps5 no provável day one acho que isso já era indícios que seria lançado aqui day one</t>
   </si>
   <si>
@@ -2048,18 +2012,12 @@
     <t>jogar the last of us part ii no ps5 ou talvez um red dead redemption 2 já me dá um negócio. the witcher 3 então.vamo q hoje não é um dia qualquer#ps5#ps5showcase</t>
   </si>
   <si>
-    <t>palpites de hoje us 449 / 499   br 5999 / 6499#ps5</t>
-  </si>
-  <si>
     <t>personagem memorável e incrível do mundo os gamesobs espero que o evento do ps5 hoje ao menos tenhamos mais informações sobre datas dos jogos e claro a data e preço do ps5bom dia a todos os sonysta/a todos que amam vídeo game. https//t.co/ooflly63nj</t>
   </si>
   <si>
     <t>@porraissaa so uma tunada naquele pc um ps5 do lado com um monitor 4k puts ai eu quero</t>
   </si>
   <si>
-    <t>o evento do ps5 vai começar quando eu tiver largando  se aparecer algo de algum final fantasy metam minha @ no post por favor</t>
-  </si>
-  <si>
     <t>fiquem em casa a economia vemos depois.depoister que vender a casa para comprar o ps5 https//t.co/khjmw47bxs</t>
   </si>
   <si>
@@ -2078,18 +2036,12 @@
     <t>acordei agr n consigo mais dormir n to hypadona pro evento do ps5 meo deos https//t.co/svdf9s6oa5</t>
   </si>
   <si>
-    <t>vamos lá.. hoje é  o dia dos anúncios do ps5 qual você acha que será o preço?eu acredito em 599 com disco e 499 para a versão sem disco.</t>
-  </si>
-  <si>
     <t>@cooperfsss demons souls no dia do lançamento??? será? esse é o que eu acho mais dificil das coisas que tenho visto. acredito mais no ffxvi como exclusivo de ps5</t>
   </si>
   <si>
     <t>teremos xbox series x e series s no brasil no day one. o país cresceu ainda mais na indústria nos últimos anos e foi notado pelas duas grandes empresas.créditos mais uma vez ao @silva_ruancarlo que já havia informado sobre o #ps5 https//t.co/jaeqn65mfv</t>
   </si>
   <si>
-    <t>liberal/anarco de facebook ain sou contra o protecionismo à indústriasony vou sairl/a  a culpa é sua seus comunistaaaaasl/a  e meu ps5? paieeee</t>
-  </si>
-  <si>
     <t>@ikarojyo_ na verdade isso não afeta o ps5a sony já não produz console aqui desde 2017. mas é um péssimo sinal para a economia do brasil</t>
   </si>
   <si>
@@ -2102,9 +2054,6 @@
     <t>@obitouc84502465 @there4lon3 @shazamcaraiu @artlocked @isadorabasile pera tu ta falando pra ele comprar um ps5 mas dps fala q a comunidade de ps é suja n to entendendo porra nenhuma</t>
   </si>
   <si>
-    <t>vazou as primeiras imagens de the last of us part 3 no ps5 que a sony vai mostrar no evento de hoje. 🗣️🚨🚨🚨🚨🚨🚨🚨🚨 https//t.co/adpp6gn7yi</t>
-  </si>
-  <si>
     <t>que o preço do ps5 saia amanhã amém</t>
   </si>
   <si>
@@ -2114,18 +2063,12 @@
     <t>semana agitada com conferência do ps5 hoje e possível preço se não mostrar hoje será “preço inbox” amanhã tem direct mini da nintendo com possível monster hunter e sexta nova apresentação de novidades do cyberpunk 2077.</t>
   </si>
   <si>
-    <t>nesse evento do ps5 amanhã a santa monica poderia anunciar algum teaser sobre uma continuação do god of war hein🤔</t>
-  </si>
-  <si>
     <t>@afrobaiano haha claro bem as pessoas são livres para sentir o que quiser ação / consequência némas eu não vejo desmérito na fala tanto que a palavra liquidação quem disse foi você nétodo mundo quer um ps5 nem por isso tá na liquidação</t>
   </si>
   <si>
     <t>@lfernando912 a sony teve que descartar 4 milhões de processadores de ps5 essa semana será que derreteram quando o ps5 bateu os 10 teraflops com o overclock durante o teste de qualidade?</t>
   </si>
   <si>
-    <t>acordei né de boa fui na cozinha tomar café e minha irmã veio me dar bom dia dei logo um chutão na costela joguei ela na porta e gritei bom dia é o caralho hoje tem evento do #ps5 que mané bom dia acordei pilhadão  nessa porra e a ela vem com bom dia toma no cu https//t.co/e04w0wqxyc</t>
-  </si>
-  <si>
     <t>é hoje o velório e sepultamento do xbox. finalmente acaba a espera pela revelação oficial do preço do ps5. se o dólar maldito colaborar eu compro a versão sem leitor de mídia física ainda em 2020 via mercado cinza. https//t.co/lw5gfkkrsr</t>
   </si>
   <si>
@@ -2144,30 +2087,18 @@
     <t>timeline hojevem ni mim #ps5 https//t.co/cde1na405h</t>
   </si>
   <si>
-    <t>conhecendo o mercenarismo da sony não duvido nada que esse ps5 digital edition seja anunciado mais tarde por uns 500 dols espero quebrar a cara 🙏🏼</t>
-  </si>
-  <si>
     <t>lembrando que hoje é o dia do ps5. vamos ver</t>
   </si>
   <si>
     <t>vamo de xbox ou ps5 nessa gen hein eita duvida</t>
   </si>
   <si>
-    <t>que hoje é dia de #ps5showcase o mundo todo sabe e está de olho 👀uma das apostas para o evento de hoje é que o @playstation @playstation_br mostre sua nova interface em funcionamentoa tela de boot a gente já conhece será que veremos tudo hoje? façam suas apostas #ps5 https//t.co/zmrprtjv1t</t>
-  </si>
-  <si>
     <t>@xzticks @maisxbox pior do piorpra cada coisa que ela falar que o ps5 tem e o xss não tem eu falo 3 coisas que o xss tem e o ps5 não tem.</t>
   </si>
   <si>
     <t>pqp tl muito ansioso para o novo evento do ps5 krl#ps5showcase #ps5</t>
   </si>
   <si>
-    <t>será que hoje teremos novidades? 🥰🥰🥰 #ps5 #ps5showcase https//t.co/3lgnv7jofi</t>
-  </si>
-  <si>
-    <t>→ sony realiza evento do playstation 5 nesta quarta 👉🏻 #tech #games #ps5 #playstation5 #sony #jornaldoscanyons #jdc🔗 confira no jornal dos canyons https//t.co/c5ioiz4jhb</t>
-  </si>
-  <si>
     <t>eu não podia deixar de soltar isso um vídeo pra vcs da nossa reação ao trailer de anúncio do spider-man miles morales no evento de revelação do #ps5quem puder curtir compartilhar e se inscrever no canal vai ajudar demaishttps//t.co/4wgd3czrur https//t.co/1pai5sqjks</t>
   </si>
   <si>
@@ -2183,9 +2114,6 @@
     <t>acordei né e tals aí fui na cozinha tomar um café e minha sobrinha veio correndo me abraçar pra me dar bom dia dei logo um chutão joguei na porta bom dia o caralho hoje é dia de guerra porradia de apresentar o #ps5 mané bom dia pilhadão e a criança vem me da bom dia? kkk</t>
   </si>
   <si>
-    <t>agenda ai pra acompanhar comigo https//t.co/zwkgfqbczjaposto   ps5 com leitor  44900 $  sem leitor  34900 $#playstation5 #playstation5preço #ps5reveal #ps5showcase #playstation5showcase #ps5preço #playstation5preço</t>
-  </si>
-  <si>
     <t>será que teremos novidades? #ps5 #ps5showcase https//t.co/opy5camouh</t>
   </si>
   <si>
@@ -2198,9 +2126,6 @@
     <t>@matheus_luzzz então é sobre isso mesmo.. faz a regra de três em cima desse valor da 3080. vamos supor que o ps5 seja 70% dessa placa. ficaria perto dos 4k. será ??</t>
   </si>
   <si>
-    <t>- imran khan puta merda o series x tem 98 libras 4.5kg é mais pesado que um bebê recém-nascido- kez meu irmão tinha 14 libras 6.3kg 😬 quando nasceusó falando - timdog  isso é o quanto pesa o ps5pessoal veio reclamar do peso do series x 🤣🤣🤣 6kg e 300g 🤣🤣 https//t.co/o3qo85ugok</t>
-  </si>
-  <si>
     <t>a sony saindo do país o dólar altomeu ps5 cada vez mais longe</t>
   </si>
   <si>
@@ -2210,9 +2135,6 @@
     <t>deus que me perdoe mas se o ps5 chegar abaixo de 5k vou compra-lo no lançamento</t>
   </si>
   <si>
-    <t>ps5  custando o cheque do queiroz pra michelle. https//t.co/lopot8tsep</t>
-  </si>
-  <si>
     <t>venha a nós a ps5 🤩 https//t.co/aszd9crxuq</t>
   </si>
   <si>
@@ -2228,24 +2150,15 @@
     <t>@brayan20081448 @of_zenon @fazeclan @fakie @fazeblaze @fazesway cz c tá passando vergonha kkkkkk ele fez pq ele qr ter um futuro e vc tá zoando isso agr tu mal sabe que pra aumentar o fps teriam que criar um novo console que no caso e o ps5 https//t.co/4qwogsddgs</t>
   </si>
   <si>
-    <t>boooom diaaaaa a programação de hoje na nossa land será a seguinte às 14h30 vamos abrir nossa live normalmente para jogar um crash maroto. às 16h30 mais ou menos vamos invadir o canal do nosso parceiro @leongameplay01 para acompanharmos juntos o evento do ps5. conto com vcs🤓 https//t.co/lhfdv87jgb</t>
-  </si>
-  <si>
     <t>@guilherme_jarb ps5 dá chulé</t>
   </si>
   <si>
     <t>tenis chegou vai todo mundo tomarno cu bom dia primeiramente eu quero que caixista chore bem muito hoje pra eu beber as lágrimas ps5 vai botar pra mamar</t>
   </si>
   <si>
-    <t>hoje tem evento do ps5😎✌✌👍👍👍👍👍👍 https//t.co/jafc2avlrp</t>
-  </si>
-  <si>
     <t>👍 on @youtube sony vai fechar fábrica no brasil | seg. a bloomberg sony esta com problemas no processador do ps5 https//t.co/tof8qbstzm</t>
   </si>
   <si>
-    <t>é hoje 🎮sai o preço do ps5 pra baixar o preço do ps4 ps3 ficar em conta o ps2 a preço de banana pra eu poder pegar um ps1 usado. #ps5showcase</t>
-  </si>
-  <si>
     <t>ps5 sony nega mudanças na linha de produção após rumores de problemas com chipshttps//t.co/lisnce0e2w #tech #sony</t>
   </si>
   <si>
@@ -2279,15 +2192,6 @@
     <t>@kamatsukyoto as do xbox ficaram ótimas quem sabe esse ano a sony ainda mostre a do ps5</t>
   </si>
   <si>
-    <t>se o xbox one s que é tido como o console mais fraco dessa geração consegue fazer isso aqui em tempo real imagina o ps5 e xbox series x 👁️ https//t.co/gwljpuerlm</t>
-  </si>
-  <si>
-    <t>reino dos magos #5 ps5 sorteioloja  https//t.co/psooztpdjt</t>
-  </si>
-  <si>
-    <t>é hoje que vamos ver se eu compro o ps5 ano que vem ou só em 2022 😂😂</t>
-  </si>
-  <si>
     <t>@silva_ruancarlo @tokyo_90l eles tem alguma noção de unidades que vão ser distribuidas para esses consoles xbox e ps5 ?</t>
   </si>
   <si>
@@ -2300,9 +2204,6 @@
     <t>terão que reduzir o preço do console na força do ódio para ter concorrência com o xbox. o consumidor agradece. rss #hojetem #ps5 https//t.co/ksvf7fydmx</t>
   </si>
   <si>
-    <t>vai quenão custa sonhar né? 😆😆#ps5 #ps5showcase #playstation #playfivebrasil https//t.co/p7pjuultcq</t>
-  </si>
-  <si>
     <t>@locobaltar amanhã o dia é da mídia sonysta o poderoso ps5 vai mostrar o que é nova geração de verdade e se rolar o god of war novo podem enterrar a caixa preta da microsoft.</t>
   </si>
   <si>
@@ -2324,9 +2225,6 @@
     <t>@fazendachernoby ansioso demais pra ver as primeiras comparações gráficas entre series s e ps5. sim eu falei series s pra mim tá com cara que esse console base da ms vai dar pau no ps5. esperemos.</t>
   </si>
   <si>
-    <t>@gramiliki_ @nintendoamerica @rockstargames podia soltar aqele trailer de boyoneta 3 um zelda botw 2 e gta5   nao ligo para gta5 mas muito gente quer ele. pronto a nitnendo todo mundokkk. e no final mostra o suposto swtich prokkkkkkkkkk. pronto a nintendo ganhou o ano contra o ps5 e xbx ss x y z..kkkk</t>
-  </si>
-  <si>
     <t>isso aqui dá um comentário político daqueles você começaria com o engajamento alienado e reprodução de discursos na internet do consumidor imbecilizado nas novas mídias e chegaria na política econômica desastrosa do governo atual.https//t.co/mtndmtra12</t>
   </si>
   <si>
@@ -2336,12 +2234,6 @@
     <t>ps5 mais caro que um apartamento https//t.co/nl9mommvbc</t>
   </si>
   <si>
-    <t>@davidpdcoelho @xzticks @maisxbox só faltou ela falar não comprem o xss ps5 digital é melhor escolha. 😂😂😂</t>
-  </si>
-  <si>
-    <t>parabéns aos gamers apoiadores do bozo.sony brasil fechou sua fábrica em manaus o que obviamente impossibilitará fabricação nacional do ps5.tratem de pagar o meu agora.🖕🖕🖕🖕🖕🖕🖕🖕</t>
-  </si>
-  <si>
     <t>qualquer valor abaixo de 450/500 dolares hoje do ps5 é lucro. se for acima os caras vão ter q garantir nos jogos.#playstation5</t>
   </si>
   <si>
@@ -2363,9 +2255,6 @@
     <t>é hj o ps5 ?</t>
   </si>
   <si>
-    <t>acordei né de boa fui na cozinha tomar café e minha irmã veio me dar bom dia dei logo um chutão na costela joguei ela na porta e gritei bom dia é o caralho hoje tem evento do #ps5 que mané bom dia acordei pilhadão  nessa porra e a ela vem com bom dia toma no cu</t>
-  </si>
-  <si>
     <t>@rafapaulocr tomara q n seja só um anúncio dizendo que help wanted vai sair pra ps5 também se isso acontecer eu saio da live e vochora</t>
   </si>
   <si>
@@ -2432,21 +2321,9 @@
     <t>👍 on @youtube problematizando games #35 ps5 com defeito? 1440p maior que 4k? nvidia = skynet https//t.co/jndxfeudo7</t>
   </si>
   <si>
-    <t>@carlinhostroll no laçamento do ps4.. comprei de você  que ajudou vários gamers brasileiros  você podia vender novamente o xbox e ps5  em 🥺</t>
-  </si>
-  <si>
-    <t>já trouxe o terno da lavanderia. pro martini mexido e não batido tem tudo.mandei os cachorros pra casa da vó e as crianças pra pet 🤔🤔🤔.pedi divórcio entre 16h45 até 18h45. desfiz todas as amizades.hoje é dia de #ps5showcase #ps5</t>
-  </si>
-  <si>
     <t>preparados para vê o melhor exclusivo do ps5 no evento de amanhã #ps5 https//t.co/0x8lbmgwid</t>
   </si>
   <si>
-    <t>tomara que a rapaziada do xbox n venha pro ps5  tem uns q são chatão pqp</t>
-  </si>
-  <si>
-    <t>jogos que adoraria ver aparecendo amanhã na conferência do ps5 mas que obviamente vão permanecer só nos corações mesmo 😭👌 https//t.co/5qadryqu7v</t>
-  </si>
-  <si>
     <t>@lord_psmg lord acha possível aparecer god of war sillent hill ps now na américa latina e preço do ps5 mais barato?</t>
   </si>
   <si>
@@ -2475,6 +2352,156 @@
   </si>
   <si>
     <t>as vezes dá medo de pensar que o #ps5 chegue no brasil a menos de 5k.. eu cometeria uma loucura? talvez.</t>
+  </si>
+  <si>
+    <t>evento da sony amanhã vai ter- god of war ragnarok- bloodborne 2- elden ring- silent hills - preços do ps5fontes quentes confirmaram 🙌 🏼</t>
+  </si>
+  <si>
+    <t>imagina pra consumir ps5 ano que vem mais jogos e produtos eletronicos  com nossa moeda desvalorizada pessima noticia https//t.co/9qpmmhp5qo</t>
+  </si>
+  <si>
+    <t>é hoje 😱 ⌛ ️ 😱 ⌛ ️gostou do vídeo? compartilhenos siga em todas as redes sociais só pesquisar por #playfivebrasil no instagram e facebook#ps5 #ps5showcase #playstation #game #sony @sony @sonybrasil @playstation @playstation_br https//t.co/d1fzxdlwn5</t>
+  </si>
+  <si>
+    <t>está chegando a hora 17h tem o grande evento do ano até o momento. meu palpite para o ps5 é de €49990 com leitor.€39990 sem leitor. https//t.co/yjmbnerwjv</t>
+  </si>
+  <si>
+    <t>@capitaocritica mano pra que fica de boa jogando o seu ps5 que eu fico deboa no xbox 🙂 👍</t>
+  </si>
+  <si>
+    <t>amanhã tem evento da sony sobre o ps5. a capcom já confirmou que as tão esperadas novidades de #revillage chegam no fim de setembromas será que amanhã a gente pode ter algo novo? nem que seja uma nova imagem? 👀 #rebhfun https//t.co/fto9ghdlai</t>
+  </si>
+  <si>
+    <t>é hoje 🤍 🖤 💙 #ps5showcase #ps5 https//t.co/ejjqhjnfgg</t>
+  </si>
+  <si>
+    <t>@cariocachinese @gmunhoz__ negócio é esperar lançar ps5 pra comprar o 4 e assim vai indo os com o xbox também pq da muito stönks 🤏 😎 👍</t>
+  </si>
+  <si>
+    <t>@vingadorbrambz quem sabe é essa solução para super aquecimento do ps5 🤣 🤣 🤣</t>
+  </si>
+  <si>
+    <t>#tlou2 😱 já garantiu o seu #thelastofus2 ⁉ veja este e outros grandes sucessos aqui na #bigboygames 😍 aproveite pois são pouca unidades 🏃 🏃 ‍ ♀ ️https//t.co/jkwzknhfujcompramos seu jogo usado 📱 16 99763-7729#lojabigboygames #bigboy #ps4 #playstation4 #ps5 #seminovos https//t.co/tv8bfcgjgq</t>
+  </si>
+  <si>
+    <t>@marqueszero boa sorte em resolver pepinos e tenhamos fé que o ps5 seja barato aqui no brasil 🙌 🏻 🙌 🏻 🙌 🏻 🙌 🏻</t>
+  </si>
+  <si>
+    <t>hoje também é dia de saber mais do #playstation5  o evento playstation 5 showcase acontece hoje às 17h do horário de brasília. quem aí tá animado pra saber mais do #ps5? https//t.co/zythhmpp5v</t>
+  </si>
+  <si>
+    <t>@dougmad4k des d quando o fechamento da fabrica devido a impostos alta do dolar etc tem com a venda elevada no preço do ps5 aki ja q a sony nao fabricava video game no território nacional .sera q alguem leu a materia sem falar q varias pessoas vao ficar sem emprego mas bora comemorar</t>
+  </si>
+  <si>
+    <t>acordei né de boa fui na cozinha tomar café e minha irmã veio me dar bom dia dei logo um chutão na costela joguei ela na porta e gritei bom dia é o caralho hoje tem evento do #ps5 que mané bom dia acordei pilhadão nessa porra e a ela vem com bom dia toma no cu https//t.co/tniofq4gtl</t>
+  </si>
+  <si>
+    <t>palpites de hoje us 449 / 499  br 5999 / 6499#ps5</t>
+  </si>
+  <si>
+    <t>o evento do ps5 vai começar quando eu tiver largando se aparecer algo de algum final fantasy metam minha @ no post por favor</t>
+  </si>
+  <si>
+    <t>vamos lá.. hoje é o dia dos anúncios do ps5 qual você acha que será o preço?eu acredito em 599 com disco e 499 para a versão sem disco.</t>
+  </si>
+  <si>
+    <t>liberal/anarco de facebook ain sou contra o protecionismo à indústriasony vou sairl/a a culpa é sua seus comunistaaaaasl/a e meu ps5? paieeee</t>
+  </si>
+  <si>
+    <t>vazou as primeiras imagens de the last of us part 3 no ps5 que a sony vai mostrar no evento de hoje. 🗣 ️ 🚨 🚨 🚨 🚨 🚨 🚨 🚨 🚨 https//t.co/adpp6gn7yi</t>
+  </si>
+  <si>
+    <t>nesse evento do ps5 amanhã a santa monica poderia anunciar algum teaser sobre uma continuação do god of war hein 🤔</t>
+  </si>
+  <si>
+    <t>acordei né de boa fui na cozinha tomar café e minha irmã veio me dar bom dia dei logo um chutão na costela joguei ela na porta e gritei bom dia é o caralho hoje tem evento do #ps5 que mané bom dia acordei pilhadão nessa porra e a ela vem com bom dia toma no cu https//t.co/e04w0wqxyc</t>
+  </si>
+  <si>
+    <t>conhecendo o mercenarismo da sony não duvido nada que esse ps5 digital edition seja anunciado mais tarde por uns 500 dols espero quebrar a cara 🙏 🏼</t>
+  </si>
+  <si>
+    <t>que hoje é dia de #ps5showcase o mundo todo sabe e está de olho 👀 uma das apostas para o evento de hoje é que o @playstation @playstation_br mostre sua nova interface em funcionamentoa tela de boot a gente já conhece será que veremos tudo hoje? façam suas apostas #ps5 https//t.co/zmrprtjv1t</t>
+  </si>
+  <si>
+    <t>será que hoje teremos novidades? 🥰 🥰 🥰 #ps5 #ps5showcase https//t.co/3lgnv7jofi</t>
+  </si>
+  <si>
+    <t>→ sony realiza evento do playstation 5 nesta quarta 👉 🏻 #tech #games #ps5 #playstation5 #sony #jornaldoscanyons #jdc 🔗 confira no jornal dos canyons https//t.co/c5ioiz4jhb</t>
+  </si>
+  <si>
+    <t>tô pensando em vender meu corsa pra comprar o ps5 🤣 🤣 🤣 🤣</t>
+  </si>
+  <si>
+    <t>trabalhar pra comprar meu ps5 ♥ ️</t>
+  </si>
+  <si>
+    <t>agenda ai pra acompanhar comigo https//t.co/zwkgfqbczjaposto  ps5 com leitor 44900 $ sem leitor 34900 $#playstation5 #playstation5preço #ps5reveal #ps5showcase #playstation5showcase #ps5preço #playstation5preço</t>
+  </si>
+  <si>
+    <t>meu amigo esse ps5 vai sair por 10 mil conto. pense numa bomba.</t>
+  </si>
+  <si>
+    <t>- imran khan puta merda o series x tem 98 libras 4.5kg é mais pesado que um bebê recém-nascido- kez meu irmão tinha 14 libras 6.3kg 😬 quando nasceusó falando - timdog isso é o quanto pesa o ps5pessoal veio reclamar do peso do series x 🤣 🤣 🤣 6kg e 300g 🤣 🤣 https//t.co/o3qo85ugok</t>
+  </si>
+  <si>
+    <t>ps5 custando o cheque do queiroz pra michelle. https//t.co/lopot8tsep</t>
+  </si>
+  <si>
+    <t>boooom diaaaaa a programação de hoje na nossa land será a seguinte às 14h30 vamos abrir nossa live normalmente para jogar um crash maroto. às 16h30 mais ou menos vamos invadir o canal do nosso parceiro @leongameplay01 para acompanharmos juntos o evento do ps5. conto com vcs 🤓 https//t.co/lhfdv87jgb</t>
+  </si>
+  <si>
+    <t>hoje tem evento do ps5 😎 ✌ ✌ 👍 👍 👍 👍 👍 👍 https//t.co/jafc2avlrp</t>
+  </si>
+  <si>
+    <t>é hoje 🎮 sai o preço do ps5 pra baixar o preço do ps4 ps3 ficar em conta o ps2 a preço de banana pra eu poder pegar um ps1 usado. #ps5showcase</t>
+  </si>
+  <si>
+    <t>@voxeloficial imagina se fosse o #ps5 iria chover 🐑 pra comemorar tal notícia 🤣 🤣</t>
+  </si>
+  <si>
+    <t>se o xbox one s que é tido como o console mais fraco dessa geração consegue fazer isso aqui em tempo real imagina o ps5 e xbox series x 👁 ️ https//t.co/gwljpuerlm</t>
+  </si>
+  <si>
+    <t>reino dos magos #5 ps5 sorteioloja https//t.co/psooztpdjt</t>
+  </si>
+  <si>
+    <t>é hoje que vamos ver se eu compro o ps5 ano que vem ou só em 2022 😂 😂</t>
+  </si>
+  <si>
+    <t>vai quenão custa sonhar né? 😆 😆 #ps5 #ps5showcase #playstation #playfivebrasil https//t.co/p7pjuultcq</t>
+  </si>
+  <si>
+    <t>que hoje mostre mais de ps5 e seus jogos e esqueça de vez godfall 🙏 🏻</t>
+  </si>
+  <si>
+    <t>@gramiliki_ @nintendoamerica @rockstargames podia soltar aqele trailer de boyoneta 3 um zelda botw 2 e gta5  nao ligo para gta5 mas muito gente quer ele. pronto a nitnendo todo mundokkk. e no final mostra o suposto swtich prokkkkkkkkkk. pronto a nintendo ganhou o ano contra o ps5 e xbx ss x y z..kkkk</t>
+  </si>
+  <si>
+    <t>@davidpdcoelho @xzticks @maisxbox só faltou ela falar não comprem o xss ps5 digital é melhor escolha. 😂 😂 😂</t>
+  </si>
+  <si>
+    <t>parabéns aos gamers apoiadores do bozo.sony brasil fechou sua fábrica em manaus o que obviamente impossibilitará fabricação nacional do ps5.tratem de pagar o meu agora. 🖕 🖕 🖕 🖕 🖕 🖕 🖕 🖕</t>
+  </si>
+  <si>
+    <t>acordei né de boa fui na cozinha tomar café e minha irmã veio me dar bom dia dei logo um chutão na costela joguei ela na porta e gritei bom dia é o caralho hoje tem evento do #ps5 que mané bom dia acordei pilhadão nessa porra e a ela vem com bom dia toma no cu</t>
+  </si>
+  <si>
+    <t>@rnmgamer93 @zangwlctl nosso ps5 tá garantido 🙆 💍 🙆</t>
+  </si>
+  <si>
+    <t>cria um perfil fake ➡ ️ fala q meus pais me expulsaram de casa pq eu falei q era gay ➡ ️ mendigar ➡ ️ ganha 10 mil ➡ ️ compra o iphone 12 e guarda pro ps5 ✅</t>
+  </si>
+  <si>
+    <t>@carlinhostroll no laçamento do ps4.. comprei de você que ajudou vários gamers brasileiros você podia vender novamente o xbox e ps5 em 🥺</t>
+  </si>
+  <si>
+    <t>já trouxe o terno da lavanderia. pro martini mexido e não batido tem tudo.mandei os cachorros pra casa da vó e as crianças pra pet 🤔 🤔 🤔 .pedi divórcio entre 16h45 até 18h45. desfiz todas as amizades.hoje é dia de #ps5showcase #ps5</t>
+  </si>
+  <si>
+    <t>tomara que a rapaziada do xbox n venha pro ps5 tem uns q são chatão pqp</t>
+  </si>
+  <si>
+    <t>jogos que adoraria ver aparecendo amanhã na conferência do ps5 mas que obviamente vão permanecer só nos corações mesmo 😭 👌 https//t.co/5qadryqu7v</t>
   </si>
 </sst>
 </file>
@@ -2882,15 +2909,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C301" sqref="C301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="255.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="77.7109375" customWidth="1"/>
+    <col min="3" max="3" width="111.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3165,7 +3192,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>519</v>
+        <v>679</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3176,7 +3203,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -3198,7 +3225,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>521</v>
+        <v>680</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -3209,7 +3236,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -3220,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -3242,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -3264,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -3275,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -3286,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>527</v>
+        <v>681</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -3308,7 +3335,7 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -3319,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -3330,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -3341,7 +3368,7 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>531</v>
+        <v>682</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -3352,7 +3379,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -3385,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -3396,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>534</v>
+        <v>683</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -3407,7 +3434,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -3429,7 +3456,7 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>536</v>
+        <v>684</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -3440,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>537</v>
+        <v>685</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -3462,7 +3489,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>538</v>
+        <v>686</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -3473,7 +3500,7 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -3484,7 +3511,7 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -3528,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -3550,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -3561,7 +3588,7 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -3572,7 +3599,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>62</v>
+        <v>687</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3583,7 +3610,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -3605,7 +3632,7 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -3616,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3627,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -3638,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -3649,7 +3676,7 @@
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -3682,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -3693,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3704,7 +3731,7 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -3715,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -3726,7 +3753,7 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="165" x14ac:dyDescent="0.25">
@@ -3737,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>555</v>
+        <v>688</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -3748,7 +3775,7 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>78</v>
+        <v>689</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -3759,7 +3786,7 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -3770,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>557</v>
+        <v>690</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -3781,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="C81" t="s">
-        <v>558</v>
+        <v>691</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3792,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="C82" t="s">
-        <v>559</v>
+        <v>692</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -3803,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -3814,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="C84" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3825,7 +3852,7 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -3836,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -3858,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="C88" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -3880,7 +3907,7 @@
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -3891,7 +3918,7 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -3902,7 +3929,7 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -3913,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -3924,7 +3951,7 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -3935,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="C95" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -3946,7 +3973,7 @@
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -3957,7 +3984,7 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3968,7 +3995,7 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -3979,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -3990,7 +4017,7 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -4001,7 +4028,7 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4012,7 +4039,7 @@
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>577</v>
+        <v>693</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -4023,7 +4050,7 @@
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -4078,7 +4105,7 @@
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -4100,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="C110" t="s">
-        <v>580</v>
+        <v>694</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -4122,7 +4149,7 @@
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="150" x14ac:dyDescent="0.25">
@@ -4133,7 +4160,7 @@
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -4155,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="C115" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -4166,7 +4193,7 @@
         <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -4177,7 +4204,7 @@
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -4188,7 +4215,7 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4199,7 +4226,7 @@
         <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>587</v>
+        <v>695</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4210,7 +4237,7 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -4221,7 +4248,7 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -4232,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="C122" t="s">
-        <v>590</v>
+        <v>696</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -4243,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="C123" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -4254,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="C124" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -4276,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="C126" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -4287,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="C127" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4298,7 +4325,7 @@
         <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>595</v>
+        <v>697</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -4309,7 +4336,7 @@
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -4331,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="C131" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -4342,7 +4369,7 @@
         <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -4364,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>599</v>
+        <v>698</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -4375,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="C135" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -4408,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -4441,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="C141" t="s">
-        <v>602</v>
+        <v>699</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -4452,7 +4479,7 @@
         <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>603</v>
+        <v>584</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -4463,7 +4490,7 @@
         <v>1</v>
       </c>
       <c r="C143" t="s">
-        <v>604</v>
+        <v>585</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4474,7 +4501,7 @@
         <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>605</v>
+        <v>586</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -4485,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="C145" t="s">
-        <v>606</v>
+        <v>587</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -4507,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="C147" t="s">
-        <v>607</v>
+        <v>588</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -4518,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="C148" t="s">
-        <v>608</v>
+        <v>589</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -4540,7 +4567,7 @@
         <v>1</v>
       </c>
       <c r="C150" t="s">
-        <v>609</v>
+        <v>700</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -4551,7 +4578,7 @@
         <v>0</v>
       </c>
       <c r="C151" t="s">
-        <v>610</v>
+        <v>590</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -4562,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="C152" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -4573,7 +4600,7 @@
         <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>612</v>
+        <v>701</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -4595,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="C155" t="s">
-        <v>613</v>
+        <v>592</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -4606,7 +4633,7 @@
         <v>1</v>
       </c>
       <c r="C156" t="s">
-        <v>614</v>
+        <v>593</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -4617,7 +4644,7 @@
         <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>615</v>
+        <v>702</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -4639,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="C159" t="s">
-        <v>616</v>
+        <v>703</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -4650,7 +4677,7 @@
         <v>0</v>
       </c>
       <c r="C160" t="s">
-        <v>617</v>
+        <v>594</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -4661,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="C161" t="s">
-        <v>618</v>
+        <v>595</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -4683,7 +4710,7 @@
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>163</v>
+        <v>704</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -4705,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="C165" t="s">
-        <v>619</v>
+        <v>596</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -4716,7 +4743,7 @@
         <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>166</v>
+        <v>705</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -4727,7 +4754,7 @@
         <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>620</v>
+        <v>597</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4738,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="C168" t="s">
-        <v>621</v>
+        <v>598</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -4749,7 +4776,7 @@
         <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>622</v>
+        <v>706</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -4782,7 +4809,7 @@
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>172</v>
+        <v>707</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -4793,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="C173" t="s">
-        <v>623</v>
+        <v>599</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -4815,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="C175" t="s">
-        <v>624</v>
+        <v>600</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -4826,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="C176" t="s">
-        <v>625</v>
+        <v>601</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -4837,7 +4864,7 @@
         <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>626</v>
+        <v>602</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -4848,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="C178" t="s">
-        <v>627</v>
+        <v>708</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4859,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>628</v>
+        <v>603</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -4870,7 +4897,7 @@
         <v>1</v>
       </c>
       <c r="C180" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -4881,7 +4908,7 @@
         <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>630</v>
+        <v>605</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -4892,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="C182" t="s">
-        <v>631</v>
+        <v>709</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -4903,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="C183" t="s">
-        <v>632</v>
+        <v>606</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -4914,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="C184" t="s">
-        <v>633</v>
+        <v>607</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4925,7 +4952,7 @@
         <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>634</v>
+        <v>608</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -4969,7 +4996,7 @@
         <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>635</v>
+        <v>609</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -4980,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="C190" t="s">
-        <v>636</v>
+        <v>610</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4991,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="C191" t="s">
-        <v>637</v>
+        <v>710</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -5002,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="C192" t="s">
-        <v>638</v>
+        <v>611</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -5013,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="C193" t="s">
-        <v>639</v>
+        <v>612</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5024,7 +5051,7 @@
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>640</v>
+        <v>711</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -5035,7 +5062,7 @@
         <v>1</v>
       </c>
       <c r="C195" t="s">
-        <v>641</v>
+        <v>613</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -5057,7 +5084,7 @@
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>642</v>
+        <v>712</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -5068,7 +5095,7 @@
         <v>1</v>
       </c>
       <c r="C198" t="s">
-        <v>643</v>
+        <v>614</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -5079,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="C199" t="s">
-        <v>644</v>
+        <v>615</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -5101,7 +5128,7 @@
         <v>0</v>
       </c>
       <c r="C201" t="s">
-        <v>645</v>
+        <v>616</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -5112,7 +5139,7 @@
         <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>646</v>
+        <v>617</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -5123,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="C203" t="s">
-        <v>203</v>
+        <v>713</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -5134,7 +5161,7 @@
         <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>647</v>
+        <v>618</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -5145,7 +5172,7 @@
         <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>648</v>
+        <v>619</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -5156,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>649</v>
+        <v>620</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -5178,7 +5205,7 @@
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>650</v>
+        <v>621</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -5189,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="C209" t="s">
-        <v>651</v>
+        <v>622</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -5211,7 +5238,7 @@
         <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>652</v>
+        <v>623</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -5233,7 +5260,7 @@
         <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>653</v>
+        <v>624</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -5244,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="C214" t="s">
-        <v>654</v>
+        <v>714</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -5255,7 +5282,7 @@
         <v>0</v>
       </c>
       <c r="C215" t="s">
-        <v>655</v>
+        <v>715</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -5266,7 +5293,7 @@
         <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>656</v>
+        <v>716</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -5277,7 +5304,7 @@
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>657</v>
+        <v>625</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -5299,7 +5326,7 @@
         <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>658</v>
+        <v>626</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -5310,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="C220" t="s">
-        <v>659</v>
+        <v>627</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -5321,7 +5348,7 @@
         <v>0</v>
       </c>
       <c r="C221" t="s">
-        <v>660</v>
+        <v>628</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -5332,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="C222" t="s">
-        <v>661</v>
+        <v>717</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -5343,7 +5370,7 @@
         <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>662</v>
+        <v>629</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -5365,7 +5392,7 @@
         <v>0</v>
       </c>
       <c r="C225" t="s">
-        <v>663</v>
+        <v>630</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -5376,7 +5403,7 @@
         <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>664</v>
+        <v>631</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -5387,7 +5414,7 @@
         <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>665</v>
+        <v>632</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -5398,7 +5425,7 @@
         <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>228</v>
+        <v>718</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -5420,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="C230" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="210" x14ac:dyDescent="0.25">
@@ -5431,7 +5458,7 @@
         <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>667</v>
+        <v>634</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -5442,7 +5469,7 @@
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>668</v>
+        <v>635</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5453,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="C233" t="s">
-        <v>669</v>
+        <v>719</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5464,7 +5491,7 @@
         <v>0</v>
       </c>
       <c r="C234" t="s">
-        <v>670</v>
+        <v>636</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -5486,7 +5513,7 @@
         <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>671</v>
+        <v>637</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -5497,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="C237" t="s">
-        <v>672</v>
+        <v>638</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -5508,7 +5535,7 @@
         <v>1</v>
       </c>
       <c r="C238" t="s">
-        <v>673</v>
+        <v>720</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -5519,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="C239" t="s">
-        <v>674</v>
+        <v>721</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -5530,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="C240" t="s">
-        <v>675</v>
+        <v>639</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -5541,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="C241" t="s">
-        <v>676</v>
+        <v>640</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -5552,7 +5579,7 @@
         <v>1</v>
       </c>
       <c r="C242" t="s">
-        <v>677</v>
+        <v>641</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5563,7 +5590,7 @@
         <v>1</v>
       </c>
       <c r="C243" t="s">
-        <v>678</v>
+        <v>642</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -5585,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="C245" t="s">
-        <v>679</v>
+        <v>643</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -5596,7 +5623,7 @@
         <v>1</v>
       </c>
       <c r="C246" t="s">
-        <v>680</v>
+        <v>644</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -5607,7 +5634,7 @@
         <v>0</v>
       </c>
       <c r="C247" t="s">
-        <v>681</v>
+        <v>645</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -5618,7 +5645,7 @@
         <v>0</v>
       </c>
       <c r="C248" t="s">
-        <v>682</v>
+        <v>722</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -5629,7 +5656,7 @@
         <v>1</v>
       </c>
       <c r="C249" t="s">
-        <v>683</v>
+        <v>646</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -5640,7 +5667,7 @@
         <v>1</v>
       </c>
       <c r="C250" t="s">
-        <v>684</v>
+        <v>647</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -5662,7 +5689,7 @@
         <v>0</v>
       </c>
       <c r="C252" t="s">
-        <v>685</v>
+        <v>648</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -5684,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="C254" t="s">
-        <v>686</v>
+        <v>649</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -5695,7 +5722,7 @@
         <v>0</v>
       </c>
       <c r="C255" t="s">
-        <v>687</v>
+        <v>650</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -5706,7 +5733,7 @@
         <v>0</v>
       </c>
       <c r="C256" t="s">
-        <v>688</v>
+        <v>651</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -5717,7 +5744,7 @@
         <v>1</v>
       </c>
       <c r="C257" t="s">
-        <v>689</v>
+        <v>652</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -5728,7 +5755,7 @@
         <v>1</v>
       </c>
       <c r="C258" t="s">
-        <v>690</v>
+        <v>653</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -5739,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="C259" t="s">
-        <v>259</v>
+        <v>723</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5750,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="C260" t="s">
-        <v>691</v>
+        <v>654</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -5761,7 +5788,7 @@
         <v>1</v>
       </c>
       <c r="C261" t="s">
-        <v>692</v>
+        <v>655</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -5783,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="C263" t="s">
-        <v>693</v>
+        <v>656</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -5805,7 +5832,7 @@
         <v>0</v>
       </c>
       <c r="C265" t="s">
-        <v>694</v>
+        <v>657</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -5827,7 +5854,7 @@
         <v>0</v>
       </c>
       <c r="C267" t="s">
-        <v>695</v>
+        <v>658</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -5838,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="C268" t="s">
-        <v>696</v>
+        <v>659</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -5871,7 +5898,7 @@
         <v>1</v>
       </c>
       <c r="C271" t="s">
-        <v>697</v>
+        <v>660</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -5882,7 +5909,7 @@
         <v>0</v>
       </c>
       <c r="C272" t="s">
-        <v>272</v>
+        <v>724</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -5893,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="C273" t="s">
-        <v>698</v>
+        <v>661</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -5904,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="C274" t="s">
-        <v>699</v>
+        <v>662</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -5926,7 +5953,7 @@
         <v>1</v>
       </c>
       <c r="C276" t="s">
-        <v>700</v>
+        <v>663</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -5937,7 +5964,7 @@
         <v>1</v>
       </c>
       <c r="C277" t="s">
-        <v>701</v>
+        <v>664</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -5948,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="C278" t="s">
-        <v>702</v>
+        <v>665</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -5959,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="C279" t="s">
-        <v>703</v>
+        <v>666</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -5970,7 +5997,7 @@
         <v>1</v>
       </c>
       <c r="C280" t="s">
-        <v>704</v>
+        <v>667</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -5992,7 +6019,7 @@
         <v>0</v>
       </c>
       <c r="C282" t="s">
-        <v>705</v>
+        <v>725</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -6003,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="C283" t="s">
-        <v>706</v>
+        <v>726</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -6025,7 +6052,7 @@
         <v>1</v>
       </c>
       <c r="C285" t="s">
-        <v>707</v>
+        <v>668</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -6036,7 +6063,7 @@
         <v>1</v>
       </c>
       <c r="C286" t="s">
-        <v>708</v>
+        <v>727</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -6047,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="C287" t="s">
-        <v>709</v>
+        <v>728</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -6069,7 +6096,7 @@
         <v>1</v>
       </c>
       <c r="C289" t="s">
-        <v>710</v>
+        <v>669</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -6091,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="C291" t="s">
-        <v>711</v>
+        <v>670</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -6102,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="C292" t="s">
-        <v>712</v>
+        <v>671</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -6113,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="C293" t="s">
-        <v>713</v>
+        <v>672</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -6146,7 +6173,7 @@
         <v>1</v>
       </c>
       <c r="C296" t="s">
-        <v>714</v>
+        <v>673</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -6157,7 +6184,7 @@
         <v>0</v>
       </c>
       <c r="C297" t="s">
-        <v>715</v>
+        <v>674</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -6168,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="C298" t="s">
-        <v>716</v>
+        <v>675</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -6179,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="C299" t="s">
-        <v>717</v>
+        <v>676</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -6190,7 +6217,7 @@
         <v>0</v>
       </c>
       <c r="C300" t="s">
-        <v>718</v>
+        <v>677</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -6201,7 +6228,7 @@
         <v>1</v>
       </c>
       <c r="C301" t="s">
-        <v>719</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>

--- a/PS5.xlsx
+++ b/PS5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agchi\Documents\GitHub\P1-Ciencia-dos-Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE99AB76-F88C-4CA7-AD99-54FBC1F20616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33C45AD-9FE9-4C3B-BAF8-8D80E52CCC79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="4635" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2909,8 +2909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C301" sqref="C301"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2958,7 +2958,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>505</v>
@@ -3200,7 +3200,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="s">
         <v>519</v>
@@ -3376,7 +3376,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="s">
         <v>528</v>

--- a/PS5.xlsx
+++ b/PS5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agchi\Documents\GitHub\P1-Ciencia-dos-Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33C45AD-9FE9-4C3B-BAF8-8D80E52CCC79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E4C112-BC44-408C-8801-FACE9C8E2769}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="729">
-  <si>
-    <t>Treinamento</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="502">
   <si>
     <t>Relevância:</t>
   </si>
@@ -1106,9 +1103,6 @@
 eu cometeria uma loucura? talvez.</t>
   </si>
   <si>
-    <t>Teste</t>
-  </si>
-  <si>
     <t>sony nega, mas ações continuam em queda após rumores de problemas no processador do ps5
 https://t.co/apptfpebcl https://t.co/jupc7tmco8</t>
   </si>
@@ -1826,682 +1820,7 @@
     <t>man,to seriamente pensando em pegar o ps5,se alguem quiser me vender um c40 ae to aceitando</t>
   </si>
   <si>
-    <t>Treinamento Limpo</t>
-  </si>
-  <si>
-    <t>o vídeo que eu fiz pro evento tá no youtube tbm#ps5 #ps5showcase #playfivebrasil https//t.co/wcyyfxzrke</t>
-  </si>
-  <si>
-    <t>@chief117_com_br @vingadorbrambz enquanto o datacenter da ms tá funcionando que é uma beleza no fundo do oceano a sony tendo problema na fabricação do ps5 não vai ter sopro que faça ela navegar nesse mar.</t>
-  </si>
-  <si>
-    <t>possivelmente hoje sai o valor e a data de lançamento do ps5. vamos ver qual vai ser a estratégia da sony depois da bomba que a microsoft jogou no mercado. https//t.co/kgeddwo0f6</t>
-  </si>
-  <si>
-    <t>@lealemy_ sim mas os produtos da sony vão parar de ser vendidos no brasil. no caso do ps5 ele vai ser por distribuidores parceiros o que significa que o produto vai custar mais caro do que se esperava.</t>
-  </si>
-  <si>
-    <t>não oficial este modelo preto para o #ps5 seria uma boa pedida. melhor do que o original? https//t.co/9jq5jhypy6</t>
-  </si>
-  <si>
-    <t>hoje as 1700 finalmente saberemos a data e preço do ps5 ou não afinal a sony já fez uma apresetanção mostrando apenas um logo - https//t.co/9xs7ngvx0f - ainda chuto u$500 na versão com disco e u$400 na digital. sem esperança de um lançamento no brasil esse ano ainda.</t>
-  </si>
-  <si>
-    <t>falta pouco hein hj às 17h promete #playstation5 #ps5#ps5showcase https//t.co/gjayiyvmoc</t>
-  </si>
-  <si>
-    <t>só falta o ps5 agr 😭 https//t.co/bwgw1hee77</t>
-  </si>
-  <si>
-    <t>bom dia é o caralhoacordei aí fui na cozinha tomar uma café e meu sobrinho veio correndo me abraçar pra me dar bom dia dei logo um chutão joguei na porta bom dia o caralho hoje é dia de guerra porra é dia de ps5 mané bom dia pilhado e a criança vem me da bom dia</t>
-  </si>
-  <si>
-    <t>hoje temos o evento do ps5 será que vai vir com o preço também?</t>
-  </si>
-  <si>
-    <t>mesmo não sendo fã do gênero souls fico na torcida do demon souls no lançamento do ps5</t>
-  </si>
-  <si>
-    <t>ps5 digital a $399quem confia dá dois pulinho</t>
-  </si>
-  <si>
-    <t>bom dia nação twitteira falta pouco agora. toma uma água deixa tudo pronto hoje é dia hoje é lama é festa na favela é tudo #ps5 #believethehype https//t.co/4grjmustu5</t>
-  </si>
-  <si>
-    <t>@ycaroq amgs tenho revelar uma coisa eu sou gay e hjeu dei mt para um senhor de idade rico e agr eu to com um iphone 15 pro max e foi mt bom o leite dele no meu .. nossa tava perfeito agr eu vou ver ele amanhã para ganhar um ps5 e um xbox do novo lá kkkk</t>
-  </si>
-  <si>
-    <t>@meuplaystation flw galeraaaaa vou lá no estados unidos compro 4 ps5 7 pc gamer 2 xbox quando voltar eu vou vender por 30000</t>
-  </si>
-  <si>
-    <t>acordei né de boa fui na cozinha tomar um café e minha sobrinha veio me dar bom dia dei logo um chutão joguei ela na porta bom dia é o caralho hoje é dia ps5 silent hill finalmente preço e data dessa porra gameplays jogos fodas. que mané bom dia. #ps5showcase #ps5</t>
-  </si>
-  <si>
-    <t>primeiro a nintendo fecha as portas no brasil agora a sony. preparem-se para os preços nada convidativos dos modelos do ps5</t>
-  </si>
-  <si>
-    <t>9 dias pro meu aniversário e ninguém me ofereceu um ps5. #chateado</t>
-  </si>
-  <si>
-    <t>@stu_felipe @folha @folha_mercado o ps5 lança em novembro até janeiro estará tudo normalizado e posto aqui a foto com arminha pra vc ver não bloqueia não pra vc ver a foto ok</t>
-  </si>
-  <si>
-    <t>@_thurt_ @willsprnce ata é isso deixa de ser besta mlk trouxa vc só vai ter ps5 daqui a uns 6 anos</t>
-  </si>
-  <si>
-    <t>discord https//t.co/q6oxummoxfsiga nossas midias sociais e acompanhe memes noticias vídeos e lives @aldoriagamesseja apoiador e participe de sorteios#memes #humor #meme #nostalgia #ps5 #ps4 #xbox https//t.co/1xors1usty</t>
-  </si>
-  <si>
-    <t>as maiores e persistentes dúvidas sobre a ps5 a que a sony precisa dar resposta no showcase de mais logo. https//t.co/gvu0ajt5lg</t>
-  </si>
-  <si>
-    <t>hoje é o dia que a sony anuncia o preço do ps5 e eu nem to criando expectativa mesmo que a versão com mídia digital saia por 299 dólares como o queridinho xbox series s ainda vai ser um celtinha 2001 sem ar aqui no brasil</t>
-  </si>
-  <si>
-    <t>se a sony botar o lançamento do ps5 em novembro também vocês já sabem o que me dar de aniversário né??</t>
-  </si>
-  <si>
-    <t>@breninhoo19 @mikkaizinho @mitodante_ eu não botei defeito nenhum eu acho playstation sensacional eu não tenho guerra de console mas o ps5 é inferior que o xbox series x</t>
-  </si>
-  <si>
-    <t>e meu priminho que sabia que eu ia ficar nervosa com a cirurgia do stark e me mandou o ps5 dele pra eu relaxa 💜</t>
-  </si>
-  <si>
-    <t>bom dia hoje tem precinho do ps5 será?</t>
-  </si>
-  <si>
-    <t>sinceramente meu hype pro evento do ps5 é preço e data de lançamento só isso não espero nada demais além disso no máximo um trailer novo ou gameplay de jogos já apresentados.</t>
-  </si>
-  <si>
-    <t>@_evertroll isso é verdade agora de tarde tavam hypando o ps5 por ter wi-fi 6 e usb tipo-c enquanto o séries x era wi-fi 5 e aquelas entradas mais antigas olha as coisas que eles se apegam</t>
-  </si>
-  <si>
-    <t>caiu o 💰 do willian na conta dele misteriosamente champz vai compra um ps5 https//t.co/qjuwxvbdo6</t>
-  </si>
-  <si>
-    <t>@sapo então é uma ps5 para aqui se faz favor ;</t>
-  </si>
-  <si>
-    <t>@lucca_jonatas opa eae jônata bom dia cara eu vou com o chute de 399/499 pro ps5 e vai sair dia 13 de novembro chute final kkkeu tenho o costume de falar q vai ser um grande dia qnd tem evento huahua</t>
-  </si>
-  <si>
-    <t>@paulo_ufs @sblargh @folha @folha_mercado sei não a fábrica em manaus permitia a sony fugir de alguns impostos/custos de produtos importados e isso era revertido no preço dos aparelhos. vi uma nota na net dizendo que o ps5 vai ser importado comercializado no brasil através de um distribuidor acho q rola um reajuste</t>
-  </si>
-  <si>
-    <t>amanhã 1700 será que saberemos quantos 6k vai custar um ps5?</t>
-  </si>
-  <si>
-    <t>só fico observando uns caras aí desmerecendo o ps5 mas na primeira oportunidade q tivesse com certeza adquiria o console. aiaiai</t>
-  </si>
-  <si>
-    <t>o fechamento da fábrica da sony no brasil pode afetar o ps5? entenda a situaçãoo mercado de tecnologia brasileiro foi pego de surpresa com o anúncio do fechamento da fábrica https//t.co/lw97w0e0bg</t>
-  </si>
-  <si>
-    <t>já que amanhã as 17h tem evento do #ps5 queria deixar esse vídeo aqui pra todos verem a minha reação junto com o @mathzilla616 @tf_spade e @rick5621 ao trailer de anúncio do marvels spider-man miles morales. to sentindo gameplay amanhã.se divirtam kkkkkkk#milesmoralesps5 https//t.co/fudwklzthd</t>
-  </si>
-  <si>
-    <t>@alexandre_nsa só restou essa narrativa pra eles pode ficar tranquilos que ainda vai sair muitas pérolas como essa até o lançamento.. primeiro que já é piada pronta pois olha o tamanho do trambolho chamado ps5.</t>
-  </si>
-  <si>
-    <t>jogos que mais espero no evento de amanhã- elden ring + data de lançamento- nova ip da santa monica- dlc da campanha de sekiro- remake de the last of us part ii com história reescrita - sackboy no smash expectativas altíssimas vai sony 🙏 #ps5</t>
-  </si>
-  <si>
-    <t>@matheusvictorch @diegogigaton pode ser algum teaser da dlc de final do ano eu não esperaria nada relacionado ao ps5 agr</t>
-  </si>
-  <si>
-    <t>@jairbolsonaro boa noite presidente. você poderia nos ajudar sim nós gamers. que queremos que o preço do ps5 não seja um absurdo no brasil.faz a boa presida 👍</t>
-  </si>
-  <si>
-    <t>pessoal tá com uma expectativa alta pro ps5 e de fato é interessante.mas o xbox series x + o game pass ultimate no longo prazo é muito mais negócio. https//t.co/bl4ktoer3g</t>
-  </si>
-  <si>
-    <t>@kamatsukyoto a dos xbox tão bonitas pômas essa do ps5parece de cafeteira</t>
-  </si>
-  <si>
-    <t>@rjrmarafon @m4ximizando caraca véi independente de qualquer coisa o ps5 é enorme mesmo.</t>
-  </si>
-  <si>
-    <t>@arielsis kabum vai sortear um ps5 no provável day one acho que isso já era indícios que seria lançado aqui day one</t>
-  </si>
-  <si>
-    <t>e finalmente a sony mostra o baralho para o launch da nova geração que expectativas têm? algo que estejam à espera? façam as vossas apostas que eu e o coach vamos dissecá-las no próximo episódio-roberto#portugal #sony #videojogos #playstation #ps5showcase #ps5 https//t.co/yuaaiszbwr</t>
-  </si>
-  <si>
-    <t>@rodrigo__nem @radio98oficial @kerberdiego e quem disse que eu preciso e um pc nível ps5 hoje? daqui alguns meses lança a 3060 mais forte que os novos consoles e mais barata eu coloco ela no meu pc e pronto já tenho um pc com mais desempenho que a próxima geração e mais barato</t>
-  </si>
-  <si>
-    <t>playstation 5 ps5 como assistir ao evento que pode revelar preço - techtudohttps//t.co/kay5bh3hya i https//t.co/eycyqllpft#playstation #playstationbrasil #playstation4 #ps4 #ps4brasil #notíciasplaystation https//t.co/i4ms2oyi9p</t>
-  </si>
-  <si>
-    <t>final fantasy 7 remake part 2 é confirmado com um pequeno teaser pra 2022.project athia é revelado como sendo final fantasy 16 com exclusividade temporária pro ps5.housemarque revela mais um trailer de returnal chegando para o ps5 no primeiro semestre de 2021.++</t>
-  </si>
-  <si>
-    <t>o que pegar no inicio dessa geração?xbox series x é um pouco mais poderoso do que o ps5 pode indicar um lugar minimamente melhor pra rodar os third party mas não acho que seja uma diferença significativa de fato. +</t>
-  </si>
-  <si>
-    <t>hoje é o dia tô esperando viu @playstation_br ?quero o preço do #ps5 na minha mesa até às 17h30 por gentileza.</t>
-  </si>
-  <si>
-    <t>@psciarotta minhas apostas não na ordem preço 45900 e 34900 e data demon souls anuncio do silent hill ps now mostra do so do ps5 e finalizar com anuncio do gow2 hehehehe</t>
-  </si>
-  <si>
-    <t>@onlytuiko @windowsclubbr provavelmente da forma que você escreveacredito eu que não vai comprar o ps5 no lançamento então para de falar de um produto que não vai ter que é meio feiomas também tem a possibilidade de ganhar dos papais e ganhar um jogo por ano.</t>
-  </si>
-  <si>
-    <t>u$399 = r$5300e vcs achando que o ps5 vem por menos de 5k hm kk https//t.co/etc601hq2e</t>
-  </si>
-  <si>
-    <t>@alanzoka fé no pai que o preço do ps5 sai</t>
-  </si>
-  <si>
-    <t>a sony não mente para o consumidor vcs só inventam as coisas é por isso que a sony faz o que quer com os sonystas eles acreditam em tudo o que ela fala kkkkkkkkk agora ela está mentindo sobre várias coisas do ps5 pra manter a tradição https//t.co/ns0qa2matb</t>
-  </si>
-  <si>
-    <t>@davipbe_ o evento da sony do ps5 foi o melhor do ano de longe.</t>
-  </si>
-  <si>
-    <t>com o absurdo do preço que o ps5 vai sair aqui no brasil ai que eu nao vou precisar mesmo vender meu ps4 pro não vai fazer nem sentido vender essa porra vender por seila 1900 2000 conto pra ajudar na compra de um video game que vai ser 8milsendo bonzinho vale nem a pena.</t>
-  </si>
-  <si>
-    <t>@amyjr007 acho que vem ai o monster hunter exclusivo do swtich. se a nintendo mostra isso o fim de ano do swtich vai ser avassalador. nao vai ter ps5 ou xbox ss xy zw que aguentekkkkkkkkkkkkk.</t>
-  </si>
-  <si>
-    <t>ps5 vai chegar 5k eu tô é rindo que vai ter otario comprando</t>
-  </si>
-  <si>
-    <t>jogar the last of us part ii no ps5 ou talvez um red dead redemption 2 já me dá um negócio. the witcher 3 então.vamo q hoje não é um dia qualquer#ps5#ps5showcase</t>
-  </si>
-  <si>
-    <t>personagem memorável e incrível do mundo os gamesobs espero que o evento do ps5 hoje ao menos tenhamos mais informações sobre datas dos jogos e claro a data e preço do ps5bom dia a todos os sonysta/a todos que amam vídeo game. https//t.co/ooflly63nj</t>
-  </si>
-  <si>
-    <t>@porraissaa so uma tunada naquele pc um ps5 do lado com um monitor 4k puts ai eu quero</t>
-  </si>
-  <si>
-    <t>fiquem em casa a economia vemos depois.depoister que vender a casa para comprar o ps5 https//t.co/khjmw47bxs</t>
-  </si>
-  <si>
-    <t>chegou o grande dia vamos aos palpites- ps5 standart = $499- ps5 digital = $399- gameplay spiderman miles morales- teaser ff xvi- gameplay call of duty cold war- gameplay silent hill- anúncio sobre a psnow- nenhuma menção a retro dashboard e features</t>
-  </si>
-  <si>
-    <t>toda nova geração de consoles exige um ritual para lembrar humanidade o que é um videogame.hoje mais uma vez essa responsabilidade será nossa.#ps5#ps5showcase</t>
-  </si>
-  <si>
-    <t>nn sei pq mas hj sonhei q a sony anunciou o ps5 preto huahuahua</t>
-  </si>
-  <si>
-    <t>@silvahros @fazendachernoby no canal coisa de nerd eles fazem uma comparação do xbox séries e do ps5 o playstation tomou um cascudo violento em quase tudo.</t>
-  </si>
-  <si>
-    <t>acordei agr n consigo mais dormir n to hypadona pro evento do ps5 meo deos https//t.co/svdf9s6oa5</t>
-  </si>
-  <si>
-    <t>@cooperfsss demons souls no dia do lançamento??? será? esse é o que eu acho mais dificil das coisas que tenho visto. acredito mais no ffxvi como exclusivo de ps5</t>
-  </si>
-  <si>
-    <t>teremos xbox series x e series s no brasil no day one. o país cresceu ainda mais na indústria nos últimos anos e foi notado pelas duas grandes empresas.créditos mais uma vez ao @silva_ruancarlo que já havia informado sobre o #ps5 https//t.co/jaeqn65mfv</t>
-  </si>
-  <si>
-    <t>@ikarojyo_ na verdade isso não afeta o ps5a sony já não produz console aqui desde 2017. mas é um péssimo sinal para a economia do brasil</t>
-  </si>
-  <si>
-    <t>bom dia meus gameplay de spider man miles morales e preço do ps5 anunciado hoje tem espero que tenha na verdade</t>
-  </si>
-  <si>
-    <t>xa é tt ps5 showcase e o directo é as 20.30hlogo aínda hai que discutir ou facer pallas mentais para ver que sony segue dominando sen a necesidade dun prezo a expectación da nova xeración.o 95 % da xente que ten unha ps4 vai mercar unha ps5. o modelo dependerá do peto.</t>
-  </si>
-  <si>
-    <t>@obitouc84502465 @there4lon3 @shazamcaraiu @artlocked @isadorabasile pera tu ta falando pra ele comprar um ps5 mas dps fala q a comunidade de ps é suja n to entendendo porra nenhuma</t>
-  </si>
-  <si>
-    <t>que o preço do ps5 saia amanhã amém</t>
-  </si>
-  <si>
-    <t>amigos só pra relembrar quarta-feira dia 16/09 vamos fazer live mais cedo pelo evento da sony sobre o ps5. vamos começar as 1630.</t>
-  </si>
-  <si>
-    <t>semana agitada com conferência do ps5 hoje e possível preço se não mostrar hoje será “preço inbox” amanhã tem direct mini da nintendo com possível monster hunter e sexta nova apresentação de novidades do cyberpunk 2077.</t>
-  </si>
-  <si>
-    <t>@afrobaiano haha claro bem as pessoas são livres para sentir o que quiser ação / consequência némas eu não vejo desmérito na fala tanto que a palavra liquidação quem disse foi você nétodo mundo quer um ps5 nem por isso tá na liquidação</t>
-  </si>
-  <si>
-    <t>@lfernando912 a sony teve que descartar 4 milhões de processadores de ps5 essa semana será que derreteram quando o ps5 bateu os 10 teraflops com o overclock durante o teste de qualidade?</t>
-  </si>
-  <si>
-    <t>é hoje o velório e sepultamento do xbox. finalmente acaba a espera pela revelação oficial do preço do ps5. se o dólar maldito colaborar eu compro a versão sem leitor de mídia física ainda em 2020 via mercado cinza. https//t.co/lw5gfkkrsr</t>
-  </si>
-  <si>
-    <t>sony empresa reduzirá a produção do novo ps5 em 4 mi de unidades para um total de 11 mi até março devido a problemas com componentes. o preço e data de lançamento do produto deverão ser anunciados amanhã.</t>
-  </si>
-  <si>
-    <t>@luizbarret @joomezzomo @xboxbr não consegue competir com uma empresa que só faz jogo terceira pessoa genérico? tó de boa com gears taticscrossfirexthe medium e hellblade 2 no lançamento do consolese comprar o ps5 no lançamento espero que se divirta com a dlc do homem aranha mexicano</t>
-  </si>
-  <si>
-    <t>@ancapball_br não vai impactar nos preços do ps5 mas de qualquer jeito o xbox é melhor mesmo</t>
-  </si>
-  <si>
-    <t>se o xbox começar a vender mais que o ps5 na próxima geração se preparem os jornalistas isentos vão entrar em estado de guerra tentando denegrir a marca de qualquer jeito</t>
-  </si>
-  <si>
-    <t>timeline hojevem ni mim #ps5 https//t.co/cde1na405h</t>
-  </si>
-  <si>
-    <t>lembrando que hoje é o dia do ps5. vamos ver</t>
-  </si>
-  <si>
-    <t>vamo de xbox ou ps5 nessa gen hein eita duvida</t>
-  </si>
-  <si>
-    <t>@xzticks @maisxbox pior do piorpra cada coisa que ela falar que o ps5 tem e o xss não tem eu falo 3 coisas que o xss tem e o ps5 não tem.</t>
-  </si>
-  <si>
-    <t>pqp tl muito ansioso para o novo evento do ps5 krl#ps5showcase #ps5</t>
-  </si>
-  <si>
-    <t>eu não podia deixar de soltar isso um vídeo pra vcs da nossa reação ao trailer de anúncio do spider-man miles morales no evento de revelação do #ps5quem puder curtir compartilhar e se inscrever no canal vai ajudar demaishttps//t.co/4wgd3czrur https//t.co/1pai5sqjks</t>
-  </si>
-  <si>
-    <t>ps5 ou arroz os dois a 80 km/h https//t.co/tb4nzlapvj</t>
-  </si>
-  <si>
-    <t>e hoje meus amigos e hoje 💙 #ps5 https//t.co/rs6u89uroj</t>
-  </si>
-  <si>
-    <t>pqp hj tem apresentação do ps5 e só estou pensando em vc remake do demons souls ou bluudboorne 2 ou silent hill#ps5showcase #playstation5</t>
-  </si>
-  <si>
-    <t>acordei né e tals aí fui na cozinha tomar um café e minha sobrinha veio correndo me abraçar pra me dar bom dia dei logo um chutão joguei na porta bom dia o caralho hoje é dia de guerra porradia de apresentar o #ps5 mané bom dia pilhadão e a criança vem me da bom dia? kkk</t>
-  </si>
-  <si>
-    <t>será que teremos novidades? #ps5 #ps5showcase https//t.co/opy5camouh</t>
-  </si>
-  <si>
-    <t>hoje é dia de ps5 caraíiiiiiiii hype</t>
-  </si>
-  <si>
-    <t>@jojo_c4t não obrigado prefiro meu ps5 mesmo.</t>
-  </si>
-  <si>
-    <t>@matheus_luzzz então é sobre isso mesmo.. faz a regra de três em cima desse valor da 3080. vamos supor que o ps5 seja 70% dessa placa. ficaria perto dos 4k. será ??</t>
-  </si>
-  <si>
-    <t>a sony saindo do país o dólar altomeu ps5 cada vez mais longe</t>
-  </si>
-  <si>
-    <t>a fabrica da sony fecha as portas no brasil vcs vao comprar ps5/ps6 e afins a preço de carro</t>
-  </si>
-  <si>
-    <t>deus que me perdoe mas se o ps5 chegar abaixo de 5k vou compra-lo no lançamento</t>
-  </si>
-  <si>
-    <t>venha a nós a ps5 🤩 https//t.co/aszd9crxuq</t>
-  </si>
-  <si>
-    <t>gostei do novo ipad airate ver o preco nao tem como ele competir com a minha vontade de ter um ps5 rs https//t.co/nana540sga</t>
-  </si>
-  <si>
-    <t>@_cadusantos @thiagofst01 @mandogko @ocervejeiro_ kkkkkkk todos os jogos lançados até agora ou vão tar na retro do ps5 ou vão ganhar port pro ps5. já os jogos que vão lançar agora vão ganhar port pro ps5 whatch dogs legion por exemplo vai lançar primeiro pro ps4 e xbox one e depois vai ganhar port pro ps5 e xbox séries x</t>
-  </si>
-  <si>
-    <t>@drakesincero1 @sonystasensato talvez um novo god of war já pensou o ps5 digital edition ser $299</t>
-  </si>
-  <si>
-    <t>@brayan20081448 @of_zenon @fazeclan @fakie @fazeblaze @fazesway cz c tá passando vergonha kkkkkk ele fez pq ele qr ter um futuro e vc tá zoando isso agr tu mal sabe que pra aumentar o fps teriam que criar um novo console que no caso e o ps5 https//t.co/4qwogsddgs</t>
-  </si>
-  <si>
-    <t>@guilherme_jarb ps5 dá chulé</t>
-  </si>
-  <si>
-    <t>tenis chegou vai todo mundo tomarno cu bom dia primeiramente eu quero que caixista chore bem muito hoje pra eu beber as lágrimas ps5 vai botar pra mamar</t>
-  </si>
-  <si>
-    <t>👍 on @youtube sony vai fechar fábrica no brasil | seg. a bloomberg sony esta com problemas no processador do ps5 https//t.co/tof8qbstzm</t>
-  </si>
-  <si>
-    <t>ps5 sony nega mudanças na linha de produção após rumores de problemas com chipshttps//t.co/lisnce0e2w #tech #sony</t>
-  </si>
-  <si>
-    <t>empunha o espadim de um lendário assassino vindo das terras mais longínquas - a poderosa arma estará disponível com a reserva de #godfall disponível para a #ps5 no final do ano https//t.co/0iswihnwdp</t>
-  </si>
-  <si>
-    <t>vô fazer live assistindo o evento do ps5 amanhã às 1630 belê</t>
-  </si>
-  <si>
-    <t>a playstation anunciou o seu showcase ps5 para hoje dia 16 de setembro às 21h hora de portugal continental.assiste em direto à transmissão aqui https//t.co/xhgxfgmwa5 https//t.co/diajszlfgq</t>
-  </si>
-  <si>
-    <t>depois de uma terça repleta de novidades agora chegamos na quarta-feira com o ps5 showcase em poucas horas</t>
-  </si>
-  <si>
-    <t>que o ps5 seja barato</t>
-  </si>
-  <si>
-    <t>@diegogogogle @fuck_off_matt ps5 - 400 dólaresps5 digital edition - 350 dólaresmeu palpite</t>
-  </si>
-  <si>
-    <t>@gabrielwars vídeo topqueria sugerir um vídeo comparativo sobre sx vs ps5 vs ss.apos a conferência da sony hojecaso ela dê novas informações sobre o ps5.</t>
-  </si>
-  <si>
-    <t>krl só falra para de fazer ps4/ps5 vlw @jairbolsonaro por essa bosta https//t.co/557shpt4nu</t>
-  </si>
-  <si>
-    <t>não vou descartar a idéia mas acredito que não irá conter anúncios de games novos só do funcionamento do ps5 tipo preço e etc.#playstation5</t>
-  </si>
-  <si>
-    <t>@kamatsukyoto as do xbox ficaram ótimas quem sabe esse ano a sony ainda mostre a do ps5</t>
-  </si>
-  <si>
-    <t>@silva_ruancarlo @tokyo_90l eles tem alguma noção de unidades que vão ser distribuidas para esses consoles xbox e ps5 ?</t>
-  </si>
-  <si>
-    <t>capaz de ps5 ter alguma versão q faça competição com o series s no preço lá fora mas qnd chegar aqui seja bem mais caro eh triste</t>
-  </si>
-  <si>
-    <t>@asdantz chegou a barbie fascita bruxa do ps5 https//t.co/efrg5vqcps</t>
-  </si>
-  <si>
-    <t>terão que reduzir o preço do console na força do ódio para ter concorrência com o xbox. o consumidor agradece. rss #hojetem #ps5 https//t.co/ksvf7fydmx</t>
-  </si>
-  <si>
-    <t>@locobaltar amanhã o dia é da mídia sonysta o poderoso ps5 vai mostrar o que é nova geração de verdade e se rolar o god of war novo podem enterrar a caixa preta da microsoft.</t>
-  </si>
-  <si>
-    <t>mal começou o dia do ps5 e já tem xbox infartando. https//t.co/4suqgpudf8</t>
-  </si>
-  <si>
-    <t>@blackgokudoido o foda é q na época q eu comprei meu ps4 eu não pensava assim. e eu tava pensando sobre isso na próxima geração se o ps5/xsx vierem mais de 5k acho que vale mais a pena comprar um pc por que no mínimo os jogos nos consoles vão ser 279 reais</t>
-  </si>
-  <si>
-    <t>@mayaayahost tudo pra ter dinheiro pra dar up no pc economiza no ps5 e da all in no pc garota você é uma pensadora</t>
-  </si>
-  <si>
-    <t>uma rápida e última pincelada no assunto preço antes do evento de amanhã/hoje assiste lá vou dormir e amanhã/hoje é playstation nesse caralho. #ps5https//t.co/iy97sudas7</t>
-  </si>
-  <si>
-    <t>bom dia. hoje no evento da sonya eu esperorevelação gow2.bloodborne 2/kart.sillent hill.the last of us 3.horizon zero dawn 2 gameplay.data do ratched.gameplay demon souls.psnow no brasil.data e preço do ps5.se não aparecer isso o evento foi uma merda. https//t.co/vxhn7zvsqr</t>
-  </si>
-  <si>
-    <t>@fazendachernoby ansioso demais pra ver as primeiras comparações gráficas entre series s e ps5. sim eu falei series s pra mim tá com cara que esse console base da ms vai dar pau no ps5. esperemos.</t>
-  </si>
-  <si>
-    <t>isso aqui dá um comentário político daqueles você começaria com o engajamento alienado e reprodução de discursos na internet do consumidor imbecilizado nas novas mídias e chegaria na política econômica desastrosa do governo atual.https//t.co/mtndmtra12</t>
-  </si>
-  <si>
-    <t>amanhã tem apresentação da sony do ps5 ás 1700 5 da tarde. a steel wool colocou o link da apresentação no twitter deles será que vem trailer do fnaf 9? será que agora vai?vejo vocês amanhã.https//t.co/ojmmcwyr3g</t>
-  </si>
-  <si>
-    <t>ps5 mais caro que um apartamento https//t.co/nl9mommvbc</t>
-  </si>
-  <si>
-    <t>qualquer valor abaixo de 450/500 dolares hoje do ps5 é lucro. se for acima os caras vão ter q garantir nos jogos.#playstation5</t>
-  </si>
-  <si>
-    <t>quase a sair a ps5 e eu faço anos amanhã já sabem amigos</t>
-  </si>
-  <si>
-    <t>fico ansiosa pro evento da sony sendo que não vou ter um ps5 tão cedo é foda</t>
-  </si>
-  <si>
-    <t>já penso q loco se amanha anunciam um novo god of war.foda-se q vai custar 10k o ps5 vou precisar desse troço</t>
-  </si>
-  <si>
-    <t>borderlands 3 confirmado pro ps5 rodando a 4k/60fps https//t.co/nnxyl1gwxd</t>
-  </si>
-  <si>
-    <t>gente falando em cinco anos de vida útil pro ps5 e pro xsx por exemplo o que traria uma nova gen em 2025 ao invés de 2027.como os serviços incluindo streaming a internet o hardware a tecnologia e a vida das pessoas e formas de consumo estão evoluindo muito rápido</t>
-  </si>
-  <si>
-    <t>é hj o ps5 ?</t>
-  </si>
-  <si>
-    <t>@rafapaulocr tomara q n seja só um anúncio dizendo que help wanted vai sair pra ps5 também se isso acontecer eu saio da live e vochora</t>
-  </si>
-  <si>
-    <t>quando abro matéria sobre jogo interessante mas descubro que é exclusivo do #ps5 https//t.co/8hvl0egtwj</t>
-  </si>
-  <si>
-    <t>@snyxss bom dia é o caralhoacordei aí fui na cozinha tomar uma café e meu sobrinho veio correndo me abraçar pra me dar bom dia dei logo um chutão joguei na porta bom dia o caralho hoje é dia de guerra porra é dia de ps5 mané bom dia pilhado e a criança vem me da bom dia</t>
-  </si>
-  <si>
-    <t>@nerdisse_ @pcfrangames @adrenaline vá se lá perceber se fosse parar para produzir a ps5</t>
-  </si>
-  <si>
-    <t>discord https//t.co/q6oxummoxfsiga nossas midias sociais e acompanhe memes noticias vídeos e lives @aldoriagamesseja apoiador e participe de sorteios#memes #humor #meme #nostalgia #ps5 #ps4 #xbox https//t.co/tmr42ovbs2</t>
-  </si>
-  <si>
-    <t>@andreiaxj @ryanjun05908576 @jhonaimore @meuplaystation eu não entendo nada disso mas se o ps5 foi mais barato em algum lugar vou lá buscar sksksksk</t>
-  </si>
-  <si>
-    <t>@mahriojr bom dia sr mahrio poderia me informar a hora do evento do ps5?</t>
-  </si>
-  <si>
-    <t>ohhh sony faz o favor de anunciar logo o preço do ps5 não aguento mais o povo falando desse assunto em todo canto kkkkkkkkk https//t.co/lvinzeixt3</t>
-  </si>
-  <si>
-    <t>como vou estar vendo a live da @sony sobre as novidades do ps5 @playstation_br #playstation5 #playstation5showcase #videogames https//t.co/3rj5sktho3</t>
-  </si>
-  <si>
-    <t>@silva_ruancarlo bom dia. apesar de estar curioso pelo preço em dólar estou ansioso pra saber em reais espero que anunciem logo. #ps5</t>
-  </si>
-  <si>
-    <t>a esse ponto eu to mais interessado em saber se a sony vai vender o ps5 no brasil durante o lançamento do que saber sobre novos jogos mas provavelmente nem vão anunciar isso hoje</t>
-  </si>
-  <si>
-    <t>hoje tem conferência da sony pra falarem do ps5 será que vai ser mais viável comprar uma casa ou um ps5 esse ano?</t>
-  </si>
-  <si>
-    <t>bom diaaa e q dia hein galera? hoje promete ser um dos mais legais do ano pra mim a partir das 14h estarei participando ao vivo lá no canal da @vresportsbrasil pra acompanhar o evento do #facebookconnect e a apresentação oficial do oculus quest 2 e às 17h tem evento do #ps5</t>
-  </si>
-  <si>
-    <t>e por terem uma larga adoção significando uma ampla base de mercado jogos acabam sendo desenvolvidos pensando neles. atualmente exclusivo de pc acontece menos e menos e geralmente em gêneros onde são necessários mouse/teclado e bastante teclas.pra vcs terem ideia o ps5 e</t>
-  </si>
-  <si>
-    <t>bora que hoje é o evento do #ps5 na porra hype a mil vamo que vamo https//t.co/pisywvtl1l</t>
-  </si>
-  <si>
-    <t>tá aí pq o ps5 tá 10pau https//t.co/3sky9t2s6i</t>
-  </si>
-  <si>
-    <t>👍 on @youtube quarta tem evento do ps5 ed boom comenta sobre series s - notícias do dia [ao vivo] https//t.co/ytbns4inrt</t>
-  </si>
-  <si>
-    <t>é hoje a transmissão ao vivo para falar sobre o futuro do console ps5. a live contará com jogos explicações e possivelmente a tão aguardada revelação de preço e data de lançamento.ansiosos ?? #playstation5 #playstationshowcase https//t.co/sfr55vpnur</t>
-  </si>
-  <si>
-    <t>ps5 vai chegar no brasil por uns 10 mil conto https//t.co/e4g4pikxra</t>
-  </si>
-  <si>
-    <t>ps5 vai custar 10ke a camera a7r iv vai passar pra 30kvlw brasil https//t.co/q0yzwpeplf</t>
-  </si>
-  <si>
-    <t>@there4lon3 @shazamcaraiu @artlocked @isadorabasile isso cara vai de ps5 mesmo pq a comunidade de xbox não fica ameçando os outros de morte e hacka páginas pra fazer apologia a nazismo me orgulho da comunidade pq ela não é suja que nem a do playstation</t>
-  </si>
-  <si>
-    <t>👍 on @youtube problematizando games #35 ps5 com defeito? 1440p maior que 4k? nvidia = skynet https//t.co/jndxfeudo7</t>
-  </si>
-  <si>
-    <t>preparados para vê o melhor exclusivo do ps5 no evento de amanhã #ps5 https//t.co/0x8lbmgwid</t>
-  </si>
-  <si>
-    <t>@lord_psmg lord acha possível aparecer god of war sillent hill ps now na américa latina e preço do ps5 mais barato?</t>
-  </si>
-  <si>
-    <t>@meuplaystation ps5 all digital $399 se a sony sangrar $$$ps5 padrão $499</t>
-  </si>
-  <si>
-    <t>boa noite pra quem? não eu não consigo dormir. como descobriu? #ps5</t>
-  </si>
-  <si>
-    <t>@shihotogai pcr eu faria com uma veia pelo ps5 e tu acha q n faria com isso?</t>
-  </si>
-  <si>
-    <t>sonhar é de graça modelo mais simples do #ps5 deve custar menos de us$ 400 https//t.co/juwos5jwyc</t>
-  </si>
-  <si>
-    <t>discord https//t.co/q6oxummoxfsiga nossas midias sociais e acompanhe memes noticias vídeos e lives @aldoriagamesseja apoiador e participe de sorteios#memes #humor #meme #nostalgia #ps5 #ps4 #xbox https//t.co/nuwc9ji3w2</t>
-  </si>
-  <si>
-    <t>se tivesse a ps5 despedia me da marta e dos meus amigos não saía mais de casa</t>
-  </si>
-  <si>
-    <t>desculpa pai mas ps5 vai ter que vir no final do ano</t>
-  </si>
-  <si>
-    <t>eu nem tô assim quem tá são vocês#ps5showcase #ps5 #thehypeisreal https//t.co/58oqjcd0a9</t>
-  </si>
-  <si>
-    <t>as vezes dá medo de pensar que o #ps5 chegue no brasil a menos de 5k.. eu cometeria uma loucura? talvez.</t>
-  </si>
-  <si>
-    <t>evento da sony amanhã vai ter- god of war ragnarok- bloodborne 2- elden ring- silent hills - preços do ps5fontes quentes confirmaram 🙌 🏼</t>
-  </si>
-  <si>
-    <t>imagina pra consumir ps5 ano que vem mais jogos e produtos eletronicos  com nossa moeda desvalorizada pessima noticia https//t.co/9qpmmhp5qo</t>
-  </si>
-  <si>
-    <t>é hoje 😱 ⌛ ️ 😱 ⌛ ️gostou do vídeo? compartilhenos siga em todas as redes sociais só pesquisar por #playfivebrasil no instagram e facebook#ps5 #ps5showcase #playstation #game #sony @sony @sonybrasil @playstation @playstation_br https//t.co/d1fzxdlwn5</t>
-  </si>
-  <si>
-    <t>está chegando a hora 17h tem o grande evento do ano até o momento. meu palpite para o ps5 é de €49990 com leitor.€39990 sem leitor. https//t.co/yjmbnerwjv</t>
-  </si>
-  <si>
-    <t>@capitaocritica mano pra que fica de boa jogando o seu ps5 que eu fico deboa no xbox 🙂 👍</t>
-  </si>
-  <si>
-    <t>amanhã tem evento da sony sobre o ps5. a capcom já confirmou que as tão esperadas novidades de #revillage chegam no fim de setembromas será que amanhã a gente pode ter algo novo? nem que seja uma nova imagem? 👀 #rebhfun https//t.co/fto9ghdlai</t>
-  </si>
-  <si>
-    <t>é hoje 🤍 🖤 💙 #ps5showcase #ps5 https//t.co/ejjqhjnfgg</t>
-  </si>
-  <si>
-    <t>@cariocachinese @gmunhoz__ negócio é esperar lançar ps5 pra comprar o 4 e assim vai indo os com o xbox também pq da muito stönks 🤏 😎 👍</t>
-  </si>
-  <si>
-    <t>@vingadorbrambz quem sabe é essa solução para super aquecimento do ps5 🤣 🤣 🤣</t>
-  </si>
-  <si>
-    <t>#tlou2 😱 já garantiu o seu #thelastofus2 ⁉ veja este e outros grandes sucessos aqui na #bigboygames 😍 aproveite pois são pouca unidades 🏃 🏃 ‍ ♀ ️https//t.co/jkwzknhfujcompramos seu jogo usado 📱 16 99763-7729#lojabigboygames #bigboy #ps4 #playstation4 #ps5 #seminovos https//t.co/tv8bfcgjgq</t>
-  </si>
-  <si>
-    <t>@marqueszero boa sorte em resolver pepinos e tenhamos fé que o ps5 seja barato aqui no brasil 🙌 🏻 🙌 🏻 🙌 🏻 🙌 🏻</t>
-  </si>
-  <si>
-    <t>hoje também é dia de saber mais do #playstation5  o evento playstation 5 showcase acontece hoje às 17h do horário de brasília. quem aí tá animado pra saber mais do #ps5? https//t.co/zythhmpp5v</t>
-  </si>
-  <si>
-    <t>@dougmad4k des d quando o fechamento da fabrica devido a impostos alta do dolar etc tem com a venda elevada no preço do ps5 aki ja q a sony nao fabricava video game no território nacional .sera q alguem leu a materia sem falar q varias pessoas vao ficar sem emprego mas bora comemorar</t>
-  </si>
-  <si>
-    <t>acordei né de boa fui na cozinha tomar café e minha irmã veio me dar bom dia dei logo um chutão na costela joguei ela na porta e gritei bom dia é o caralho hoje tem evento do #ps5 que mané bom dia acordei pilhadão nessa porra e a ela vem com bom dia toma no cu https//t.co/tniofq4gtl</t>
-  </si>
-  <si>
-    <t>palpites de hoje us 449 / 499  br 5999 / 6499#ps5</t>
-  </si>
-  <si>
-    <t>o evento do ps5 vai começar quando eu tiver largando se aparecer algo de algum final fantasy metam minha @ no post por favor</t>
-  </si>
-  <si>
-    <t>vamos lá.. hoje é o dia dos anúncios do ps5 qual você acha que será o preço?eu acredito em 599 com disco e 499 para a versão sem disco.</t>
-  </si>
-  <si>
-    <t>liberal/anarco de facebook ain sou contra o protecionismo à indústriasony vou sairl/a a culpa é sua seus comunistaaaaasl/a e meu ps5? paieeee</t>
-  </si>
-  <si>
-    <t>vazou as primeiras imagens de the last of us part 3 no ps5 que a sony vai mostrar no evento de hoje. 🗣 ️ 🚨 🚨 🚨 🚨 🚨 🚨 🚨 🚨 https//t.co/adpp6gn7yi</t>
-  </si>
-  <si>
-    <t>nesse evento do ps5 amanhã a santa monica poderia anunciar algum teaser sobre uma continuação do god of war hein 🤔</t>
-  </si>
-  <si>
-    <t>acordei né de boa fui na cozinha tomar café e minha irmã veio me dar bom dia dei logo um chutão na costela joguei ela na porta e gritei bom dia é o caralho hoje tem evento do #ps5 que mané bom dia acordei pilhadão nessa porra e a ela vem com bom dia toma no cu https//t.co/e04w0wqxyc</t>
-  </si>
-  <si>
-    <t>conhecendo o mercenarismo da sony não duvido nada que esse ps5 digital edition seja anunciado mais tarde por uns 500 dols espero quebrar a cara 🙏 🏼</t>
-  </si>
-  <si>
-    <t>que hoje é dia de #ps5showcase o mundo todo sabe e está de olho 👀 uma das apostas para o evento de hoje é que o @playstation @playstation_br mostre sua nova interface em funcionamentoa tela de boot a gente já conhece será que veremos tudo hoje? façam suas apostas #ps5 https//t.co/zmrprtjv1t</t>
-  </si>
-  <si>
-    <t>será que hoje teremos novidades? 🥰 🥰 🥰 #ps5 #ps5showcase https//t.co/3lgnv7jofi</t>
-  </si>
-  <si>
-    <t>→ sony realiza evento do playstation 5 nesta quarta 👉 🏻 #tech #games #ps5 #playstation5 #sony #jornaldoscanyons #jdc 🔗 confira no jornal dos canyons https//t.co/c5ioiz4jhb</t>
-  </si>
-  <si>
-    <t>tô pensando em vender meu corsa pra comprar o ps5 🤣 🤣 🤣 🤣</t>
-  </si>
-  <si>
-    <t>trabalhar pra comprar meu ps5 ♥ ️</t>
-  </si>
-  <si>
-    <t>agenda ai pra acompanhar comigo https//t.co/zwkgfqbczjaposto  ps5 com leitor 44900 $ sem leitor 34900 $#playstation5 #playstation5preço #ps5reveal #ps5showcase #playstation5showcase #ps5preço #playstation5preço</t>
-  </si>
-  <si>
-    <t>meu amigo esse ps5 vai sair por 10 mil conto. pense numa bomba.</t>
-  </si>
-  <si>
-    <t>- imran khan puta merda o series x tem 98 libras 4.5kg é mais pesado que um bebê recém-nascido- kez meu irmão tinha 14 libras 6.3kg 😬 quando nasceusó falando - timdog isso é o quanto pesa o ps5pessoal veio reclamar do peso do series x 🤣 🤣 🤣 6kg e 300g 🤣 🤣 https//t.co/o3qo85ugok</t>
-  </si>
-  <si>
-    <t>ps5 custando o cheque do queiroz pra michelle. https//t.co/lopot8tsep</t>
-  </si>
-  <si>
-    <t>boooom diaaaaa a programação de hoje na nossa land será a seguinte às 14h30 vamos abrir nossa live normalmente para jogar um crash maroto. às 16h30 mais ou menos vamos invadir o canal do nosso parceiro @leongameplay01 para acompanharmos juntos o evento do ps5. conto com vcs 🤓 https//t.co/lhfdv87jgb</t>
-  </si>
-  <si>
-    <t>hoje tem evento do ps5 😎 ✌ ✌ 👍 👍 👍 👍 👍 👍 https//t.co/jafc2avlrp</t>
-  </si>
-  <si>
-    <t>é hoje 🎮 sai o preço do ps5 pra baixar o preço do ps4 ps3 ficar em conta o ps2 a preço de banana pra eu poder pegar um ps1 usado. #ps5showcase</t>
-  </si>
-  <si>
-    <t>@voxeloficial imagina se fosse o #ps5 iria chover 🐑 pra comemorar tal notícia 🤣 🤣</t>
-  </si>
-  <si>
-    <t>se o xbox one s que é tido como o console mais fraco dessa geração consegue fazer isso aqui em tempo real imagina o ps5 e xbox series x 👁 ️ https//t.co/gwljpuerlm</t>
-  </si>
-  <si>
-    <t>reino dos magos #5 ps5 sorteioloja https//t.co/psooztpdjt</t>
-  </si>
-  <si>
-    <t>é hoje que vamos ver se eu compro o ps5 ano que vem ou só em 2022 😂 😂</t>
-  </si>
-  <si>
-    <t>vai quenão custa sonhar né? 😆 😆 #ps5 #ps5showcase #playstation #playfivebrasil https//t.co/p7pjuultcq</t>
-  </si>
-  <si>
-    <t>que hoje mostre mais de ps5 e seus jogos e esqueça de vez godfall 🙏 🏻</t>
-  </si>
-  <si>
-    <t>@gramiliki_ @nintendoamerica @rockstargames podia soltar aqele trailer de boyoneta 3 um zelda botw 2 e gta5  nao ligo para gta5 mas muito gente quer ele. pronto a nitnendo todo mundokkk. e no final mostra o suposto swtich prokkkkkkkkkk. pronto a nintendo ganhou o ano contra o ps5 e xbx ss x y z..kkkk</t>
-  </si>
-  <si>
-    <t>@davidpdcoelho @xzticks @maisxbox só faltou ela falar não comprem o xss ps5 digital é melhor escolha. 😂 😂 😂</t>
-  </si>
-  <si>
-    <t>parabéns aos gamers apoiadores do bozo.sony brasil fechou sua fábrica em manaus o que obviamente impossibilitará fabricação nacional do ps5.tratem de pagar o meu agora. 🖕 🖕 🖕 🖕 🖕 🖕 🖕 🖕</t>
-  </si>
-  <si>
-    <t>acordei né de boa fui na cozinha tomar café e minha irmã veio me dar bom dia dei logo um chutão na costela joguei ela na porta e gritei bom dia é o caralho hoje tem evento do #ps5 que mané bom dia acordei pilhadão nessa porra e a ela vem com bom dia toma no cu</t>
-  </si>
-  <si>
-    <t>@rnmgamer93 @zangwlctl nosso ps5 tá garantido 🙆 💍 🙆</t>
-  </si>
-  <si>
-    <t>cria um perfil fake ➡ ️ fala q meus pais me expulsaram de casa pq eu falei q era gay ➡ ️ mendigar ➡ ️ ganha 10 mil ➡ ️ compra o iphone 12 e guarda pro ps5 ✅</t>
-  </si>
-  <si>
-    <t>@carlinhostroll no laçamento do ps4.. comprei de você que ajudou vários gamers brasileiros você podia vender novamente o xbox e ps5 em 🥺</t>
-  </si>
-  <si>
-    <t>já trouxe o terno da lavanderia. pro martini mexido e não batido tem tudo.mandei os cachorros pra casa da vó e as crianças pra pet 🤔 🤔 🤔 .pedi divórcio entre 16h45 até 18h45. desfiz todas as amizades.hoje é dia de #ps5showcase #ps5</t>
-  </si>
-  <si>
-    <t>tomara que a rapaziada do xbox n venha pro ps5 tem uns q são chatão pqp</t>
-  </si>
-  <si>
-    <t>jogos que adoraria ver aparecendo amanhã na conferência do ps5 mas que obviamente vão permanecer só nos corações mesmo 😭 👌 https//t.co/5qadryqu7v</t>
+    <t>Tweets</t>
   </si>
 </sst>
 </file>
@@ -2909,8 +2228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A252" sqref="A252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2922,3313 +2241,2411 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>501</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>503</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="C66" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-      <c r="C68" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-      <c r="C71" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="C72" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-      <c r="C73" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="C74" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-      <c r="C75" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-      <c r="C76" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="C77" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-      <c r="C78" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-      <c r="C79" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-      <c r="C81" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-      <c r="C82" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-      <c r="C83" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-      <c r="C84" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-      <c r="C85" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-      <c r="C86" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-      <c r="C87" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B88">
-        <v>0</v>
-      </c>
-      <c r="C88" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B89">
-        <v>0</v>
-      </c>
-      <c r="C89" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-      <c r="C90" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-      <c r="C91" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-      <c r="C92" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-      <c r="C93" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-      <c r="C94" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-      <c r="C95" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-      <c r="C96" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B97">
-        <v>1</v>
-      </c>
-      <c r="C97" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B98">
-        <v>1</v>
-      </c>
-      <c r="C98" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B99">
-        <v>0</v>
-      </c>
-      <c r="C99" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B100">
-        <v>1</v>
-      </c>
-      <c r="C100" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B101">
-        <v>1</v>
-      </c>
-      <c r="C101" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B102">
-        <v>1</v>
-      </c>
-      <c r="C102" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B103">
-        <v>1</v>
-      </c>
-      <c r="C103" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B104">
-        <v>0</v>
-      </c>
-      <c r="C104" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B105">
-        <v>0</v>
-      </c>
-      <c r="C105" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B106">
-        <v>1</v>
-      </c>
-      <c r="C106" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B107">
-        <v>0</v>
-      </c>
-      <c r="C107" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B108">
-        <v>1</v>
-      </c>
-      <c r="C108" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B109">
-        <v>1</v>
-      </c>
-      <c r="C109" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B110">
-        <v>0</v>
-      </c>
-      <c r="C110" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B111">
-        <v>1</v>
-      </c>
-      <c r="C111" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B112">
-        <v>1</v>
-      </c>
-      <c r="C112" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B113">
-        <v>1</v>
-      </c>
-      <c r="C113" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B114">
-        <v>0</v>
-      </c>
-      <c r="C114" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B115">
-        <v>0</v>
-      </c>
-      <c r="C115" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B116">
-        <v>1</v>
-      </c>
-      <c r="C116" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B117">
-        <v>1</v>
-      </c>
-      <c r="C117" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B118">
-        <v>1</v>
-      </c>
-      <c r="C118" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B119">
-        <v>1</v>
-      </c>
-      <c r="C119" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B120">
-        <v>1</v>
-      </c>
-      <c r="C120" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B121">
-        <v>1</v>
-      </c>
-      <c r="C121" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B122">
-        <v>0</v>
-      </c>
-      <c r="C122" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B123">
-        <v>0</v>
-      </c>
-      <c r="C123" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B124">
-        <v>0</v>
-      </c>
-      <c r="C124" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B125">
-        <v>1</v>
-      </c>
-      <c r="C125" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B126">
-        <v>0</v>
-      </c>
-      <c r="C126" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B127">
-        <v>0</v>
-      </c>
-      <c r="C127" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B128">
-        <v>1</v>
-      </c>
-      <c r="C128" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B129">
-        <v>1</v>
-      </c>
-      <c r="C129" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B130">
-        <v>1</v>
-      </c>
-      <c r="C130" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B131">
-        <v>0</v>
-      </c>
-      <c r="C131" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B132">
-        <v>1</v>
-      </c>
-      <c r="C132" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B133">
-        <v>0</v>
-      </c>
-      <c r="C133" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B134">
-        <v>1</v>
-      </c>
-      <c r="C134" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B135">
-        <v>0</v>
-      </c>
-      <c r="C135" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B136">
-        <v>0</v>
-      </c>
-      <c r="C136" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B137">
-        <v>0</v>
-      </c>
-      <c r="C137" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B138">
-        <v>1</v>
-      </c>
-      <c r="C138" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B139">
-        <v>1</v>
-      </c>
-      <c r="C139" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B140">
-        <v>1</v>
-      </c>
-      <c r="C140" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B141">
-        <v>0</v>
-      </c>
-      <c r="C141" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B142">
-        <v>1</v>
-      </c>
-      <c r="C142" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B143">
-        <v>1</v>
-      </c>
-      <c r="C143" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B144">
-        <v>1</v>
-      </c>
-      <c r="C144" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B145">
-        <v>0</v>
-      </c>
-      <c r="C145" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B146">
-        <v>0</v>
-      </c>
-      <c r="C146" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B147">
-        <v>0</v>
-      </c>
-      <c r="C147" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B148">
-        <v>0</v>
-      </c>
-      <c r="C148" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B149">
-        <v>0</v>
-      </c>
-      <c r="C149" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B150">
-        <v>1</v>
-      </c>
-      <c r="C150" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B151">
-        <v>0</v>
-      </c>
-      <c r="C151" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B152">
-        <v>0</v>
-      </c>
-      <c r="C152" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B153">
-        <v>1</v>
-      </c>
-      <c r="C153" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B154">
-        <v>1</v>
-      </c>
-      <c r="C154" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B155">
-        <v>0</v>
-      </c>
-      <c r="C155" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B156">
-        <v>1</v>
-      </c>
-      <c r="C156" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B157">
-        <v>1</v>
-      </c>
-      <c r="C157" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B158">
-        <v>0</v>
-      </c>
-      <c r="C158" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B159">
-        <v>0</v>
-      </c>
-      <c r="C159" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B160">
-        <v>0</v>
-      </c>
-      <c r="C160" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B161">
-        <v>0</v>
-      </c>
-      <c r="C161" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B162">
-        <v>1</v>
-      </c>
-      <c r="C162" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B163">
-        <v>1</v>
-      </c>
-      <c r="C163" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B164">
-        <v>0</v>
-      </c>
-      <c r="C164" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B165">
-        <v>0</v>
-      </c>
-      <c r="C165" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B166">
-        <v>1</v>
-      </c>
-      <c r="C166" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B167">
-        <v>1</v>
-      </c>
-      <c r="C167" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B168">
-        <v>0</v>
-      </c>
-      <c r="C168" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B169">
-        <v>1</v>
-      </c>
-      <c r="C169" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="2" t="s">
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B170">
-        <v>0</v>
-      </c>
-      <c r="C170" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B171">
-        <v>0</v>
-      </c>
-      <c r="C171" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B172">
-        <v>1</v>
-      </c>
-      <c r="C172" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B173">
-        <v>0</v>
-      </c>
-      <c r="C173" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
+      <c r="B174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B174">
-        <v>1</v>
-      </c>
-      <c r="C174" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B175">
-        <v>0</v>
-      </c>
-      <c r="C175" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B176">
-        <v>0</v>
-      </c>
-      <c r="C176" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B177">
-        <v>1</v>
-      </c>
-      <c r="C177" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B178">
-        <v>0</v>
-      </c>
-      <c r="C178" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
+      <c r="B179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B179">
-        <v>1</v>
-      </c>
-      <c r="C179" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B180">
-        <v>1</v>
-      </c>
-      <c r="C180" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B181">
-        <v>1</v>
-      </c>
-      <c r="C181" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B182">
-        <v>0</v>
-      </c>
-      <c r="C182" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B183">
-        <v>0</v>
-      </c>
-      <c r="C183" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B184">
-        <v>0</v>
-      </c>
-      <c r="C184" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B185">
-        <v>1</v>
-      </c>
-      <c r="C185" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B186">
-        <v>0</v>
-      </c>
-      <c r="C186" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B187">
-        <v>1</v>
-      </c>
-      <c r="C187" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B188">
-        <v>0</v>
-      </c>
-      <c r="C188" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B189">
-        <v>1</v>
-      </c>
-      <c r="C189" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B190">
-        <v>0</v>
-      </c>
-      <c r="C190" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B191">
-        <v>0</v>
-      </c>
-      <c r="C191" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B192">
-        <v>0</v>
-      </c>
-      <c r="C192" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B193">
-        <v>0</v>
-      </c>
-      <c r="C193" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B194">
-        <v>1</v>
-      </c>
-      <c r="C194" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
+      <c r="B195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B195">
-        <v>1</v>
-      </c>
-      <c r="C195" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B196">
-        <v>0</v>
-      </c>
-      <c r="C196" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B197">
-        <v>1</v>
-      </c>
-      <c r="C197" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B198">
-        <v>1</v>
-      </c>
-      <c r="C198" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B199">
-        <v>0</v>
-      </c>
-      <c r="C199" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B200">
-        <v>0</v>
-      </c>
-      <c r="C200" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A201" s="2" t="s">
+      <c r="B201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B201">
-        <v>0</v>
-      </c>
-      <c r="C201" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A202" s="2" t="s">
+      <c r="B202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B202">
-        <v>1</v>
-      </c>
-      <c r="C202" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="2" t="s">
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B203">
-        <v>0</v>
-      </c>
-      <c r="C203" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="2" t="s">
+      <c r="B204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B204">
-        <v>1</v>
-      </c>
-      <c r="C204" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B205">
-        <v>1</v>
-      </c>
-      <c r="C205" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
+      <c r="B206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B206">
-        <v>1</v>
-      </c>
-      <c r="C206" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="2" t="s">
+      <c r="B207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B207">
-        <v>0</v>
-      </c>
-      <c r="C207" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="2" t="s">
+      <c r="B208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B208">
-        <v>1</v>
-      </c>
-      <c r="C208" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
+      <c r="B209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B209">
-        <v>0</v>
-      </c>
-      <c r="C209" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
+      <c r="B210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B210">
-        <v>1</v>
-      </c>
-      <c r="C210" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
+      <c r="B211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B211">
-        <v>1</v>
-      </c>
-      <c r="C211" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B212">
-        <v>0</v>
-      </c>
-      <c r="C212" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
+      <c r="B213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B213">
-        <v>1</v>
-      </c>
-      <c r="C213" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B214">
-        <v>0</v>
-      </c>
-      <c r="C214" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B215">
-        <v>0</v>
-      </c>
-      <c r="C215" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="2" t="s">
+      <c r="B216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B216">
-        <v>1</v>
-      </c>
-      <c r="C216" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="2" t="s">
+      <c r="B217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B217">
-        <v>1</v>
-      </c>
-      <c r="C217" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="2" t="s">
+      <c r="B218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B218">
-        <v>0</v>
-      </c>
-      <c r="C218" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="2" t="s">
+      <c r="B219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B219">
-        <v>1</v>
-      </c>
-      <c r="C219" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="2" t="s">
+      <c r="B220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B220">
-        <v>0</v>
-      </c>
-      <c r="C220" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="2" t="s">
+      <c r="B221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B221">
-        <v>0</v>
-      </c>
-      <c r="C221" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A222" s="2" t="s">
+      <c r="B222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B222">
-        <v>0</v>
-      </c>
-      <c r="C222" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="2" t="s">
+      <c r="B223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B223">
-        <v>1</v>
-      </c>
-      <c r="C223" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="2" t="s">
+      <c r="B224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B224">
-        <v>1</v>
-      </c>
-      <c r="C224" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="2" t="s">
+      <c r="B225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B225">
-        <v>0</v>
-      </c>
-      <c r="C225" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" s="2" t="s">
+      <c r="B226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B226">
-        <v>1</v>
-      </c>
-      <c r="C226" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="2" t="s">
+      <c r="B227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B227">
-        <v>1</v>
-      </c>
-      <c r="C227" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="2" t="s">
+      <c r="B228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B228">
-        <v>1</v>
-      </c>
-      <c r="C228" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" s="2" t="s">
+      <c r="B229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B229">
-        <v>1</v>
-      </c>
-      <c r="C229" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A230" s="2" t="s">
+      <c r="B230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B230">
-        <v>0</v>
-      </c>
-      <c r="C230" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" ht="210" x14ac:dyDescent="0.25">
-      <c r="A231" s="2" t="s">
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B231">
-        <v>1</v>
-      </c>
-      <c r="C231" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="2" t="s">
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B232">
-        <v>1</v>
-      </c>
-      <c r="C232" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A233" s="2" t="s">
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B233">
-        <v>0</v>
-      </c>
-      <c r="C233" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A234" s="2" t="s">
+      <c r="B234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B234">
-        <v>0</v>
-      </c>
-      <c r="C234" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" s="2" t="s">
+      <c r="B235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B235">
-        <v>1</v>
-      </c>
-      <c r="C235" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A236" s="2" t="s">
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B236">
-        <v>1</v>
-      </c>
-      <c r="C236" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" s="2" t="s">
+      <c r="B237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B237">
-        <v>0</v>
-      </c>
-      <c r="C237" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="2" t="s">
+      <c r="B238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B238">
-        <v>1</v>
-      </c>
-      <c r="C238" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A239" s="2" t="s">
+      <c r="B239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B239">
-        <v>0</v>
-      </c>
-      <c r="C239" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A240" s="2" t="s">
+      <c r="B240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B240">
-        <v>1</v>
-      </c>
-      <c r="C240" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="2" t="s">
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B241">
-        <v>0</v>
-      </c>
-      <c r="C241" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="2" t="s">
+      <c r="B242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B242">
-        <v>1</v>
-      </c>
-      <c r="C242" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A243" s="2" t="s">
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B243">
-        <v>1</v>
-      </c>
-      <c r="C243" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" s="2" t="s">
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B244">
-        <v>1</v>
-      </c>
-      <c r="C244" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="2" t="s">
+      <c r="B245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B245">
-        <v>1</v>
-      </c>
-      <c r="C245" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A246" s="2" t="s">
+      <c r="B246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B246">
-        <v>1</v>
-      </c>
-      <c r="C246" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="2" t="s">
+      <c r="B247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B247">
-        <v>0</v>
-      </c>
-      <c r="C247" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="2" t="s">
+      <c r="B248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B248">
-        <v>0</v>
-      </c>
-      <c r="C248" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="2" t="s">
+      <c r="B249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B249">
-        <v>1</v>
-      </c>
-      <c r="C249" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="2" t="s">
+      <c r="B250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B250">
-        <v>1</v>
-      </c>
-      <c r="C250" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="2" t="s">
+      <c r="B251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B251">
-        <v>0</v>
-      </c>
-      <c r="C251" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A252" s="2" t="s">
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B252">
-        <v>0</v>
-      </c>
-      <c r="C252" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" s="2" t="s">
+      <c r="B253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B253">
-        <v>1</v>
-      </c>
-      <c r="C253" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="2" t="s">
+      <c r="B254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B254">
-        <v>0</v>
-      </c>
-      <c r="C254" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A255" s="2" t="s">
+      <c r="B255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B255">
-        <v>0</v>
-      </c>
-      <c r="C255" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" s="2" t="s">
+      <c r="B256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B256">
-        <v>0</v>
-      </c>
-      <c r="C256" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="2" t="s">
+      <c r="B257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B257">
-        <v>1</v>
-      </c>
-      <c r="C257" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="2" t="s">
+      <c r="B258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B258">
-        <v>1</v>
-      </c>
-      <c r="C258" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="2" t="s">
+      <c r="B259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A260" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B259">
-        <v>0</v>
-      </c>
-      <c r="C259" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A260" s="2" t="s">
+      <c r="B260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B260">
-        <v>0</v>
-      </c>
-      <c r="C260" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="2" t="s">
+      <c r="B261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B261">
-        <v>1</v>
-      </c>
-      <c r="C261" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" s="2" t="s">
+      <c r="B262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B262">
-        <v>0</v>
-      </c>
-      <c r="C262" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="2" t="s">
+      <c r="B263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B263">
-        <v>1</v>
-      </c>
-      <c r="C263" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="2" t="s">
+      <c r="B264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B264">
-        <v>1</v>
-      </c>
-      <c r="C264" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="2" t="s">
+      <c r="B265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B265">
-        <v>0</v>
-      </c>
-      <c r="C265" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" s="2" t="s">
+      <c r="B266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B266">
-        <v>0</v>
-      </c>
-      <c r="C266" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A267" s="2" t="s">
+      <c r="B267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B267">
-        <v>0</v>
-      </c>
-      <c r="C267" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A268" s="2" t="s">
+      <c r="B268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B268">
-        <v>0</v>
-      </c>
-      <c r="C268" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" s="2" t="s">
+      <c r="B269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B269">
-        <v>0</v>
-      </c>
-      <c r="C269" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="2" t="s">
+      <c r="B270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B270">
-        <v>0</v>
-      </c>
-      <c r="C270" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" s="2" t="s">
+      <c r="B271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B271">
-        <v>1</v>
-      </c>
-      <c r="C271" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" s="2" t="s">
+      <c r="B272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B272">
-        <v>0</v>
-      </c>
-      <c r="C272" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" s="2" t="s">
+      <c r="B273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B273">
-        <v>0</v>
-      </c>
-      <c r="C273" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" s="2" t="s">
+      <c r="B274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B274">
-        <v>1</v>
-      </c>
-      <c r="C274" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="2" t="s">
+      <c r="B275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B275">
-        <v>1</v>
-      </c>
-      <c r="C275" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A276" s="2" t="s">
+      <c r="B276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B276">
-        <v>1</v>
-      </c>
-      <c r="C276" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="2" t="s">
+      <c r="B277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A278" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B277">
-        <v>1</v>
-      </c>
-      <c r="C277" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A278" s="2" t="s">
+      <c r="B278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B278">
-        <v>1</v>
-      </c>
-      <c r="C278" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" s="2" t="s">
+      <c r="B279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B279">
-        <v>0</v>
-      </c>
-      <c r="C279" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="2" t="s">
+      <c r="B280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B280">
-        <v>1</v>
-      </c>
-      <c r="C280" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="2" t="s">
+      <c r="B281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B281">
-        <v>0</v>
-      </c>
-      <c r="C281" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="2" t="s">
+      <c r="B282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A283" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B282">
-        <v>0</v>
-      </c>
-      <c r="C282" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A283" s="2" t="s">
+      <c r="B283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B283">
-        <v>0</v>
-      </c>
-      <c r="C283" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" s="2" t="s">
+      <c r="B284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B284">
-        <v>0</v>
-      </c>
-      <c r="C284" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="2" t="s">
+      <c r="B285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B285">
-        <v>1</v>
-      </c>
-      <c r="C285" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="2" t="s">
+      <c r="B286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B286">
-        <v>1</v>
-      </c>
-      <c r="C286" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="2" t="s">
+      <c r="B287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B287">
-        <v>1</v>
-      </c>
-      <c r="C287" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="2" t="s">
+      <c r="B288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B288">
-        <v>0</v>
-      </c>
-      <c r="C288" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" s="2" t="s">
+      <c r="B289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B289">
-        <v>1</v>
-      </c>
-      <c r="C289" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" s="2" t="s">
+      <c r="B290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A291" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B290">
-        <v>0</v>
-      </c>
-      <c r="C290" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A291" s="2" t="s">
+      <c r="B291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B291">
-        <v>1</v>
-      </c>
-      <c r="C291" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="2" t="s">
+      <c r="B292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B292">
-        <v>0</v>
-      </c>
-      <c r="C292" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293" s="2" t="s">
+      <c r="B293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B293">
-        <v>0</v>
-      </c>
-      <c r="C293" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" s="2" t="s">
+      <c r="B294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B294">
-        <v>0</v>
-      </c>
-      <c r="C294" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295" s="2" t="s">
+      <c r="B295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B295">
-        <v>0</v>
-      </c>
-      <c r="C295" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296" s="2" t="s">
+      <c r="B296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A297" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B296">
-        <v>1</v>
-      </c>
-      <c r="C296" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A297" s="2" t="s">
+      <c r="B297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B297">
-        <v>0</v>
-      </c>
-      <c r="C297" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="2" t="s">
+      <c r="B298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B298">
-        <v>0</v>
-      </c>
-      <c r="C298" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="2" t="s">
+      <c r="B299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A300" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B299">
-        <v>0</v>
-      </c>
-      <c r="C299" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A300" s="2" t="s">
+      <c r="B300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A301" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B300">
-        <v>0</v>
-      </c>
-      <c r="C300" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A301" s="2" t="s">
-        <v>301</v>
-      </c>
       <c r="B301">
         <v>1</v>
-      </c>
-      <c r="C301" t="s">
-        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -6240,8 +4657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="H2" sqref="G1:H2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6253,15 +4670,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>302</v>
+        <v>501</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -6269,7 +4686,7 @@
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -6277,7 +4694,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -6285,7 +4702,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -6293,7 +4710,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -6301,7 +4718,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -6309,7 +4726,7 @@
     </row>
     <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
@@ -6317,7 +4734,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -6325,7 +4742,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -6333,7 +4750,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
@@ -6341,7 +4758,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
@@ -6349,7 +4766,7 @@
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
@@ -6357,7 +4774,7 @@
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
@@ -6365,7 +4782,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -6373,7 +4790,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -6381,7 +4798,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
@@ -6389,7 +4806,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
@@ -6397,7 +4814,7 @@
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
@@ -6405,7 +4822,7 @@
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -6413,7 +4830,7 @@
     </row>
     <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -6421,7 +4838,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
@@ -6429,7 +4846,7 @@
     </row>
     <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B23" s="3">
         <v>0</v>
@@ -6437,7 +4854,7 @@
     </row>
     <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -6445,7 +4862,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B25" s="3">
         <v>1</v>
@@ -6453,7 +4870,7 @@
     </row>
     <row r="26" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B26" s="3">
         <v>0</v>
@@ -6461,7 +4878,7 @@
     </row>
     <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B27" s="3">
         <v>0</v>
@@ -6469,7 +4886,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -6477,7 +4894,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B29" s="3">
         <v>1</v>
@@ -6485,7 +4902,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B30" s="3">
         <v>1</v>
@@ -6493,7 +4910,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B31" s="3">
         <v>1</v>
@@ -6501,7 +4918,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B32" s="3">
         <v>1</v>
@@ -6509,7 +4926,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
@@ -6517,7 +4934,7 @@
     </row>
     <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B34" s="3">
         <v>0</v>
@@ -6525,7 +4942,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B35" s="3">
         <v>0</v>
@@ -6533,7 +4950,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B36" s="3">
         <v>1</v>
@@ -6541,7 +4958,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B37" s="3">
         <v>0</v>
@@ -6549,7 +4966,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B38" s="3">
         <v>0</v>
@@ -6557,7 +4974,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B39" s="3">
         <v>1</v>
@@ -6565,7 +4982,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B40" s="3">
         <v>0</v>
@@ -6573,7 +4990,7 @@
     </row>
     <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B41" s="3">
         <v>1</v>
@@ -6581,7 +4998,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B42" s="3">
         <v>1</v>
@@ -6589,7 +5006,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B43" s="3">
         <v>1</v>
@@ -6597,7 +5014,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B44" s="3">
         <v>1</v>
@@ -6605,7 +5022,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B45" s="3">
         <v>0</v>
@@ -6613,7 +5030,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B46" s="3">
         <v>0</v>
@@ -6621,7 +5038,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B47" s="3">
         <v>1</v>
@@ -6629,7 +5046,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B48" s="3">
         <v>0</v>
@@ -6637,7 +5054,7 @@
     </row>
     <row r="49" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B49" s="3">
         <v>0</v>
@@ -6645,7 +5062,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B50" s="3">
         <v>0</v>
@@ -6653,7 +5070,7 @@
     </row>
     <row r="51" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B51" s="3">
         <v>1</v>
@@ -6661,7 +5078,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B52" s="3">
         <v>1</v>
@@ -6669,7 +5086,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
@@ -6677,7 +5094,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B54" s="3">
         <v>0</v>
@@ -6685,7 +5102,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B55" s="3">
         <v>0</v>
@@ -6693,7 +5110,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B56" s="3">
         <v>1</v>
@@ -6701,7 +5118,7 @@
     </row>
     <row r="57" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B57" s="3">
         <v>1</v>
@@ -6709,7 +5126,7 @@
     </row>
     <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B58" s="3">
         <v>1</v>
@@ -6717,7 +5134,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B59" s="3">
         <v>1</v>
@@ -6725,7 +5142,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B60" s="3">
         <v>1</v>
@@ -6733,7 +5150,7 @@
     </row>
     <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B61" s="3">
         <v>1</v>
@@ -6741,7 +5158,7 @@
     </row>
     <row r="62" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B62" s="3">
         <v>0</v>
@@ -6749,7 +5166,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B63" s="3">
         <v>1</v>
@@ -6757,7 +5174,7 @@
     </row>
     <row r="64" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B64" s="3">
         <v>0</v>
@@ -6765,7 +5182,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B65" s="3">
         <v>1</v>
@@ -6773,7 +5190,7 @@
     </row>
     <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B66" s="3">
         <v>0</v>
@@ -6781,7 +5198,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B67" s="3">
         <v>0</v>
@@ -6789,7 +5206,7 @@
     </row>
     <row r="68" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B68" s="3">
         <v>0</v>
@@ -6797,7 +5214,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B69" s="3">
         <v>0</v>
@@ -6805,7 +5222,7 @@
     </row>
     <row r="70" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B70" s="3">
         <v>0</v>
@@ -6813,7 +5230,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B71" s="3">
         <v>0</v>
@@ -6821,7 +5238,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B72" s="3">
         <v>1</v>
@@ -6829,7 +5246,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B73" s="3">
         <v>1</v>
@@ -6837,7 +5254,7 @@
     </row>
     <row r="74" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B74" s="3">
         <v>0</v>
@@ -6845,7 +5262,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B75" s="3">
         <v>0</v>
@@ -6853,7 +5270,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B76" s="3">
         <v>0</v>
@@ -6861,7 +5278,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B77" s="3">
         <v>1</v>
@@ -6869,7 +5286,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B78" s="3">
         <v>1</v>
@@ -6877,7 +5294,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B79" s="3">
         <v>1</v>
@@ -6885,7 +5302,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B80" s="3">
         <v>0</v>
@@ -6893,7 +5310,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B81" s="3">
         <v>0</v>
@@ -6901,7 +5318,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B82" s="3">
         <v>1</v>
@@ -6909,7 +5326,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B83" s="3">
         <v>1</v>
@@ -6917,7 +5334,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B84" s="3">
         <v>1</v>
@@ -6925,7 +5342,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B85" s="3">
         <v>1</v>
@@ -6933,7 +5350,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B86" s="3">
         <v>0</v>
@@ -6941,7 +5358,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B87" s="3">
         <v>0</v>
@@ -6949,7 +5366,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B88" s="3">
         <v>0</v>
@@ -6957,7 +5374,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B89" s="3">
         <v>1</v>
@@ -6965,7 +5382,7 @@
     </row>
     <row r="90" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B90" s="3">
         <v>1</v>
@@ -6973,7 +5390,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B91" s="3">
         <v>1</v>
@@ -6981,7 +5398,7 @@
     </row>
     <row r="92" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B92" s="3">
         <v>1</v>
@@ -6989,7 +5406,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B93" s="3">
         <v>0</v>
@@ -6997,7 +5414,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B94" s="3">
         <v>1</v>
@@ -7005,7 +5422,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B95" s="3">
         <v>0</v>
@@ -7013,7 +5430,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B96" s="3">
         <v>0</v>
@@ -7021,7 +5438,7 @@
     </row>
     <row r="97" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B97" s="3">
         <v>1</v>
@@ -7029,7 +5446,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B98" s="3">
         <v>0</v>
@@ -7037,7 +5454,7 @@
     </row>
     <row r="99" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B99" s="3">
         <v>0</v>
@@ -7045,7 +5462,7 @@
     </row>
     <row r="100" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B100" s="3">
         <v>0</v>
@@ -7053,7 +5470,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B101" s="3">
         <v>1</v>
@@ -7061,7 +5478,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B102" s="3">
         <v>1</v>
@@ -7069,7 +5486,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B103" s="3">
         <v>1</v>
@@ -7077,7 +5494,7 @@
     </row>
     <row r="104" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B104" s="3">
         <v>1</v>
@@ -7085,7 +5502,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B105" s="3">
         <v>1</v>
@@ -7093,7 +5510,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B106" s="3">
         <v>0</v>
@@ -7101,7 +5518,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B107" s="3">
         <v>1</v>
@@ -7109,7 +5526,7 @@
     </row>
     <row r="108" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B108" s="3">
         <v>0</v>
@@ -7117,7 +5534,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B109" s="3">
         <v>1</v>
@@ -7125,7 +5542,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B110" s="3">
         <v>1</v>
@@ -7133,7 +5550,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B111" s="3">
         <v>1</v>
@@ -7141,7 +5558,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B112" s="3">
         <v>0</v>
@@ -7149,7 +5566,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B113" s="3">
         <v>1</v>
@@ -7157,7 +5574,7 @@
     </row>
     <row r="114" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B114" s="3">
         <v>1</v>
@@ -7165,7 +5582,7 @@
     </row>
     <row r="115" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B115" s="3">
         <v>0</v>
@@ -7173,7 +5590,7 @@
     </row>
     <row r="116" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B116" s="3">
         <v>0</v>
@@ -7181,7 +5598,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B117" s="3">
         <v>1</v>
@@ -7189,7 +5606,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B118" s="3">
         <v>1</v>
@@ -7197,7 +5614,7 @@
     </row>
     <row r="119" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B119" s="3">
         <v>0</v>
@@ -7205,7 +5622,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B120" s="3">
         <v>1</v>
@@ -7213,7 +5630,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B121" s="3">
         <v>0</v>
@@ -7221,7 +5638,7 @@
     </row>
     <row r="122" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B122" s="3">
         <v>0</v>
@@ -7229,7 +5646,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B123" s="3">
         <v>0</v>
@@ -7237,7 +5654,7 @@
     </row>
     <row r="124" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B124" s="3">
         <v>1</v>
@@ -7245,7 +5662,7 @@
     </row>
     <row r="125" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B125" s="3">
         <v>1</v>
@@ -7253,7 +5670,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B126" s="3">
         <v>0</v>
@@ -7261,7 +5678,7 @@
     </row>
     <row r="127" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B127" s="3">
         <v>1</v>
@@ -7269,7 +5686,7 @@
     </row>
     <row r="128" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B128" s="3">
         <v>1</v>
@@ -7277,7 +5694,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B129" s="3">
         <v>0</v>
@@ -7285,7 +5702,7 @@
     </row>
     <row r="130" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B130" s="3">
         <v>0</v>
@@ -7293,7 +5710,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B131" s="3">
         <v>0</v>
@@ -7301,7 +5718,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B132" s="3">
         <v>0</v>
@@ -7309,7 +5726,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B133" s="3">
         <v>0</v>
@@ -7317,7 +5734,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B134" s="3">
         <v>1</v>
@@ -7325,7 +5742,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B135" s="3">
         <v>1</v>
@@ -7333,7 +5750,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B136" s="3">
         <v>1</v>
@@ -7341,7 +5758,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B137" s="3">
         <v>1</v>
@@ -7349,7 +5766,7 @@
     </row>
     <row r="138" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B138" s="3">
         <v>0</v>
@@ -7357,7 +5774,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B139" s="3">
         <v>1</v>
@@ -7365,7 +5782,7 @@
     </row>
     <row r="140" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B140" s="3">
         <v>1</v>
@@ -7373,7 +5790,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B141" s="3">
         <v>1</v>
@@ -7381,7 +5798,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B142" s="3">
         <v>1</v>
@@ -7389,7 +5806,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B143" s="3">
         <v>0</v>
@@ -7397,7 +5814,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B144" s="3">
         <v>1</v>
@@ -7405,7 +5822,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B145" s="3">
         <v>0</v>
@@ -7413,7 +5830,7 @@
     </row>
     <row r="146" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B146" s="3">
         <v>0</v>
@@ -7421,7 +5838,7 @@
     </row>
     <row r="147" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B147" s="3">
         <v>0</v>
@@ -7429,7 +5846,7 @@
     </row>
     <row r="148" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B148" s="3">
         <v>0</v>
@@ -7437,7 +5854,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B149" s="3">
         <v>1</v>
@@ -7445,7 +5862,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B150" s="3">
         <v>0</v>
@@ -7453,7 +5870,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B151" s="3">
         <v>1</v>
@@ -7461,7 +5878,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B152" s="3">
         <v>1</v>
@@ -7469,7 +5886,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B153" s="3">
         <v>0</v>
@@ -7477,7 +5894,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B154" s="3">
         <v>1</v>
@@ -7485,7 +5902,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B155" s="3">
         <v>1</v>
@@ -7493,7 +5910,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B156" s="3">
         <v>1</v>
@@ -7501,7 +5918,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B157" s="3">
         <v>1</v>
@@ -7509,7 +5926,7 @@
     </row>
     <row r="158" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B158" s="3">
         <v>1</v>
@@ -7517,7 +5934,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B159" s="3">
         <v>0</v>
@@ -7525,7 +5942,7 @@
     </row>
     <row r="160" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B160" s="3">
         <v>1</v>
@@ -7533,7 +5950,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B161" s="3">
         <v>0</v>
@@ -7541,7 +5958,7 @@
     </row>
     <row r="162" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B162" s="3">
         <v>0</v>
@@ -7549,7 +5966,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B163" s="3">
         <v>0</v>
@@ -7557,7 +5974,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B164" s="3">
         <v>1</v>
@@ -7565,7 +5982,7 @@
     </row>
     <row r="165" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B165" s="3">
         <v>1</v>
@@ -7573,7 +5990,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B166" s="3">
         <v>1</v>
@@ -7581,7 +5998,7 @@
     </row>
     <row r="167" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B167" s="3">
         <v>1</v>
@@ -7589,7 +6006,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B168" s="3">
         <v>0</v>
@@ -7597,7 +6014,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B169" s="3">
         <v>1</v>
@@ -7605,7 +6022,7 @@
     </row>
     <row r="170" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B170" s="3">
         <v>1</v>
@@ -7613,7 +6030,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B171" s="3">
         <v>1</v>
@@ -7621,7 +6038,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B172" s="3">
         <v>0</v>
@@ -7629,7 +6046,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B173" s="3">
         <v>0</v>
@@ -7637,7 +6054,7 @@
     </row>
     <row r="174" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B174" s="3">
         <v>0</v>
@@ -7645,7 +6062,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B175" s="3">
         <v>0</v>
@@ -7653,7 +6070,7 @@
     </row>
     <row r="176" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B176" s="3">
         <v>0</v>
@@ -7661,7 +6078,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B177" s="3">
         <v>0</v>
@@ -7669,7 +6086,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B178" s="3">
         <v>0</v>
@@ -7677,7 +6094,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B179" s="3">
         <v>1</v>
@@ -7685,7 +6102,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B180" s="3">
         <v>0</v>
@@ -7693,7 +6110,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B181" s="3">
         <v>1</v>
@@ -7701,7 +6118,7 @@
     </row>
     <row r="182" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B182" s="3">
         <v>1</v>
@@ -7709,7 +6126,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B183" s="3">
         <v>1</v>
@@ -7717,7 +6134,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B184" s="3">
         <v>1</v>
@@ -7725,7 +6142,7 @@
     </row>
     <row r="185" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B185" s="3">
         <v>1</v>
@@ -7733,7 +6150,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B186" s="3">
         <v>1</v>
@@ -7741,7 +6158,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B187" s="3">
         <v>1</v>
@@ -7749,7 +6166,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B188" s="3">
         <v>1</v>
@@ -7757,7 +6174,7 @@
     </row>
     <row r="189" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B189" s="3">
         <v>0</v>
@@ -7765,7 +6182,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B190" s="3">
         <v>1</v>
@@ -7773,7 +6190,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B191" s="3">
         <v>0</v>
@@ -7781,7 +6198,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B192" s="3">
         <v>0</v>
@@ -7789,7 +6206,7 @@
     </row>
     <row r="193" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B193" s="3">
         <v>1</v>
@@ -7797,7 +6214,7 @@
     </row>
     <row r="194" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B194" s="3">
         <v>0</v>
@@ -7805,7 +6222,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B195" s="3">
         <v>1</v>
@@ -7813,7 +6230,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B196" s="3">
         <v>1</v>
@@ -7821,7 +6238,7 @@
     </row>
     <row r="197" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B197" s="3">
         <v>0</v>
@@ -7829,7 +6246,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B198" s="3">
         <v>1</v>
@@ -7837,12 +6254,15 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
+      </c>
+      <c r="B199" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B200" s="3">
         <v>1</v>
@@ -7850,7 +6270,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B201" s="3">
         <v>0</v>

--- a/PS5.xlsx
+++ b/PS5.xlsx
@@ -8,25 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agchi\Documents\GitHub\P1-Ciencia-dos-Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E4C112-BC44-408C-8801-FACE9C8E2769}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B74209C-48B2-4FD3-9CD2-0C64BCCD6ACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23355" yWindow="8970" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1827,7 +1817,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1837,6 +1827,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1887,7 +1885,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2226,10 +2224,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C301"/>
+  <dimension ref="A1:C302"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A252" sqref="A252"/>
+    <sheetView zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2317,7 +2315,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2341,7 +2339,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2373,7 +2371,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2445,7 +2443,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2589,7 +2587,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2677,7 +2675,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2821,7 +2819,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3101,7 +3099,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -3157,7 +3155,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -3229,7 +3227,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -3285,7 +3283,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -3421,7 +3419,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -3445,7 +3443,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -3477,7 +3475,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -3509,7 +3507,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -3533,7 +3531,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -3565,7 +3563,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -3813,7 +3811,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -3829,7 +3827,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -4029,7 +4027,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -4053,7 +4051,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -4117,7 +4115,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -4173,7 +4171,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4293,7 +4291,7 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -4349,7 +4347,7 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -4365,7 +4363,7 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4525,7 +4523,7 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -4647,6 +4645,9 @@
       <c r="B301">
         <v>1</v>
       </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B302" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4657,14 +4658,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="255.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="7" max="7" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4672,7 +4673,7 @@
       <c r="A1" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4680,7 +4681,7 @@
       <c r="A2" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
         <v>1</v>
       </c>
     </row>
@@ -4688,15 +4689,15 @@
       <c r="A3" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B3" s="3">
-        <v>0</v>
+      <c r="B3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>0</v>
       </c>
     </row>
@@ -4704,7 +4705,7 @@
       <c r="A5" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>1</v>
       </c>
     </row>
@@ -4712,7 +4713,7 @@
       <c r="A6" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>0</v>
       </c>
     </row>
@@ -4720,7 +4721,7 @@
       <c r="A7" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>0</v>
       </c>
     </row>
@@ -4728,7 +4729,7 @@
       <c r="A8" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>1</v>
       </c>
     </row>
@@ -4736,7 +4737,7 @@
       <c r="A9" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>0</v>
       </c>
     </row>
@@ -4744,7 +4745,7 @@
       <c r="A10" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>0</v>
       </c>
     </row>
@@ -4752,7 +4753,7 @@
       <c r="A11" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>0</v>
       </c>
     </row>
@@ -4760,7 +4761,7 @@
       <c r="A12" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>1</v>
       </c>
     </row>
@@ -4768,7 +4769,7 @@
       <c r="A13" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>1</v>
       </c>
     </row>
@@ -4776,7 +4777,7 @@
       <c r="A14" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>0</v>
       </c>
     </row>
@@ -4784,7 +4785,7 @@
       <c r="A15" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15">
         <v>0</v>
       </c>
     </row>
@@ -4792,7 +4793,7 @@
       <c r="A16" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16">
         <v>0</v>
       </c>
     </row>
@@ -4800,7 +4801,7 @@
       <c r="A17" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17">
         <v>1</v>
       </c>
     </row>
@@ -4808,7 +4809,7 @@
       <c r="A18" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18">
         <v>1</v>
       </c>
     </row>
@@ -4816,7 +4817,7 @@
       <c r="A19" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19">
         <v>1</v>
       </c>
     </row>
@@ -4824,15 +4825,15 @@
       <c r="A20" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B20" s="3">
-        <v>0</v>
+      <c r="B20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21">
         <v>0</v>
       </c>
     </row>
@@ -4840,7 +4841,7 @@
       <c r="A22" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22">
         <v>1</v>
       </c>
     </row>
@@ -4848,7 +4849,7 @@
       <c r="A23" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23">
         <v>0</v>
       </c>
     </row>
@@ -4856,7 +4857,7 @@
       <c r="A24" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24">
         <v>0</v>
       </c>
     </row>
@@ -4864,7 +4865,7 @@
       <c r="A25" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25">
         <v>1</v>
       </c>
     </row>
@@ -4872,7 +4873,7 @@
       <c r="A26" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26">
         <v>0</v>
       </c>
     </row>
@@ -4880,15 +4881,15 @@
       <c r="A27" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B27" s="3">
-        <v>0</v>
+      <c r="B27">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28">
         <v>0</v>
       </c>
     </row>
@@ -4896,7 +4897,7 @@
       <c r="A29" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29">
         <v>1</v>
       </c>
     </row>
@@ -4904,7 +4905,7 @@
       <c r="A30" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30">
         <v>1</v>
       </c>
     </row>
@@ -4912,7 +4913,7 @@
       <c r="A31" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31">
         <v>1</v>
       </c>
     </row>
@@ -4920,7 +4921,7 @@
       <c r="A32" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32">
         <v>1</v>
       </c>
     </row>
@@ -4928,15 +4929,15 @@
       <c r="A33" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B33" s="3">
-        <v>1</v>
+      <c r="B33">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34">
         <v>0</v>
       </c>
     </row>
@@ -4944,7 +4945,7 @@
       <c r="A35" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35">
         <v>0</v>
       </c>
     </row>
@@ -4952,7 +4953,7 @@
       <c r="A36" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36">
         <v>1</v>
       </c>
     </row>
@@ -4960,7 +4961,7 @@
       <c r="A37" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37">
         <v>0</v>
       </c>
     </row>
@@ -4968,7 +4969,7 @@
       <c r="A38" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38">
         <v>0</v>
       </c>
     </row>
@@ -4976,15 +4977,15 @@
       <c r="A39" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B39" s="3">
-        <v>1</v>
+      <c r="B39">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40">
         <v>0</v>
       </c>
     </row>
@@ -4992,7 +4993,7 @@
       <c r="A41" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41">
         <v>1</v>
       </c>
     </row>
@@ -5000,7 +5001,7 @@
       <c r="A42" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42">
         <v>1</v>
       </c>
     </row>
@@ -5008,47 +5009,47 @@
       <c r="A43" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B43" s="3">
-        <v>1</v>
+      <c r="B43">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B44" s="3">
-        <v>1</v>
+      <c r="B44">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B45" s="3">
-        <v>0</v>
+      <c r="B45">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B46" s="3">
-        <v>0</v>
+      <c r="B46">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B47" s="3">
-        <v>1</v>
+      <c r="B47">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48">
         <v>0</v>
       </c>
     </row>
@@ -5056,7 +5057,7 @@
       <c r="A49" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49">
         <v>0</v>
       </c>
     </row>
@@ -5064,15 +5065,15 @@
       <c r="A50" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B50" s="3">
-        <v>0</v>
+      <c r="B50">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51">
         <v>1</v>
       </c>
     </row>
@@ -5080,7 +5081,7 @@
       <c r="A52" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52">
         <v>1</v>
       </c>
     </row>
@@ -5088,7 +5089,7 @@
       <c r="A53" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53">
         <v>1</v>
       </c>
     </row>
@@ -5096,7 +5097,7 @@
       <c r="A54" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54">
         <v>0</v>
       </c>
     </row>
@@ -5104,7 +5105,7 @@
       <c r="A55" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55">
         <v>0</v>
       </c>
     </row>
@@ -5112,7 +5113,7 @@
       <c r="A56" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56">
         <v>1</v>
       </c>
     </row>
@@ -5120,7 +5121,7 @@
       <c r="A57" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57">
         <v>1</v>
       </c>
     </row>
@@ -5128,7 +5129,7 @@
       <c r="A58" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58">
         <v>1</v>
       </c>
     </row>
@@ -5136,7 +5137,7 @@
       <c r="A59" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59">
         <v>1</v>
       </c>
     </row>
@@ -5144,7 +5145,7 @@
       <c r="A60" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60">
         <v>1</v>
       </c>
     </row>
@@ -5152,7 +5153,7 @@
       <c r="A61" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61">
         <v>1</v>
       </c>
     </row>
@@ -5160,15 +5161,15 @@
       <c r="A62" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B62" s="3">
-        <v>0</v>
+      <c r="B62">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63">
         <v>1</v>
       </c>
     </row>
@@ -5176,15 +5177,15 @@
       <c r="A64" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B64" s="3">
-        <v>0</v>
+      <c r="B64">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65">
         <v>1</v>
       </c>
     </row>
@@ -5192,15 +5193,15 @@
       <c r="A66" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B66" s="3">
-        <v>0</v>
+      <c r="B66">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67">
         <v>0</v>
       </c>
     </row>
@@ -5208,7 +5209,7 @@
       <c r="A68" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68">
         <v>0</v>
       </c>
     </row>
@@ -5216,7 +5217,7 @@
       <c r="A69" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69">
         <v>0</v>
       </c>
     </row>
@@ -5224,7 +5225,7 @@
       <c r="A70" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70">
         <v>0</v>
       </c>
     </row>
@@ -5232,15 +5233,15 @@
       <c r="A71" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B71" s="3">
-        <v>0</v>
+      <c r="B71">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72">
         <v>1</v>
       </c>
     </row>
@@ -5248,7 +5249,7 @@
       <c r="A73" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73">
         <v>1</v>
       </c>
     </row>
@@ -5256,7 +5257,7 @@
       <c r="A74" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74">
         <v>0</v>
       </c>
     </row>
@@ -5264,7 +5265,7 @@
       <c r="A75" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75">
         <v>0</v>
       </c>
     </row>
@@ -5272,7 +5273,7 @@
       <c r="A76" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76">
         <v>0</v>
       </c>
     </row>
@@ -5280,7 +5281,7 @@
       <c r="A77" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77">
         <v>1</v>
       </c>
     </row>
@@ -5288,7 +5289,7 @@
       <c r="A78" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78">
         <v>1</v>
       </c>
     </row>
@@ -5296,7 +5297,7 @@
       <c r="A79" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79">
         <v>1</v>
       </c>
     </row>
@@ -5304,15 +5305,15 @@
       <c r="A80" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B80" s="3">
-        <v>0</v>
+      <c r="B80">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81">
         <v>0</v>
       </c>
     </row>
@@ -5320,15 +5321,15 @@
       <c r="A82" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B82" s="3">
-        <v>1</v>
+      <c r="B82">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83">
         <v>1</v>
       </c>
     </row>
@@ -5336,15 +5337,15 @@
       <c r="A84" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B84" s="3">
-        <v>1</v>
+      <c r="B84">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85">
         <v>1</v>
       </c>
     </row>
@@ -5352,23 +5353,23 @@
       <c r="A86" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B86" s="3">
-        <v>0</v>
+      <c r="B86">
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B87" s="3">
-        <v>0</v>
+      <c r="B87">
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88">
         <v>0</v>
       </c>
     </row>
@@ -5376,7 +5377,7 @@
       <c r="A89" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89">
         <v>1</v>
       </c>
     </row>
@@ -5384,7 +5385,7 @@
       <c r="A90" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90">
         <v>1</v>
       </c>
     </row>
@@ -5392,7 +5393,7 @@
       <c r="A91" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91">
         <v>1</v>
       </c>
     </row>
@@ -5400,7 +5401,7 @@
       <c r="A92" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92">
         <v>1</v>
       </c>
     </row>
@@ -5408,7 +5409,7 @@
       <c r="A93" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93">
         <v>0</v>
       </c>
     </row>
@@ -5416,7 +5417,7 @@
       <c r="A94" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94">
         <v>1</v>
       </c>
     </row>
@@ -5424,7 +5425,7 @@
       <c r="A95" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95">
         <v>0</v>
       </c>
     </row>
@@ -5432,7 +5433,7 @@
       <c r="A96" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96">
         <v>0</v>
       </c>
     </row>
@@ -5440,7 +5441,7 @@
       <c r="A97" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97">
         <v>1</v>
       </c>
     </row>
@@ -5448,7 +5449,7 @@
       <c r="A98" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98">
         <v>0</v>
       </c>
     </row>
@@ -5456,7 +5457,7 @@
       <c r="A99" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99">
         <v>0</v>
       </c>
     </row>
@@ -5464,7 +5465,7 @@
       <c r="A100" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100">
         <v>0</v>
       </c>
     </row>
@@ -5472,7 +5473,7 @@
       <c r="A101" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101">
         <v>1</v>
       </c>
     </row>
@@ -5480,7 +5481,7 @@
       <c r="A102" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102">
         <v>1</v>
       </c>
     </row>
@@ -5488,7 +5489,7 @@
       <c r="A103" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103">
         <v>1</v>
       </c>
     </row>
@@ -5496,7 +5497,7 @@
       <c r="A104" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104">
         <v>1</v>
       </c>
     </row>
@@ -5504,7 +5505,7 @@
       <c r="A105" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105">
         <v>1</v>
       </c>
     </row>
@@ -5512,15 +5513,15 @@
       <c r="A106" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B106" s="3">
-        <v>0</v>
+      <c r="B106">
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107">
         <v>1</v>
       </c>
     </row>
@@ -5528,7 +5529,7 @@
       <c r="A108" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108">
         <v>0</v>
       </c>
     </row>
@@ -5536,15 +5537,15 @@
       <c r="A109" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B109" s="3">
-        <v>1</v>
+      <c r="B109">
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110">
         <v>1</v>
       </c>
     </row>
@@ -5552,7 +5553,7 @@
       <c r="A111" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111">
         <v>1</v>
       </c>
     </row>
@@ -5560,7 +5561,7 @@
       <c r="A112" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112">
         <v>0</v>
       </c>
     </row>
@@ -5568,15 +5569,15 @@
       <c r="A113" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="B113" s="3">
-        <v>1</v>
+      <c r="B113">
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114">
         <v>1</v>
       </c>
     </row>
@@ -5584,7 +5585,7 @@
       <c r="A115" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115">
         <v>0</v>
       </c>
     </row>
@@ -5592,7 +5593,7 @@
       <c r="A116" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116">
         <v>0</v>
       </c>
     </row>
@@ -5600,7 +5601,7 @@
       <c r="A117" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117">
         <v>1</v>
       </c>
     </row>
@@ -5608,15 +5609,15 @@
       <c r="A118" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B118" s="3">
-        <v>1</v>
+      <c r="B118">
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119">
         <v>0</v>
       </c>
     </row>
@@ -5624,15 +5625,15 @@
       <c r="A120" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B120" s="3">
-        <v>1</v>
+      <c r="B120">
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121">
         <v>0</v>
       </c>
     </row>
@@ -5640,7 +5641,7 @@
       <c r="A122" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122">
         <v>0</v>
       </c>
     </row>
@@ -5648,7 +5649,7 @@
       <c r="A123" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123">
         <v>0</v>
       </c>
     </row>
@@ -5656,7 +5657,7 @@
       <c r="A124" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124">
         <v>1</v>
       </c>
     </row>
@@ -5664,7 +5665,7 @@
       <c r="A125" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125">
         <v>1</v>
       </c>
     </row>
@@ -5672,7 +5673,7 @@
       <c r="A126" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126">
         <v>0</v>
       </c>
     </row>
@@ -5680,7 +5681,7 @@
       <c r="A127" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127">
         <v>1</v>
       </c>
     </row>
@@ -5688,7 +5689,7 @@
       <c r="A128" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128">
         <v>1</v>
       </c>
     </row>
@@ -5696,7 +5697,7 @@
       <c r="A129" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129">
         <v>0</v>
       </c>
     </row>
@@ -5704,15 +5705,15 @@
       <c r="A130" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B130" s="3">
-        <v>0</v>
+      <c r="B130">
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131">
         <v>0</v>
       </c>
     </row>
@@ -5720,7 +5721,7 @@
       <c r="A132" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132">
         <v>0</v>
       </c>
     </row>
@@ -5728,15 +5729,15 @@
       <c r="A133" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B133" s="3">
-        <v>0</v>
+      <c r="B133">
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B134">
         <v>1</v>
       </c>
     </row>
@@ -5744,15 +5745,15 @@
       <c r="A135" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B135" s="3">
-        <v>1</v>
+      <c r="B135">
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136">
         <v>1</v>
       </c>
     </row>
@@ -5760,7 +5761,7 @@
       <c r="A137" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137">
         <v>1</v>
       </c>
     </row>
@@ -5768,7 +5769,7 @@
       <c r="A138" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138">
         <v>0</v>
       </c>
     </row>
@@ -5776,7 +5777,7 @@
       <c r="A139" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139">
         <v>1</v>
       </c>
     </row>
@@ -5784,7 +5785,7 @@
       <c r="A140" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140">
         <v>1</v>
       </c>
     </row>
@@ -5792,31 +5793,31 @@
       <c r="A141" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B141" s="3">
-        <v>1</v>
+      <c r="B141">
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B142" s="3">
-        <v>1</v>
+      <c r="B142">
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="B143" s="3">
-        <v>0</v>
+      <c r="B143">
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144">
         <v>1</v>
       </c>
     </row>
@@ -5824,15 +5825,15 @@
       <c r="A145" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B145" s="3">
-        <v>0</v>
+      <c r="B145">
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146">
         <v>0</v>
       </c>
     </row>
@@ -5840,7 +5841,7 @@
       <c r="A147" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147">
         <v>0</v>
       </c>
     </row>
@@ -5848,7 +5849,7 @@
       <c r="A148" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148">
         <v>0</v>
       </c>
     </row>
@@ -5856,7 +5857,7 @@
       <c r="A149" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B149">
         <v>1</v>
       </c>
     </row>
@@ -5864,7 +5865,7 @@
       <c r="A150" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150">
         <v>0</v>
       </c>
     </row>
@@ -5872,7 +5873,7 @@
       <c r="A151" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151">
         <v>1</v>
       </c>
     </row>
@@ -5880,7 +5881,7 @@
       <c r="A152" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152">
         <v>1</v>
       </c>
     </row>
@@ -5888,7 +5889,7 @@
       <c r="A153" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B153">
         <v>0</v>
       </c>
     </row>
@@ -5896,7 +5897,7 @@
       <c r="A154" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154">
         <v>1</v>
       </c>
     </row>
@@ -5904,7 +5905,7 @@
       <c r="A155" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B155">
         <v>1</v>
       </c>
     </row>
@@ -5912,7 +5913,7 @@
       <c r="A156" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B156" s="3">
+      <c r="B156">
         <v>1</v>
       </c>
     </row>
@@ -5920,7 +5921,7 @@
       <c r="A157" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B157" s="3">
+      <c r="B157">
         <v>1</v>
       </c>
     </row>
@@ -5928,7 +5929,7 @@
       <c r="A158" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B158">
         <v>1</v>
       </c>
     </row>
@@ -5936,7 +5937,7 @@
       <c r="A159" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B159">
         <v>0</v>
       </c>
     </row>
@@ -5944,7 +5945,7 @@
       <c r="A160" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B160">
         <v>1</v>
       </c>
     </row>
@@ -5952,7 +5953,7 @@
       <c r="A161" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B161">
         <v>0</v>
       </c>
     </row>
@@ -5960,7 +5961,7 @@
       <c r="A162" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B162" s="3">
+      <c r="B162">
         <v>0</v>
       </c>
     </row>
@@ -5968,23 +5969,23 @@
       <c r="A163" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B163" s="3">
-        <v>0</v>
+      <c r="B163">
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="B164" s="3">
-        <v>1</v>
+      <c r="B164">
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B165" s="3">
+      <c r="B165">
         <v>1</v>
       </c>
     </row>
@@ -5992,7 +5993,7 @@
       <c r="A166" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B166">
         <v>1</v>
       </c>
     </row>
@@ -6000,7 +6001,7 @@
       <c r="A167" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B167" s="3">
+      <c r="B167">
         <v>1</v>
       </c>
     </row>
@@ -6008,15 +6009,15 @@
       <c r="A168" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="B168" s="3">
-        <v>0</v>
+      <c r="B168">
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B169" s="3">
+      <c r="B169">
         <v>1</v>
       </c>
     </row>
@@ -6024,7 +6025,7 @@
       <c r="A170" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="B170" s="3">
+      <c r="B170">
         <v>1</v>
       </c>
     </row>
@@ -6032,7 +6033,7 @@
       <c r="A171" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B171" s="3">
+      <c r="B171">
         <v>1</v>
       </c>
     </row>
@@ -6040,7 +6041,7 @@
       <c r="A172" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B172" s="3">
+      <c r="B172">
         <v>0</v>
       </c>
     </row>
@@ -6048,7 +6049,7 @@
       <c r="A173" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="B173" s="3">
+      <c r="B173">
         <v>0</v>
       </c>
     </row>
@@ -6056,7 +6057,7 @@
       <c r="A174" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B174" s="3">
+      <c r="B174">
         <v>0</v>
       </c>
     </row>
@@ -6064,7 +6065,7 @@
       <c r="A175" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B175" s="3">
+      <c r="B175">
         <v>0</v>
       </c>
     </row>
@@ -6072,7 +6073,7 @@
       <c r="A176" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="B176" s="3">
+      <c r="B176">
         <v>0</v>
       </c>
     </row>
@@ -6080,7 +6081,7 @@
       <c r="A177" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B177" s="3">
+      <c r="B177">
         <v>0</v>
       </c>
     </row>
@@ -6088,23 +6089,23 @@
       <c r="A178" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="B178" s="3">
-        <v>0</v>
+      <c r="B178">
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="B179" s="3">
-        <v>1</v>
+      <c r="B179">
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B180" s="3">
+      <c r="B180">
         <v>0</v>
       </c>
     </row>
@@ -6112,7 +6113,7 @@
       <c r="A181" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B181" s="3">
+      <c r="B181">
         <v>1</v>
       </c>
     </row>
@@ -6120,15 +6121,15 @@
       <c r="A182" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="B182" s="3">
-        <v>1</v>
+      <c r="B182">
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="B183" s="3">
+      <c r="B183">
         <v>1</v>
       </c>
     </row>
@@ -6136,23 +6137,23 @@
       <c r="A184" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="B184" s="3">
-        <v>1</v>
+      <c r="B184">
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="B185" s="3">
-        <v>1</v>
+      <c r="B185">
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="B186" s="3">
+      <c r="B186">
         <v>1</v>
       </c>
     </row>
@@ -6160,7 +6161,7 @@
       <c r="A187" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B187" s="3">
+      <c r="B187">
         <v>1</v>
       </c>
     </row>
@@ -6168,7 +6169,7 @@
       <c r="A188" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="B188" s="3">
+      <c r="B188">
         <v>1</v>
       </c>
     </row>
@@ -6176,7 +6177,7 @@
       <c r="A189" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="B189" s="3">
+      <c r="B189">
         <v>0</v>
       </c>
     </row>
@@ -6184,7 +6185,7 @@
       <c r="A190" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="B190" s="3">
+      <c r="B190">
         <v>1</v>
       </c>
     </row>
@@ -6192,7 +6193,7 @@
       <c r="A191" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B191" s="3">
+      <c r="B191">
         <v>0</v>
       </c>
     </row>
@@ -6200,7 +6201,7 @@
       <c r="A192" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B192" s="3">
+      <c r="B192">
         <v>0</v>
       </c>
     </row>
@@ -6208,7 +6209,7 @@
       <c r="A193" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="B193" s="3">
+      <c r="B193">
         <v>1</v>
       </c>
     </row>
@@ -6216,15 +6217,15 @@
       <c r="A194" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="B194" s="3">
-        <v>0</v>
+      <c r="B194">
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B195" s="3">
+      <c r="B195">
         <v>1</v>
       </c>
     </row>
@@ -6232,7 +6233,7 @@
       <c r="A196" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="B196" s="3">
+      <c r="B196">
         <v>1</v>
       </c>
     </row>
@@ -6240,7 +6241,7 @@
       <c r="A197" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B197" s="3">
+      <c r="B197">
         <v>0</v>
       </c>
     </row>
@@ -6248,7 +6249,7 @@
       <c r="A198" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B198" s="3">
+      <c r="B198">
         <v>1</v>
       </c>
     </row>
@@ -6256,7 +6257,7 @@
       <c r="A199" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B199" s="3">
+      <c r="B199">
         <v>1</v>
       </c>
     </row>
@@ -6264,7 +6265,7 @@
       <c r="A200" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="B200" s="3">
+      <c r="B200">
         <v>1</v>
       </c>
     </row>
@@ -6272,7 +6273,7 @@
       <c r="A201" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="B201" s="3">
+      <c r="B201">
         <v>0</v>
       </c>
     </row>
